--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1441200</v>
+        <v>1227500</v>
       </c>
       <c r="E8" s="3">
-        <v>1404200</v>
+        <v>1196000</v>
       </c>
       <c r="F8" s="3">
-        <v>1376300</v>
+        <v>1172200</v>
       </c>
       <c r="G8" s="3">
-        <v>1331500</v>
+        <v>1134000</v>
       </c>
       <c r="H8" s="3">
-        <v>1329800</v>
+        <v>1132600</v>
       </c>
       <c r="I8" s="3">
-        <v>1391200</v>
+        <v>1184900</v>
       </c>
       <c r="J8" s="3">
-        <v>1357900</v>
+        <v>1156500</v>
       </c>
       <c r="K8" s="3">
         <v>1408000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>317500</v>
+        <v>270400</v>
       </c>
       <c r="E9" s="3">
-        <v>247200</v>
+        <v>210500</v>
       </c>
       <c r="F9" s="3">
-        <v>452800</v>
+        <v>385600</v>
       </c>
       <c r="G9" s="3">
-        <v>407200</v>
+        <v>346800</v>
       </c>
       <c r="H9" s="3">
-        <v>272300</v>
+        <v>231900</v>
       </c>
       <c r="I9" s="3">
-        <v>322500</v>
+        <v>274700</v>
       </c>
       <c r="J9" s="3">
-        <v>289100</v>
+        <v>246300</v>
       </c>
       <c r="K9" s="3">
         <v>307000</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1123800</v>
+        <v>957100</v>
       </c>
       <c r="E10" s="3">
-        <v>1157000</v>
+        <v>985400</v>
       </c>
       <c r="F10" s="3">
-        <v>923500</v>
+        <v>786600</v>
       </c>
       <c r="G10" s="3">
-        <v>924200</v>
+        <v>787200</v>
       </c>
       <c r="H10" s="3">
-        <v>1057500</v>
+        <v>900700</v>
       </c>
       <c r="I10" s="3">
-        <v>1068600</v>
+        <v>910200</v>
       </c>
       <c r="J10" s="3">
-        <v>1068800</v>
+        <v>910300</v>
       </c>
       <c r="K10" s="3">
         <v>1101000</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
-        <v>12300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4900</v>
-      </c>
       <c r="J14" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K14" s="3">
         <v>9500</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>224800</v>
+        <v>191500</v>
       </c>
       <c r="E15" s="3">
-        <v>189800</v>
+        <v>161600</v>
       </c>
       <c r="F15" s="3">
-        <v>181500</v>
+        <v>154600</v>
       </c>
       <c r="G15" s="3">
-        <v>190800</v>
+        <v>162500</v>
       </c>
       <c r="H15" s="3">
-        <v>180800</v>
+        <v>154000</v>
       </c>
       <c r="I15" s="3">
-        <v>190400</v>
+        <v>162100</v>
       </c>
       <c r="J15" s="3">
-        <v>179900</v>
+        <v>153200</v>
       </c>
       <c r="K15" s="3">
         <v>188100</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1294200</v>
+        <v>1102300</v>
       </c>
       <c r="E17" s="3">
-        <v>1234400</v>
+        <v>1051300</v>
       </c>
       <c r="F17" s="3">
-        <v>1229100</v>
+        <v>1046800</v>
       </c>
       <c r="G17" s="3">
-        <v>1175300</v>
+        <v>1001000</v>
       </c>
       <c r="H17" s="3">
-        <v>1161400</v>
+        <v>989200</v>
       </c>
       <c r="I17" s="3">
-        <v>1212400</v>
+        <v>1032600</v>
       </c>
       <c r="J17" s="3">
-        <v>1186800</v>
+        <v>1010800</v>
       </c>
       <c r="K17" s="3">
         <v>1245200</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>147100</v>
+        <v>125300</v>
       </c>
       <c r="E18" s="3">
-        <v>169800</v>
+        <v>144600</v>
       </c>
       <c r="F18" s="3">
-        <v>147200</v>
+        <v>125400</v>
       </c>
       <c r="G18" s="3">
-        <v>156100</v>
+        <v>133000</v>
       </c>
       <c r="H18" s="3">
-        <v>168400</v>
+        <v>143400</v>
       </c>
       <c r="I18" s="3">
-        <v>178800</v>
+        <v>152200</v>
       </c>
       <c r="J18" s="3">
-        <v>171100</v>
+        <v>145700</v>
       </c>
       <c r="K18" s="3">
         <v>162900</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-63700</v>
+        <v>-54200</v>
       </c>
       <c r="E20" s="3">
-        <v>-29300</v>
+        <v>-25000</v>
       </c>
       <c r="F20" s="3">
-        <v>-22000</v>
+        <v>-18700</v>
       </c>
       <c r="G20" s="3">
-        <v>-29400</v>
+        <v>-25000</v>
       </c>
       <c r="H20" s="3">
-        <v>-19300</v>
+        <v>-16500</v>
       </c>
       <c r="I20" s="3">
-        <v>-28100</v>
+        <v>-23900</v>
       </c>
       <c r="J20" s="3">
-        <v>-16800</v>
+        <v>-14300</v>
       </c>
       <c r="K20" s="3">
         <v>-13800</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>312400</v>
+        <v>266000</v>
       </c>
       <c r="E21" s="3">
-        <v>143000</v>
+        <v>121800</v>
       </c>
       <c r="F21" s="3">
-        <v>312500</v>
+        <v>266100</v>
       </c>
       <c r="G21" s="3">
-        <v>136700</v>
+        <v>116400</v>
       </c>
       <c r="H21" s="3">
-        <v>329900</v>
+        <v>281000</v>
       </c>
       <c r="I21" s="3">
-        <v>170600</v>
+        <v>145300</v>
       </c>
       <c r="J21" s="3">
-        <v>329500</v>
+        <v>280600</v>
       </c>
       <c r="K21" s="3">
         <v>160000</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>83400</v>
+        <v>71000</v>
       </c>
       <c r="E23" s="3">
-        <v>140500</v>
+        <v>119700</v>
       </c>
       <c r="F23" s="3">
-        <v>125200</v>
+        <v>106600</v>
       </c>
       <c r="G23" s="3">
-        <v>126800</v>
+        <v>108000</v>
       </c>
       <c r="H23" s="3">
-        <v>149100</v>
+        <v>127000</v>
       </c>
       <c r="I23" s="3">
-        <v>150600</v>
+        <v>128300</v>
       </c>
       <c r="J23" s="3">
-        <v>154300</v>
+        <v>131400</v>
       </c>
       <c r="K23" s="3">
         <v>149100</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="E24" s="3">
-        <v>45800</v>
+        <v>39000</v>
       </c>
       <c r="F24" s="3">
-        <v>32300</v>
+        <v>27500</v>
       </c>
       <c r="G24" s="3">
-        <v>34800</v>
+        <v>29700</v>
       </c>
       <c r="H24" s="3">
-        <v>39900</v>
+        <v>33900</v>
       </c>
       <c r="I24" s="3">
-        <v>10100</v>
+        <v>8600</v>
       </c>
       <c r="J24" s="3">
-        <v>36200</v>
+        <v>30900</v>
       </c>
       <c r="K24" s="3">
         <v>31500</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59400</v>
+        <v>50600</v>
       </c>
       <c r="E26" s="3">
-        <v>94700</v>
+        <v>80700</v>
       </c>
       <c r="F26" s="3">
-        <v>92900</v>
+        <v>79200</v>
       </c>
       <c r="G26" s="3">
-        <v>91900</v>
+        <v>78300</v>
       </c>
       <c r="H26" s="3">
-        <v>109200</v>
+        <v>93000</v>
       </c>
       <c r="I26" s="3">
-        <v>140500</v>
+        <v>119700</v>
       </c>
       <c r="J26" s="3">
-        <v>118100</v>
+        <v>100600</v>
       </c>
       <c r="K26" s="3">
         <v>117500</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59100</v>
+        <v>50300</v>
       </c>
       <c r="E27" s="3">
-        <v>95400</v>
+        <v>81300</v>
       </c>
       <c r="F27" s="3">
-        <v>87100</v>
+        <v>74200</v>
       </c>
       <c r="G27" s="3">
-        <v>84200</v>
+        <v>71700</v>
       </c>
       <c r="H27" s="3">
-        <v>106800</v>
+        <v>91000</v>
       </c>
       <c r="I27" s="3">
-        <v>137100</v>
+        <v>116800</v>
       </c>
       <c r="J27" s="3">
-        <v>117700</v>
+        <v>100200</v>
       </c>
       <c r="K27" s="3">
         <v>112800</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63700</v>
+        <v>54200</v>
       </c>
       <c r="E32" s="3">
-        <v>29300</v>
+        <v>25000</v>
       </c>
       <c r="F32" s="3">
-        <v>22000</v>
+        <v>18700</v>
       </c>
       <c r="G32" s="3">
-        <v>29400</v>
+        <v>25000</v>
       </c>
       <c r="H32" s="3">
-        <v>19300</v>
+        <v>16500</v>
       </c>
       <c r="I32" s="3">
-        <v>28100</v>
+        <v>23900</v>
       </c>
       <c r="J32" s="3">
-        <v>16800</v>
+        <v>14300</v>
       </c>
       <c r="K32" s="3">
         <v>13800</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59100</v>
+        <v>50300</v>
       </c>
       <c r="E33" s="3">
-        <v>95400</v>
+        <v>81300</v>
       </c>
       <c r="F33" s="3">
-        <v>87100</v>
+        <v>74200</v>
       </c>
       <c r="G33" s="3">
-        <v>84200</v>
+        <v>71700</v>
       </c>
       <c r="H33" s="3">
-        <v>106800</v>
+        <v>91000</v>
       </c>
       <c r="I33" s="3">
-        <v>137100</v>
+        <v>116800</v>
       </c>
       <c r="J33" s="3">
-        <v>117700</v>
+        <v>100200</v>
       </c>
       <c r="K33" s="3">
         <v>112800</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59100</v>
+        <v>50300</v>
       </c>
       <c r="E35" s="3">
-        <v>95400</v>
+        <v>81300</v>
       </c>
       <c r="F35" s="3">
-        <v>87100</v>
+        <v>74200</v>
       </c>
       <c r="G35" s="3">
-        <v>84200</v>
+        <v>71700</v>
       </c>
       <c r="H35" s="3">
-        <v>106800</v>
+        <v>91000</v>
       </c>
       <c r="I35" s="3">
-        <v>137100</v>
+        <v>116800</v>
       </c>
       <c r="J35" s="3">
-        <v>117700</v>
+        <v>100200</v>
       </c>
       <c r="K35" s="3">
         <v>112800</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>81700</v>
+        <v>69600</v>
       </c>
       <c r="E41" s="3">
-        <v>87800</v>
+        <v>74800</v>
       </c>
       <c r="F41" s="3">
-        <v>104500</v>
+        <v>89000</v>
       </c>
       <c r="G41" s="3">
-        <v>100500</v>
+        <v>85600</v>
       </c>
       <c r="H41" s="3">
-        <v>62900</v>
+        <v>53600</v>
       </c>
       <c r="I41" s="3">
-        <v>162400</v>
+        <v>138400</v>
       </c>
       <c r="J41" s="3">
-        <v>46300</v>
+        <v>39400</v>
       </c>
       <c r="K41" s="3">
         <v>174600</v>
@@ -1840,25 +1840,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>137200</v>
+        <v>116900</v>
       </c>
       <c r="E42" s="3">
-        <v>139600</v>
+        <v>118900</v>
       </c>
       <c r="F42" s="3">
-        <v>153500</v>
+        <v>130700</v>
       </c>
       <c r="G42" s="3">
-        <v>183300</v>
+        <v>156100</v>
       </c>
       <c r="H42" s="3">
-        <v>197200</v>
+        <v>168000</v>
       </c>
       <c r="I42" s="3">
-        <v>212900</v>
+        <v>181300</v>
       </c>
       <c r="J42" s="3">
-        <v>88900</v>
+        <v>75700</v>
       </c>
       <c r="K42" s="3">
         <v>120200</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>620500</v>
+        <v>528500</v>
       </c>
       <c r="E43" s="3">
-        <v>679500</v>
+        <v>578800</v>
       </c>
       <c r="F43" s="3">
-        <v>644400</v>
+        <v>548800</v>
       </c>
       <c r="G43" s="3">
-        <v>550800</v>
+        <v>469100</v>
       </c>
       <c r="H43" s="3">
-        <v>583700</v>
+        <v>497100</v>
       </c>
       <c r="I43" s="3">
-        <v>556200</v>
+        <v>473700</v>
       </c>
       <c r="J43" s="3">
-        <v>523600</v>
+        <v>445900</v>
       </c>
       <c r="K43" s="3">
         <v>520300</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>80100</v>
+        <v>68200</v>
       </c>
       <c r="E44" s="3">
-        <v>85000</v>
+        <v>72400</v>
       </c>
       <c r="F44" s="3">
-        <v>92900</v>
+        <v>79100</v>
       </c>
       <c r="G44" s="3">
-        <v>90000</v>
+        <v>76600</v>
       </c>
       <c r="H44" s="3">
-        <v>107800</v>
+        <v>91800</v>
       </c>
       <c r="I44" s="3">
-        <v>85100</v>
+        <v>72500</v>
       </c>
       <c r="J44" s="3">
-        <v>85500</v>
+        <v>72800</v>
       </c>
       <c r="K44" s="3">
         <v>66600</v>
@@ -1954,25 +1954,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>143300</v>
+        <v>122000</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>25400</v>
+        <v>21600</v>
       </c>
       <c r="G45" s="3">
-        <v>10900</v>
+        <v>9300</v>
       </c>
       <c r="H45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J45" s="3">
         <v>4200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1062800</v>
+        <v>905200</v>
       </c>
       <c r="E46" s="3">
-        <v>991900</v>
+        <v>844800</v>
       </c>
       <c r="F46" s="3">
-        <v>1020500</v>
+        <v>869200</v>
       </c>
       <c r="G46" s="3">
-        <v>924500</v>
+        <v>787400</v>
       </c>
       <c r="H46" s="3">
-        <v>955800</v>
+        <v>814000</v>
       </c>
       <c r="I46" s="3">
-        <v>908500</v>
+        <v>773800</v>
       </c>
       <c r="J46" s="3">
-        <v>749200</v>
+        <v>638100</v>
       </c>
       <c r="K46" s="3">
         <v>881700</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31200</v>
+        <v>26600</v>
       </c>
       <c r="E47" s="3">
-        <v>28200</v>
+        <v>24100</v>
       </c>
       <c r="F47" s="3">
-        <v>29700</v>
+        <v>25300</v>
       </c>
       <c r="G47" s="3">
-        <v>28300</v>
+        <v>24100</v>
       </c>
       <c r="H47" s="3">
-        <v>23300</v>
+        <v>19800</v>
       </c>
       <c r="I47" s="3">
-        <v>45900</v>
+        <v>39100</v>
       </c>
       <c r="J47" s="3">
-        <v>179700</v>
+        <v>153000</v>
       </c>
       <c r="K47" s="3">
         <v>181900</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2490600</v>
+        <v>2121300</v>
       </c>
       <c r="E48" s="3">
-        <v>2149500</v>
+        <v>1830800</v>
       </c>
       <c r="F48" s="3">
-        <v>2061600</v>
+        <v>1755900</v>
       </c>
       <c r="G48" s="3">
-        <v>2034700</v>
+        <v>1733000</v>
       </c>
       <c r="H48" s="3">
-        <v>1958400</v>
+        <v>1668000</v>
       </c>
       <c r="I48" s="3">
-        <v>1869600</v>
+        <v>1592400</v>
       </c>
       <c r="J48" s="3">
-        <v>1750200</v>
+        <v>1490700</v>
       </c>
       <c r="K48" s="3">
         <v>1737500</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>313900</v>
+        <v>267300</v>
       </c>
       <c r="E49" s="3">
-        <v>303400</v>
+        <v>258400</v>
       </c>
       <c r="F49" s="3">
-        <v>308500</v>
+        <v>262800</v>
       </c>
       <c r="G49" s="3">
-        <v>301400</v>
+        <v>256700</v>
       </c>
       <c r="H49" s="3">
-        <v>316600</v>
+        <v>269600</v>
       </c>
       <c r="I49" s="3">
-        <v>316600</v>
+        <v>269700</v>
       </c>
       <c r="J49" s="3">
-        <v>310000</v>
+        <v>264000</v>
       </c>
       <c r="K49" s="3">
         <v>301900</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80900</v>
+        <v>68900</v>
       </c>
       <c r="E52" s="3">
-        <v>79400</v>
+        <v>67700</v>
       </c>
       <c r="F52" s="3">
-        <v>63100</v>
+        <v>53800</v>
       </c>
       <c r="G52" s="3">
-        <v>88900</v>
+        <v>75700</v>
       </c>
       <c r="H52" s="3">
-        <v>78200</v>
+        <v>66600</v>
       </c>
       <c r="I52" s="3">
-        <v>72800</v>
+        <v>62000</v>
       </c>
       <c r="J52" s="3">
-        <v>79800</v>
+        <v>68000</v>
       </c>
       <c r="K52" s="3">
         <v>87700</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3979400</v>
+        <v>3389300</v>
       </c>
       <c r="E54" s="3">
-        <v>3552500</v>
+        <v>3025700</v>
       </c>
       <c r="F54" s="3">
-        <v>3483500</v>
+        <v>2966900</v>
       </c>
       <c r="G54" s="3">
-        <v>3377900</v>
+        <v>2877000</v>
       </c>
       <c r="H54" s="3">
-        <v>3332200</v>
+        <v>2838100</v>
       </c>
       <c r="I54" s="3">
-        <v>3213400</v>
+        <v>2736900</v>
       </c>
       <c r="J54" s="3">
-        <v>3069000</v>
+        <v>2613900</v>
       </c>
       <c r="K54" s="3">
         <v>3190700</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>511000</v>
+        <v>435300</v>
       </c>
       <c r="E57" s="3">
-        <v>490000</v>
+        <v>417300</v>
       </c>
       <c r="F57" s="3">
-        <v>205000</v>
+        <v>174600</v>
       </c>
       <c r="G57" s="3">
-        <v>457900</v>
+        <v>390000</v>
       </c>
       <c r="H57" s="3">
-        <v>199800</v>
+        <v>170200</v>
       </c>
       <c r="I57" s="3">
-        <v>760600</v>
+        <v>647800</v>
       </c>
       <c r="J57" s="3">
-        <v>201200</v>
+        <v>171300</v>
       </c>
       <c r="K57" s="3">
         <v>489000</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>348600</v>
+        <v>296900</v>
       </c>
       <c r="E58" s="3">
-        <v>362400</v>
+        <v>308700</v>
       </c>
       <c r="F58" s="3">
-        <v>184000</v>
+        <v>156700</v>
       </c>
       <c r="G58" s="3">
-        <v>152200</v>
+        <v>129700</v>
       </c>
       <c r="H58" s="3">
-        <v>159200</v>
+        <v>135600</v>
       </c>
       <c r="I58" s="3">
-        <v>212600</v>
+        <v>181100</v>
       </c>
       <c r="J58" s="3">
-        <v>64400</v>
+        <v>54900</v>
       </c>
       <c r="K58" s="3">
         <v>48600</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>250500</v>
+        <v>213300</v>
       </c>
       <c r="E59" s="3">
-        <v>250500</v>
+        <v>213300</v>
       </c>
       <c r="F59" s="3">
-        <v>536100</v>
+        <v>456600</v>
       </c>
       <c r="G59" s="3">
-        <v>493900</v>
+        <v>420600</v>
       </c>
       <c r="H59" s="3">
-        <v>505300</v>
+        <v>430300</v>
       </c>
       <c r="I59" s="3">
-        <v>511300</v>
+        <v>435500</v>
       </c>
       <c r="J59" s="3">
-        <v>563600</v>
+        <v>480000</v>
       </c>
       <c r="K59" s="3">
         <v>359200</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1110100</v>
+        <v>945500</v>
       </c>
       <c r="E60" s="3">
-        <v>1102900</v>
+        <v>939300</v>
       </c>
       <c r="F60" s="3">
-        <v>925100</v>
+        <v>787900</v>
       </c>
       <c r="G60" s="3">
-        <v>867100</v>
+        <v>738500</v>
       </c>
       <c r="H60" s="3">
-        <v>864300</v>
+        <v>736100</v>
       </c>
       <c r="I60" s="3">
-        <v>876800</v>
+        <v>746800</v>
       </c>
       <c r="J60" s="3">
-        <v>829200</v>
+        <v>706200</v>
       </c>
       <c r="K60" s="3">
         <v>896800</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>794200</v>
+        <v>676400</v>
       </c>
       <c r="E61" s="3">
-        <v>324800</v>
+        <v>276600</v>
       </c>
       <c r="F61" s="3">
-        <v>496600</v>
+        <v>423000</v>
       </c>
       <c r="G61" s="3">
-        <v>480300</v>
+        <v>409100</v>
       </c>
       <c r="H61" s="3">
-        <v>433900</v>
+        <v>369500</v>
       </c>
       <c r="I61" s="3">
-        <v>317600</v>
+        <v>270500</v>
       </c>
       <c r="J61" s="3">
-        <v>281300</v>
+        <v>239600</v>
       </c>
       <c r="K61" s="3">
         <v>313000</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>93200</v>
+        <v>79400</v>
       </c>
       <c r="E62" s="3">
-        <v>127500</v>
+        <v>108600</v>
       </c>
       <c r="F62" s="3">
-        <v>97500</v>
+        <v>83000</v>
       </c>
       <c r="G62" s="3">
-        <v>208700</v>
+        <v>177700</v>
       </c>
       <c r="H62" s="3">
-        <v>112300</v>
+        <v>95700</v>
       </c>
       <c r="I62" s="3">
-        <v>151500</v>
+        <v>129000</v>
       </c>
       <c r="J62" s="3">
-        <v>172600</v>
+        <v>147000</v>
       </c>
       <c r="K62" s="3">
         <v>174000</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1995400</v>
+        <v>1699500</v>
       </c>
       <c r="E66" s="3">
-        <v>1568200</v>
+        <v>1335700</v>
       </c>
       <c r="F66" s="3">
-        <v>1544100</v>
+        <v>1315100</v>
       </c>
       <c r="G66" s="3">
-        <v>1569100</v>
+        <v>1336400</v>
       </c>
       <c r="H66" s="3">
-        <v>1432200</v>
+        <v>1219800</v>
       </c>
       <c r="I66" s="3">
-        <v>1359100</v>
+        <v>1157600</v>
       </c>
       <c r="J66" s="3">
-        <v>1313800</v>
+        <v>1119000</v>
       </c>
       <c r="K66" s="3">
         <v>1410400</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1645200</v>
+        <v>1401200</v>
       </c>
       <c r="E72" s="3">
-        <v>1645500</v>
+        <v>1401500</v>
       </c>
       <c r="F72" s="3">
-        <v>1600500</v>
+        <v>1363200</v>
       </c>
       <c r="G72" s="3">
-        <v>1470000</v>
+        <v>1252000</v>
       </c>
       <c r="H72" s="3">
-        <v>1550500</v>
+        <v>1320600</v>
       </c>
       <c r="I72" s="3">
-        <v>1504900</v>
+        <v>1281700</v>
       </c>
       <c r="J72" s="3">
-        <v>1405700</v>
+        <v>1197200</v>
       </c>
       <c r="K72" s="3">
         <v>1423400</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1984000</v>
+        <v>1689800</v>
       </c>
       <c r="E76" s="3">
-        <v>1984300</v>
+        <v>1690100</v>
       </c>
       <c r="F76" s="3">
-        <v>1939400</v>
+        <v>1651800</v>
       </c>
       <c r="G76" s="3">
-        <v>1808800</v>
+        <v>1540600</v>
       </c>
       <c r="H76" s="3">
-        <v>1900000</v>
+        <v>1618300</v>
       </c>
       <c r="I76" s="3">
-        <v>1854300</v>
+        <v>1579300</v>
       </c>
       <c r="J76" s="3">
-        <v>1755100</v>
+        <v>1494900</v>
       </c>
       <c r="K76" s="3">
         <v>1780300</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59100</v>
+        <v>50300</v>
       </c>
       <c r="E81" s="3">
-        <v>95400</v>
+        <v>81300</v>
       </c>
       <c r="F81" s="3">
-        <v>87100</v>
+        <v>74200</v>
       </c>
       <c r="G81" s="3">
-        <v>84200</v>
+        <v>71700</v>
       </c>
       <c r="H81" s="3">
-        <v>106800</v>
+        <v>91000</v>
       </c>
       <c r="I81" s="3">
-        <v>137100</v>
+        <v>116800</v>
       </c>
       <c r="J81" s="3">
-        <v>117700</v>
+        <v>100200</v>
       </c>
       <c r="K81" s="3">
         <v>112800</v>
@@ -3239,13 +3239,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>228900</v>
+        <v>195000</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>187300</v>
+        <v>159500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>121900</v>
+        <v>103800</v>
       </c>
       <c r="E89" s="3">
-        <v>237700</v>
+        <v>202500</v>
       </c>
       <c r="F89" s="3">
-        <v>145100</v>
+        <v>123600</v>
       </c>
       <c r="G89" s="3">
-        <v>306400</v>
+        <v>261000</v>
       </c>
       <c r="H89" s="3">
-        <v>101800</v>
+        <v>86700</v>
       </c>
       <c r="I89" s="3">
-        <v>249800</v>
+        <v>212800</v>
       </c>
       <c r="J89" s="3">
-        <v>122100</v>
+        <v>104000</v>
       </c>
       <c r="K89" s="3">
         <v>414700</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-282000</v>
+        <v>-240200</v>
       </c>
       <c r="E91" s="3">
-        <v>-293500</v>
+        <v>-250000</v>
       </c>
       <c r="F91" s="3">
-        <v>-215400</v>
+        <v>-183500</v>
       </c>
       <c r="G91" s="3">
-        <v>-253800</v>
+        <v>-216100</v>
       </c>
       <c r="H91" s="3">
-        <v>-266700</v>
+        <v>-227100</v>
       </c>
       <c r="I91" s="3">
-        <v>-330900</v>
+        <v>-281900</v>
       </c>
       <c r="J91" s="3">
-        <v>-238000</v>
+        <v>-202700</v>
       </c>
       <c r="K91" s="3">
         <v>-263400</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-266700</v>
+        <v>-227100</v>
       </c>
       <c r="E94" s="3">
-        <v>-293400</v>
+        <v>-249900</v>
       </c>
       <c r="F94" s="3">
-        <v>-211300</v>
+        <v>-180000</v>
       </c>
       <c r="G94" s="3">
-        <v>-183800</v>
+        <v>-156500</v>
       </c>
       <c r="H94" s="3">
-        <v>-260200</v>
+        <v>-221600</v>
       </c>
       <c r="I94" s="3">
-        <v>-324200</v>
+        <v>-276100</v>
       </c>
       <c r="J94" s="3">
-        <v>-121100</v>
+        <v>-103200</v>
       </c>
       <c r="K94" s="3">
         <v>-350200</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>116200</v>
+        <v>98900</v>
       </c>
       <c r="E100" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="F100" s="3">
-        <v>41500</v>
+        <v>35400</v>
       </c>
       <c r="G100" s="3">
-        <v>-30300</v>
+        <v>-25800</v>
       </c>
       <c r="H100" s="3">
-        <v>146400</v>
+        <v>124700</v>
       </c>
       <c r="I100" s="3">
-        <v>53700</v>
+        <v>45800</v>
       </c>
       <c r="J100" s="3">
-        <v>-49100</v>
+        <v>-41800</v>
       </c>
       <c r="K100" s="3">
         <v>65100</v>
@@ -3894,7 +3894,7 @@
         <v>200</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28600</v>
+        <v>-24300</v>
       </c>
       <c r="E102" s="3">
-        <v>-48000</v>
+        <v>-40900</v>
       </c>
       <c r="F102" s="3">
-        <v>-25800</v>
+        <v>-21900</v>
       </c>
       <c r="G102" s="3">
-        <v>90900</v>
+        <v>77400</v>
       </c>
       <c r="H102" s="3">
-        <v>-11800</v>
+        <v>-10100</v>
       </c>
       <c r="I102" s="3">
-        <v>-20300</v>
+        <v>-17300</v>
       </c>
       <c r="J102" s="3">
-        <v>-48400</v>
+        <v>-41200</v>
       </c>
       <c r="K102" s="3">
         <v>126300</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1227500</v>
+        <v>1278300</v>
       </c>
       <c r="E8" s="3">
-        <v>1196000</v>
+        <v>1273300</v>
       </c>
       <c r="F8" s="3">
-        <v>1172200</v>
+        <v>1260500</v>
       </c>
       <c r="G8" s="3">
-        <v>1134000</v>
+        <v>1215900</v>
       </c>
       <c r="H8" s="3">
-        <v>1132600</v>
+        <v>1176300</v>
       </c>
       <c r="I8" s="3">
-        <v>1184900</v>
+        <v>1174800</v>
       </c>
       <c r="J8" s="3">
+        <v>1229100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1156500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1408000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1150200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1193200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>270400</v>
+        <v>271300</v>
       </c>
       <c r="E9" s="3">
-        <v>210500</v>
+        <v>280500</v>
       </c>
       <c r="F9" s="3">
-        <v>385600</v>
+        <v>271100</v>
       </c>
       <c r="G9" s="3">
-        <v>346800</v>
+        <v>400000</v>
       </c>
       <c r="H9" s="3">
-        <v>231900</v>
+        <v>359800</v>
       </c>
       <c r="I9" s="3">
-        <v>274700</v>
+        <v>240600</v>
       </c>
       <c r="J9" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K9" s="3">
         <v>246300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>307000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>227900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>252600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>957100</v>
+        <v>1007000</v>
       </c>
       <c r="E10" s="3">
-        <v>985400</v>
+        <v>992800</v>
       </c>
       <c r="F10" s="3">
-        <v>786600</v>
+        <v>989400</v>
       </c>
       <c r="G10" s="3">
-        <v>787200</v>
+        <v>815900</v>
       </c>
       <c r="H10" s="3">
-        <v>900700</v>
+        <v>816500</v>
       </c>
       <c r="I10" s="3">
-        <v>910200</v>
+        <v>934300</v>
       </c>
       <c r="J10" s="3">
+        <v>944100</v>
+      </c>
+      <c r="K10" s="3">
         <v>910300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1101000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>922300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>940600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +949,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>20900</v>
       </c>
       <c r="E14" s="3">
-        <v>10500</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>10900</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>-2000</v>
+        <v>2800</v>
       </c>
       <c r="I14" s="3">
-        <v>4200</v>
+        <v>-2100</v>
       </c>
       <c r="J14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>191500</v>
+        <v>186800</v>
       </c>
       <c r="E15" s="3">
-        <v>161600</v>
+        <v>198600</v>
       </c>
       <c r="F15" s="3">
-        <v>154600</v>
+        <v>168300</v>
       </c>
       <c r="G15" s="3">
-        <v>162500</v>
+        <v>160400</v>
       </c>
       <c r="H15" s="3">
-        <v>154000</v>
+        <v>168500</v>
       </c>
       <c r="I15" s="3">
-        <v>162100</v>
+        <v>159800</v>
       </c>
       <c r="J15" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K15" s="3">
         <v>153200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>188100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>177100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>201000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1102300</v>
+        <v>1249000</v>
       </c>
       <c r="E17" s="3">
-        <v>1051300</v>
+        <v>1143300</v>
       </c>
       <c r="F17" s="3">
-        <v>1046800</v>
+        <v>1107900</v>
       </c>
       <c r="G17" s="3">
-        <v>1001000</v>
+        <v>1085800</v>
       </c>
       <c r="H17" s="3">
-        <v>989200</v>
+        <v>1038300</v>
       </c>
       <c r="I17" s="3">
-        <v>1032600</v>
+        <v>1026000</v>
       </c>
       <c r="J17" s="3">
+        <v>1071100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1010800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1245200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1088400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1069500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>125300</v>
+        <v>29300</v>
       </c>
       <c r="E18" s="3">
-        <v>144600</v>
+        <v>129900</v>
       </c>
       <c r="F18" s="3">
-        <v>125400</v>
+        <v>152500</v>
       </c>
       <c r="G18" s="3">
-        <v>133000</v>
+        <v>130100</v>
       </c>
       <c r="H18" s="3">
-        <v>143400</v>
+        <v>137900</v>
       </c>
       <c r="I18" s="3">
-        <v>152200</v>
+        <v>148800</v>
       </c>
       <c r="J18" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K18" s="3">
         <v>145700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>162900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-54200</v>
+        <v>-45300</v>
       </c>
       <c r="E20" s="3">
-        <v>-25000</v>
+        <v>-56300</v>
       </c>
       <c r="F20" s="3">
-        <v>-18700</v>
+        <v>-25600</v>
       </c>
       <c r="G20" s="3">
-        <v>-25000</v>
+        <v>-19400</v>
       </c>
       <c r="H20" s="3">
-        <v>-16500</v>
+        <v>-26000</v>
       </c>
       <c r="I20" s="3">
-        <v>-23900</v>
+        <v>-17100</v>
       </c>
       <c r="J20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>266000</v>
+        <v>191700</v>
       </c>
       <c r="E21" s="3">
-        <v>121800</v>
+        <v>275900</v>
       </c>
       <c r="F21" s="3">
-        <v>266100</v>
+        <v>129100</v>
       </c>
       <c r="G21" s="3">
-        <v>116400</v>
+        <v>276100</v>
       </c>
       <c r="H21" s="3">
-        <v>281000</v>
+        <v>120800</v>
       </c>
       <c r="I21" s="3">
-        <v>145300</v>
+        <v>291500</v>
       </c>
       <c r="J21" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K21" s="3">
         <v>280600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>160000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>224000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>334600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1215,8 +1255,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71000</v>
+        <v>-15900</v>
       </c>
       <c r="E23" s="3">
-        <v>119700</v>
+        <v>73700</v>
       </c>
       <c r="F23" s="3">
-        <v>106600</v>
+        <v>126900</v>
       </c>
       <c r="G23" s="3">
-        <v>108000</v>
+        <v>110600</v>
       </c>
       <c r="H23" s="3">
-        <v>127000</v>
+        <v>112000</v>
       </c>
       <c r="I23" s="3">
-        <v>128300</v>
+        <v>131700</v>
       </c>
       <c r="J23" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K23" s="3">
         <v>131400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>118100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20500</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>39000</v>
+        <v>21200</v>
       </c>
       <c r="F24" s="3">
-        <v>27500</v>
+        <v>41200</v>
       </c>
       <c r="G24" s="3">
-        <v>29700</v>
+        <v>28500</v>
       </c>
       <c r="H24" s="3">
-        <v>33900</v>
+        <v>30800</v>
       </c>
       <c r="I24" s="3">
-        <v>8600</v>
+        <v>35200</v>
       </c>
       <c r="J24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K24" s="3">
         <v>30900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>50600</v>
+        <v>-16400</v>
       </c>
       <c r="E26" s="3">
-        <v>80700</v>
+        <v>52500</v>
       </c>
       <c r="F26" s="3">
-        <v>79200</v>
+        <v>85700</v>
       </c>
       <c r="G26" s="3">
-        <v>78300</v>
+        <v>82100</v>
       </c>
       <c r="H26" s="3">
-        <v>93000</v>
+        <v>81200</v>
       </c>
       <c r="I26" s="3">
-        <v>119700</v>
+        <v>96500</v>
       </c>
       <c r="J26" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>117500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>50300</v>
+        <v>-16500</v>
       </c>
       <c r="E27" s="3">
-        <v>81300</v>
+        <v>52200</v>
       </c>
       <c r="F27" s="3">
-        <v>74200</v>
+        <v>86000</v>
       </c>
       <c r="G27" s="3">
-        <v>71700</v>
+        <v>76900</v>
       </c>
       <c r="H27" s="3">
-        <v>91000</v>
+        <v>74400</v>
       </c>
       <c r="I27" s="3">
-        <v>116800</v>
+        <v>92200</v>
       </c>
       <c r="J27" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K27" s="3">
         <v>100200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>139400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,14 +1548,17 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>26000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54200</v>
+        <v>45300</v>
       </c>
       <c r="E32" s="3">
-        <v>25000</v>
+        <v>56300</v>
       </c>
       <c r="F32" s="3">
-        <v>18700</v>
+        <v>25600</v>
       </c>
       <c r="G32" s="3">
-        <v>25000</v>
+        <v>19400</v>
       </c>
       <c r="H32" s="3">
-        <v>16500</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="3">
-        <v>23900</v>
+        <v>17100</v>
       </c>
       <c r="J32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K32" s="3">
         <v>14300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>50300</v>
+        <v>-16500</v>
       </c>
       <c r="E33" s="3">
-        <v>81300</v>
+        <v>52200</v>
       </c>
       <c r="F33" s="3">
-        <v>74200</v>
+        <v>86000</v>
       </c>
       <c r="G33" s="3">
-        <v>71700</v>
+        <v>76900</v>
       </c>
       <c r="H33" s="3">
-        <v>91000</v>
+        <v>74400</v>
       </c>
       <c r="I33" s="3">
-        <v>116800</v>
+        <v>92200</v>
       </c>
       <c r="J33" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K33" s="3">
         <v>100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>165400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>50300</v>
+        <v>-16500</v>
       </c>
       <c r="E35" s="3">
-        <v>81300</v>
+        <v>52200</v>
       </c>
       <c r="F35" s="3">
-        <v>74200</v>
+        <v>86000</v>
       </c>
       <c r="G35" s="3">
-        <v>71700</v>
+        <v>76900</v>
       </c>
       <c r="H35" s="3">
-        <v>91000</v>
+        <v>74400</v>
       </c>
       <c r="I35" s="3">
-        <v>116800</v>
+        <v>92200</v>
       </c>
       <c r="J35" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K35" s="3">
         <v>100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>165400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>69600</v>
+        <v>130900</v>
       </c>
       <c r="E41" s="3">
-        <v>74800</v>
+        <v>72200</v>
       </c>
       <c r="F41" s="3">
-        <v>89000</v>
+        <v>77500</v>
       </c>
       <c r="G41" s="3">
-        <v>85600</v>
+        <v>92300</v>
       </c>
       <c r="H41" s="3">
-        <v>53600</v>
+        <v>88800</v>
       </c>
       <c r="I41" s="3">
-        <v>138400</v>
+        <v>55600</v>
       </c>
       <c r="J41" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K41" s="3">
         <v>39400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>267600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>116900</v>
+        <v>203900</v>
       </c>
       <c r="E42" s="3">
-        <v>118900</v>
+        <v>121200</v>
       </c>
       <c r="F42" s="3">
-        <v>130700</v>
+        <v>123400</v>
       </c>
       <c r="G42" s="3">
-        <v>156100</v>
+        <v>135600</v>
       </c>
       <c r="H42" s="3">
-        <v>168000</v>
+        <v>161900</v>
       </c>
       <c r="I42" s="3">
-        <v>181300</v>
+        <v>174200</v>
       </c>
       <c r="J42" s="3">
+        <v>188100</v>
+      </c>
+      <c r="K42" s="3">
         <v>75700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>334800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>528500</v>
+        <v>519000</v>
       </c>
       <c r="E43" s="3">
-        <v>578800</v>
+        <v>548200</v>
       </c>
       <c r="F43" s="3">
-        <v>548800</v>
+        <v>600300</v>
       </c>
       <c r="G43" s="3">
-        <v>469100</v>
+        <v>569300</v>
       </c>
       <c r="H43" s="3">
-        <v>497100</v>
+        <v>486600</v>
       </c>
       <c r="I43" s="3">
-        <v>473700</v>
+        <v>515700</v>
       </c>
       <c r="J43" s="3">
+        <v>491400</v>
+      </c>
+      <c r="K43" s="3">
         <v>445900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>520300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>518300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>670700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68200</v>
+        <v>57600</v>
       </c>
       <c r="E44" s="3">
-        <v>72400</v>
+        <v>70800</v>
       </c>
       <c r="F44" s="3">
-        <v>79100</v>
+        <v>75100</v>
       </c>
       <c r="G44" s="3">
-        <v>76600</v>
+        <v>82000</v>
       </c>
       <c r="H44" s="3">
-        <v>91800</v>
+        <v>79500</v>
       </c>
       <c r="I44" s="3">
-        <v>72500</v>
+        <v>95200</v>
       </c>
       <c r="J44" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K44" s="3">
         <v>72800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>66600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>62500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>45200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>122000</v>
-      </c>
-      <c r="E45" s="3" t="s">
+        <v>55700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>126600</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>21600</v>
-      </c>
       <c r="G45" s="3">
-        <v>9300</v>
+        <v>22400</v>
       </c>
       <c r="H45" s="3">
-        <v>3500</v>
+        <v>9700</v>
       </c>
       <c r="I45" s="3">
-        <v>7200</v>
+        <v>3700</v>
       </c>
       <c r="J45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4200</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>160800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>905200</v>
+        <v>967200</v>
       </c>
       <c r="E46" s="3">
-        <v>844800</v>
+        <v>938900</v>
       </c>
       <c r="F46" s="3">
-        <v>869200</v>
+        <v>876300</v>
       </c>
       <c r="G46" s="3">
-        <v>787400</v>
+        <v>901600</v>
       </c>
       <c r="H46" s="3">
-        <v>814000</v>
+        <v>816800</v>
       </c>
       <c r="I46" s="3">
-        <v>773800</v>
+        <v>844400</v>
       </c>
       <c r="J46" s="3">
+        <v>802600</v>
+      </c>
+      <c r="K46" s="3">
         <v>638100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>881700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>645200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>788000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26600</v>
+        <v>23800</v>
       </c>
       <c r="E47" s="3">
-        <v>24100</v>
+        <v>27600</v>
       </c>
       <c r="F47" s="3">
-        <v>25300</v>
+        <v>25000</v>
       </c>
       <c r="G47" s="3">
-        <v>24100</v>
+        <v>26200</v>
       </c>
       <c r="H47" s="3">
-        <v>19800</v>
+        <v>25000</v>
       </c>
       <c r="I47" s="3">
-        <v>39100</v>
+        <v>20600</v>
       </c>
       <c r="J47" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K47" s="3">
         <v>153000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>181900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>177700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>191200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2121300</v>
+        <v>2259200</v>
       </c>
       <c r="E48" s="3">
-        <v>1830800</v>
+        <v>2200400</v>
       </c>
       <c r="F48" s="3">
-        <v>1755900</v>
+        <v>1899000</v>
       </c>
       <c r="G48" s="3">
-        <v>1733000</v>
+        <v>1821400</v>
       </c>
       <c r="H48" s="3">
-        <v>1668000</v>
+        <v>1797600</v>
       </c>
       <c r="I48" s="3">
-        <v>1592400</v>
+        <v>1730100</v>
       </c>
       <c r="J48" s="3">
+        <v>1651700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1490700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1737500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1677400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3460700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>267300</v>
+        <v>280900</v>
       </c>
       <c r="E49" s="3">
-        <v>258400</v>
+        <v>277300</v>
       </c>
       <c r="F49" s="3">
-        <v>262800</v>
+        <v>268000</v>
       </c>
       <c r="G49" s="3">
-        <v>256700</v>
+        <v>272600</v>
       </c>
       <c r="H49" s="3">
-        <v>269600</v>
+        <v>266300</v>
       </c>
       <c r="I49" s="3">
-        <v>269700</v>
+        <v>279700</v>
       </c>
       <c r="J49" s="3">
+        <v>279700</v>
+      </c>
+      <c r="K49" s="3">
         <v>264000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>301900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>313700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>409000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>68900</v>
+        <v>107900</v>
       </c>
       <c r="E52" s="3">
-        <v>67700</v>
+        <v>71500</v>
       </c>
       <c r="F52" s="3">
-        <v>53800</v>
+        <v>70200</v>
       </c>
       <c r="G52" s="3">
-        <v>75700</v>
+        <v>55800</v>
       </c>
       <c r="H52" s="3">
-        <v>66600</v>
+        <v>78500</v>
       </c>
       <c r="I52" s="3">
-        <v>62000</v>
+        <v>69100</v>
       </c>
       <c r="J52" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K52" s="3">
         <v>68000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>56100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>116100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3389300</v>
+        <v>3639000</v>
       </c>
       <c r="E54" s="3">
-        <v>3025700</v>
+        <v>3515700</v>
       </c>
       <c r="F54" s="3">
-        <v>2966900</v>
+        <v>3138500</v>
       </c>
       <c r="G54" s="3">
-        <v>2877000</v>
+        <v>3077500</v>
       </c>
       <c r="H54" s="3">
-        <v>2838100</v>
+        <v>2984200</v>
       </c>
       <c r="I54" s="3">
-        <v>2736900</v>
+        <v>2943800</v>
       </c>
       <c r="J54" s="3">
+        <v>2838900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2613900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3190700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2870000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2973200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>435300</v>
+        <v>494300</v>
       </c>
       <c r="E57" s="3">
-        <v>417300</v>
+        <v>451500</v>
       </c>
       <c r="F57" s="3">
-        <v>174600</v>
+        <v>432900</v>
       </c>
       <c r="G57" s="3">
-        <v>390000</v>
+        <v>181100</v>
       </c>
       <c r="H57" s="3">
-        <v>170200</v>
+        <v>404500</v>
       </c>
       <c r="I57" s="3">
-        <v>647800</v>
+        <v>176500</v>
       </c>
       <c r="J57" s="3">
+        <v>671900</v>
+      </c>
+      <c r="K57" s="3">
         <v>171300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>489000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>446100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>399100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>296900</v>
+        <v>176000</v>
       </c>
       <c r="E58" s="3">
-        <v>308700</v>
+        <v>308000</v>
       </c>
       <c r="F58" s="3">
-        <v>156700</v>
+        <v>320200</v>
       </c>
       <c r="G58" s="3">
-        <v>129700</v>
+        <v>162500</v>
       </c>
       <c r="H58" s="3">
-        <v>135600</v>
+        <v>134500</v>
       </c>
       <c r="I58" s="3">
-        <v>181100</v>
+        <v>140700</v>
       </c>
       <c r="J58" s="3">
+        <v>187900</v>
+      </c>
+      <c r="K58" s="3">
         <v>54900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>48600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>106600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>228400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213300</v>
+        <v>346000</v>
       </c>
       <c r="E59" s="3">
-        <v>213300</v>
+        <v>221300</v>
       </c>
       <c r="F59" s="3">
-        <v>456600</v>
+        <v>221300</v>
       </c>
       <c r="G59" s="3">
-        <v>420600</v>
+        <v>473600</v>
       </c>
       <c r="H59" s="3">
-        <v>430300</v>
+        <v>436300</v>
       </c>
       <c r="I59" s="3">
-        <v>435500</v>
+        <v>446400</v>
       </c>
       <c r="J59" s="3">
+        <v>451700</v>
+      </c>
+      <c r="K59" s="3">
         <v>480000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>359200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>263400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>313000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>945500</v>
+        <v>1016300</v>
       </c>
       <c r="E60" s="3">
-        <v>939300</v>
+        <v>980700</v>
       </c>
       <c r="F60" s="3">
-        <v>787900</v>
+        <v>974300</v>
       </c>
       <c r="G60" s="3">
-        <v>738500</v>
+        <v>817300</v>
       </c>
       <c r="H60" s="3">
-        <v>736100</v>
+        <v>766000</v>
       </c>
       <c r="I60" s="3">
-        <v>746800</v>
+        <v>763600</v>
       </c>
       <c r="J60" s="3">
+        <v>774600</v>
+      </c>
+      <c r="K60" s="3">
         <v>706200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>896800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>816200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>813200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>676400</v>
+        <v>818800</v>
       </c>
       <c r="E61" s="3">
-        <v>276600</v>
+        <v>701600</v>
       </c>
       <c r="F61" s="3">
-        <v>423000</v>
+        <v>286900</v>
       </c>
       <c r="G61" s="3">
-        <v>409100</v>
+        <v>438700</v>
       </c>
       <c r="H61" s="3">
-        <v>369500</v>
+        <v>424300</v>
       </c>
       <c r="I61" s="3">
-        <v>270500</v>
+        <v>383300</v>
       </c>
       <c r="J61" s="3">
+        <v>280600</v>
+      </c>
+      <c r="K61" s="3">
         <v>239600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>313000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>211400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>79400</v>
+        <v>56600</v>
       </c>
       <c r="E62" s="3">
-        <v>108600</v>
+        <v>82300</v>
       </c>
       <c r="F62" s="3">
-        <v>83000</v>
+        <v>112600</v>
       </c>
       <c r="G62" s="3">
-        <v>177700</v>
+        <v>86100</v>
       </c>
       <c r="H62" s="3">
-        <v>95700</v>
+        <v>184400</v>
       </c>
       <c r="I62" s="3">
-        <v>129000</v>
+        <v>99200</v>
       </c>
       <c r="J62" s="3">
+        <v>133900</v>
+      </c>
+      <c r="K62" s="3">
         <v>147000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>174000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>152100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1699500</v>
+        <v>1890000</v>
       </c>
       <c r="E66" s="3">
-        <v>1335700</v>
+        <v>1762900</v>
       </c>
       <c r="F66" s="3">
-        <v>1315100</v>
+        <v>1385400</v>
       </c>
       <c r="G66" s="3">
-        <v>1336400</v>
+        <v>1364200</v>
       </c>
       <c r="H66" s="3">
-        <v>1219800</v>
+        <v>1386200</v>
       </c>
       <c r="I66" s="3">
-        <v>1157600</v>
+        <v>1265300</v>
       </c>
       <c r="J66" s="3">
+        <v>1200700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1119000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1410400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1260900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1212300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1401200</v>
+        <v>1449600</v>
       </c>
       <c r="E72" s="3">
-        <v>1401500</v>
+        <v>1453400</v>
       </c>
       <c r="F72" s="3">
-        <v>1363200</v>
+        <v>1453700</v>
       </c>
       <c r="G72" s="3">
-        <v>1252000</v>
+        <v>1414000</v>
       </c>
       <c r="H72" s="3">
-        <v>1320600</v>
+        <v>1298600</v>
       </c>
       <c r="I72" s="3">
-        <v>1281700</v>
+        <v>1369800</v>
       </c>
       <c r="J72" s="3">
+        <v>1329500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1197200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1423400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1252100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1392000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1689800</v>
+        <v>1749000</v>
       </c>
       <c r="E76" s="3">
-        <v>1690100</v>
+        <v>1752800</v>
       </c>
       <c r="F76" s="3">
-        <v>1651800</v>
+        <v>1753100</v>
       </c>
       <c r="G76" s="3">
-        <v>1540600</v>
+        <v>1713400</v>
       </c>
       <c r="H76" s="3">
-        <v>1618300</v>
+        <v>1598000</v>
       </c>
       <c r="I76" s="3">
-        <v>1579300</v>
+        <v>1678600</v>
       </c>
       <c r="J76" s="3">
+        <v>1638200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1494900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1780300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1609000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1760900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>50300</v>
+        <v>-16500</v>
       </c>
       <c r="E81" s="3">
-        <v>81300</v>
+        <v>52200</v>
       </c>
       <c r="F81" s="3">
-        <v>74200</v>
+        <v>86000</v>
       </c>
       <c r="G81" s="3">
-        <v>71700</v>
+        <v>76900</v>
       </c>
       <c r="H81" s="3">
-        <v>91000</v>
+        <v>74400</v>
       </c>
       <c r="I81" s="3">
-        <v>116800</v>
+        <v>92200</v>
       </c>
       <c r="J81" s="3">
+        <v>121100</v>
+      </c>
+      <c r="K81" s="3">
         <v>100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>165400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,22 +3431,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>195000</v>
-      </c>
-      <c r="E83" s="3" t="s">
+        <v>207700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>202300</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
-        <v>159500</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
+      <c r="G83" s="3">
+        <v>165500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
@@ -3259,8 +3458,8 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>103800</v>
+        <v>399900</v>
       </c>
       <c r="E89" s="3">
-        <v>202500</v>
+        <v>107700</v>
       </c>
       <c r="F89" s="3">
-        <v>123600</v>
+        <v>210000</v>
       </c>
       <c r="G89" s="3">
-        <v>261000</v>
+        <v>128200</v>
       </c>
       <c r="H89" s="3">
-        <v>86700</v>
+        <v>270700</v>
       </c>
       <c r="I89" s="3">
-        <v>212800</v>
+        <v>89900</v>
       </c>
       <c r="J89" s="3">
+        <v>220700</v>
+      </c>
+      <c r="K89" s="3">
         <v>104000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>414700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-240200</v>
+        <v>-208000</v>
       </c>
       <c r="E91" s="3">
-        <v>-250000</v>
+        <v>-249200</v>
       </c>
       <c r="F91" s="3">
-        <v>-183500</v>
+        <v>-259300</v>
       </c>
       <c r="G91" s="3">
-        <v>-216100</v>
+        <v>-190300</v>
       </c>
       <c r="H91" s="3">
-        <v>-227100</v>
+        <v>-224200</v>
       </c>
       <c r="I91" s="3">
-        <v>-281900</v>
+        <v>-235600</v>
       </c>
       <c r="J91" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-202700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-263400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-140400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-588900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-227100</v>
+        <v>-117800</v>
       </c>
       <c r="E94" s="3">
-        <v>-249900</v>
+        <v>-235600</v>
       </c>
       <c r="F94" s="3">
-        <v>-180000</v>
+        <v>-259200</v>
       </c>
       <c r="G94" s="3">
-        <v>-156500</v>
+        <v>-186700</v>
       </c>
       <c r="H94" s="3">
-        <v>-221600</v>
+        <v>-162400</v>
       </c>
       <c r="I94" s="3">
-        <v>-276100</v>
+        <v>-229900</v>
       </c>
       <c r="J94" s="3">
+        <v>-286400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-103200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-350200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-212900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-205000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,46 +4078,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>98900</v>
+        <v>-61400</v>
       </c>
       <c r="E100" s="3">
-        <v>5600</v>
+        <v>102600</v>
       </c>
       <c r="F100" s="3">
-        <v>35400</v>
+        <v>5800</v>
       </c>
       <c r="G100" s="3">
-        <v>-25800</v>
+        <v>36700</v>
       </c>
       <c r="H100" s="3">
-        <v>124700</v>
+        <v>-26700</v>
       </c>
       <c r="I100" s="3">
-        <v>45800</v>
+        <v>129300</v>
       </c>
       <c r="J100" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-41800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-36900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3887,23 +4136,23 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>300</v>
-      </c>
       <c r="J101" s="3">
+        <v>400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
@@ -3911,42 +4160,48 @@
       <c r="N101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24300</v>
+        <v>220800</v>
       </c>
       <c r="E102" s="3">
-        <v>-40900</v>
+        <v>-25300</v>
       </c>
       <c r="F102" s="3">
-        <v>-21900</v>
+        <v>-42400</v>
       </c>
       <c r="G102" s="3">
-        <v>77400</v>
+        <v>-22800</v>
       </c>
       <c r="H102" s="3">
-        <v>-10100</v>
+        <v>80300</v>
       </c>
       <c r="I102" s="3">
-        <v>-17300</v>
+        <v>-10400</v>
       </c>
       <c r="J102" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>126300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-201600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1278300</v>
+        <v>1402700</v>
       </c>
       <c r="E8" s="3">
-        <v>1273300</v>
+        <v>1413700</v>
       </c>
       <c r="F8" s="3">
-        <v>1260500</v>
+        <v>1408200</v>
       </c>
       <c r="G8" s="3">
-        <v>1215900</v>
+        <v>1394000</v>
       </c>
       <c r="H8" s="3">
-        <v>1176300</v>
+        <v>1344700</v>
       </c>
       <c r="I8" s="3">
-        <v>1174800</v>
+        <v>1300900</v>
       </c>
       <c r="J8" s="3">
+        <v>1299300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1229100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1156500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1408000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1150200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1193200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>271300</v>
+        <v>276800</v>
       </c>
       <c r="E9" s="3">
-        <v>280500</v>
+        <v>300100</v>
       </c>
       <c r="F9" s="3">
-        <v>271100</v>
+        <v>310200</v>
       </c>
       <c r="G9" s="3">
-        <v>400000</v>
+        <v>299800</v>
       </c>
       <c r="H9" s="3">
-        <v>359800</v>
+        <v>442400</v>
       </c>
       <c r="I9" s="3">
-        <v>240600</v>
+        <v>397900</v>
       </c>
       <c r="J9" s="3">
+        <v>266000</v>
+      </c>
+      <c r="K9" s="3">
         <v>285000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>246300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>307000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>252600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1007000</v>
+        <v>1125900</v>
       </c>
       <c r="E10" s="3">
-        <v>992800</v>
+        <v>1113700</v>
       </c>
       <c r="F10" s="3">
-        <v>989400</v>
+        <v>1098000</v>
       </c>
       <c r="G10" s="3">
-        <v>815900</v>
+        <v>1094200</v>
       </c>
       <c r="H10" s="3">
-        <v>816500</v>
+        <v>902300</v>
       </c>
       <c r="I10" s="3">
-        <v>934300</v>
+        <v>903000</v>
       </c>
       <c r="J10" s="3">
+        <v>1033200</v>
+      </c>
+      <c r="K10" s="3">
         <v>944100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>910300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1101000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>922300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>940600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,90 +969,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20900</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>23100</v>
       </c>
       <c r="F14" s="3">
-        <v>10900</v>
+        <v>4100</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>12100</v>
       </c>
       <c r="H14" s="3">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="I14" s="3">
-        <v>-2100</v>
+        <v>3100</v>
       </c>
       <c r="J14" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K14" s="3">
         <v>4300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186800</v>
+        <v>218800</v>
       </c>
       <c r="E15" s="3">
-        <v>198600</v>
+        <v>206600</v>
       </c>
       <c r="F15" s="3">
-        <v>168300</v>
+        <v>219600</v>
       </c>
       <c r="G15" s="3">
-        <v>160400</v>
+        <v>186100</v>
       </c>
       <c r="H15" s="3">
-        <v>168500</v>
+        <v>177300</v>
       </c>
       <c r="I15" s="3">
-        <v>159800</v>
+        <v>186400</v>
       </c>
       <c r="J15" s="3">
+        <v>176700</v>
+      </c>
+      <c r="K15" s="3">
         <v>168200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>153200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>188100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>177100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>201000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1249000</v>
+        <v>1235400</v>
       </c>
       <c r="E17" s="3">
-        <v>1143300</v>
+        <v>1381300</v>
       </c>
       <c r="F17" s="3">
-        <v>1107900</v>
+        <v>1267300</v>
       </c>
       <c r="G17" s="3">
-        <v>1085800</v>
+        <v>1225300</v>
       </c>
       <c r="H17" s="3">
-        <v>1038300</v>
+        <v>1200900</v>
       </c>
       <c r="I17" s="3">
-        <v>1026000</v>
+        <v>1148300</v>
       </c>
       <c r="J17" s="3">
+        <v>1134700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1071100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1010800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1245200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1088400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1069500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29300</v>
+        <v>167300</v>
       </c>
       <c r="E18" s="3">
-        <v>129900</v>
+        <v>32500</v>
       </c>
       <c r="F18" s="3">
-        <v>152500</v>
+        <v>140800</v>
       </c>
       <c r="G18" s="3">
-        <v>130100</v>
+        <v>168700</v>
       </c>
       <c r="H18" s="3">
-        <v>137900</v>
+        <v>143800</v>
       </c>
       <c r="I18" s="3">
-        <v>148800</v>
+        <v>152600</v>
       </c>
       <c r="J18" s="3">
+        <v>164600</v>
+      </c>
+      <c r="K18" s="3">
         <v>157900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>145700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>162900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>123700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,119 +1180,126 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-45300</v>
+        <v>-44100</v>
       </c>
       <c r="E20" s="3">
-        <v>-56300</v>
+        <v>-50100</v>
       </c>
       <c r="F20" s="3">
-        <v>-25600</v>
+        <v>-50200</v>
       </c>
       <c r="G20" s="3">
-        <v>-19400</v>
+        <v>-28300</v>
       </c>
       <c r="H20" s="3">
-        <v>-26000</v>
+        <v>-21500</v>
       </c>
       <c r="I20" s="3">
-        <v>-17100</v>
+        <v>-28700</v>
       </c>
       <c r="J20" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>191700</v>
+        <v>343300</v>
       </c>
       <c r="E21" s="3">
-        <v>275900</v>
+        <v>212000</v>
       </c>
       <c r="F21" s="3">
-        <v>129100</v>
+        <v>314300</v>
       </c>
       <c r="G21" s="3">
-        <v>276100</v>
+        <v>142800</v>
       </c>
       <c r="H21" s="3">
-        <v>120800</v>
+        <v>305300</v>
       </c>
       <c r="I21" s="3">
-        <v>291500</v>
+        <v>133500</v>
       </c>
       <c r="J21" s="3">
+        <v>322400</v>
+      </c>
+      <c r="K21" s="3">
         <v>150700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>280600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>160000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>224000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>334600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+        <v>14600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>12000</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15900</v>
+        <v>108600</v>
       </c>
       <c r="E23" s="3">
-        <v>73700</v>
+        <v>-17600</v>
       </c>
       <c r="F23" s="3">
-        <v>126900</v>
+        <v>78600</v>
       </c>
       <c r="G23" s="3">
-        <v>110600</v>
+        <v>140400</v>
       </c>
       <c r="H23" s="3">
-        <v>112000</v>
+        <v>122300</v>
       </c>
       <c r="I23" s="3">
-        <v>131700</v>
+        <v>123800</v>
       </c>
       <c r="J23" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K23" s="3">
         <v>133100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>131400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>118100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>21200</v>
-      </c>
       <c r="F24" s="3">
-        <v>41200</v>
+        <v>23500</v>
       </c>
       <c r="G24" s="3">
-        <v>28500</v>
+        <v>45600</v>
       </c>
       <c r="H24" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="I24" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="J24" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16400</v>
+        <v>70900</v>
       </c>
       <c r="E26" s="3">
-        <v>52500</v>
+        <v>-18200</v>
       </c>
       <c r="F26" s="3">
-        <v>85700</v>
+        <v>55100</v>
       </c>
       <c r="G26" s="3">
-        <v>82100</v>
+        <v>94800</v>
       </c>
       <c r="H26" s="3">
-        <v>81200</v>
+        <v>90800</v>
       </c>
       <c r="I26" s="3">
-        <v>96500</v>
+        <v>89800</v>
       </c>
       <c r="J26" s="3">
+        <v>106700</v>
+      </c>
+      <c r="K26" s="3">
         <v>124100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>143600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-16500</v>
+        <v>70700</v>
       </c>
       <c r="E27" s="3">
-        <v>52200</v>
+        <v>-18200</v>
       </c>
       <c r="F27" s="3">
-        <v>86000</v>
+        <v>54900</v>
       </c>
       <c r="G27" s="3">
-        <v>76900</v>
+        <v>95100</v>
       </c>
       <c r="H27" s="3">
-        <v>74400</v>
+        <v>85100</v>
       </c>
       <c r="I27" s="3">
-        <v>92200</v>
+        <v>82300</v>
       </c>
       <c r="J27" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K27" s="3">
         <v>121100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>112800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>139400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,14 +1612,17 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>26000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>45300</v>
+        <v>44100</v>
       </c>
       <c r="E32" s="3">
-        <v>56300</v>
+        <v>50100</v>
       </c>
       <c r="F32" s="3">
-        <v>25600</v>
+        <v>50200</v>
       </c>
       <c r="G32" s="3">
-        <v>19400</v>
+        <v>28300</v>
       </c>
       <c r="H32" s="3">
-        <v>26000</v>
+        <v>21500</v>
       </c>
       <c r="I32" s="3">
-        <v>17100</v>
+        <v>28700</v>
       </c>
       <c r="J32" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K32" s="3">
         <v>24800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-16500</v>
+        <v>70700</v>
       </c>
       <c r="E33" s="3">
-        <v>52200</v>
+        <v>-18200</v>
       </c>
       <c r="F33" s="3">
-        <v>86000</v>
+        <v>54900</v>
       </c>
       <c r="G33" s="3">
-        <v>76900</v>
+        <v>95100</v>
       </c>
       <c r="H33" s="3">
-        <v>74400</v>
+        <v>85100</v>
       </c>
       <c r="I33" s="3">
-        <v>92200</v>
+        <v>82300</v>
       </c>
       <c r="J33" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K33" s="3">
         <v>121100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>112800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>165400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-16500</v>
+        <v>70700</v>
       </c>
       <c r="E35" s="3">
-        <v>52200</v>
+        <v>-18200</v>
       </c>
       <c r="F35" s="3">
-        <v>86000</v>
+        <v>54900</v>
       </c>
       <c r="G35" s="3">
-        <v>76900</v>
+        <v>95100</v>
       </c>
       <c r="H35" s="3">
-        <v>74400</v>
+        <v>85100</v>
       </c>
       <c r="I35" s="3">
-        <v>92200</v>
+        <v>82300</v>
       </c>
       <c r="J35" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K35" s="3">
         <v>121100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>112800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>165400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130900</v>
+        <v>185900</v>
       </c>
       <c r="E41" s="3">
-        <v>72200</v>
+        <v>144800</v>
       </c>
       <c r="F41" s="3">
-        <v>77500</v>
+        <v>79900</v>
       </c>
       <c r="G41" s="3">
-        <v>92300</v>
+        <v>85800</v>
       </c>
       <c r="H41" s="3">
-        <v>88800</v>
+        <v>102100</v>
       </c>
       <c r="I41" s="3">
-        <v>55600</v>
+        <v>98200</v>
       </c>
       <c r="J41" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K41" s="3">
         <v>143500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>39400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>174600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>267600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>203900</v>
+        <v>86800</v>
       </c>
       <c r="E42" s="3">
-        <v>121200</v>
+        <v>225500</v>
       </c>
       <c r="F42" s="3">
-        <v>123400</v>
+        <v>134100</v>
       </c>
       <c r="G42" s="3">
-        <v>135600</v>
+        <v>136400</v>
       </c>
       <c r="H42" s="3">
-        <v>161900</v>
+        <v>149900</v>
       </c>
       <c r="I42" s="3">
-        <v>174200</v>
+        <v>179000</v>
       </c>
       <c r="J42" s="3">
+        <v>192700</v>
+      </c>
+      <c r="K42" s="3">
         <v>188100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>75700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>334800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>519000</v>
+        <v>482100</v>
       </c>
       <c r="E43" s="3">
-        <v>548200</v>
+        <v>574000</v>
       </c>
       <c r="F43" s="3">
-        <v>600300</v>
+        <v>606200</v>
       </c>
       <c r="G43" s="3">
-        <v>569300</v>
+        <v>663900</v>
       </c>
       <c r="H43" s="3">
-        <v>486600</v>
+        <v>629600</v>
       </c>
       <c r="I43" s="3">
-        <v>515700</v>
+        <v>538100</v>
       </c>
       <c r="J43" s="3">
+        <v>570300</v>
+      </c>
+      <c r="K43" s="3">
         <v>491400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>445900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>520300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>518300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>670700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57600</v>
+        <v>55700</v>
       </c>
       <c r="E44" s="3">
-        <v>70800</v>
+        <v>63700</v>
       </c>
       <c r="F44" s="3">
-        <v>75100</v>
+        <v>78300</v>
       </c>
       <c r="G44" s="3">
-        <v>82000</v>
+        <v>83100</v>
       </c>
       <c r="H44" s="3">
-        <v>79500</v>
+        <v>90700</v>
       </c>
       <c r="I44" s="3">
-        <v>95200</v>
+        <v>87900</v>
       </c>
       <c r="J44" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K44" s="3">
         <v>75200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>66600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>62500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>45200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55700</v>
+        <v>206900</v>
       </c>
       <c r="E45" s="3">
-        <v>126600</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>22400</v>
+        <v>61600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>140000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>9700</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>10700</v>
       </c>
       <c r="J45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K45" s="3">
         <v>7500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>160800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>967200</v>
+        <v>1017400</v>
       </c>
       <c r="E46" s="3">
-        <v>938900</v>
+        <v>1069600</v>
       </c>
       <c r="F46" s="3">
-        <v>876300</v>
+        <v>1038400</v>
       </c>
       <c r="G46" s="3">
-        <v>901600</v>
+        <v>969200</v>
       </c>
       <c r="H46" s="3">
-        <v>816800</v>
+        <v>997100</v>
       </c>
       <c r="I46" s="3">
-        <v>844400</v>
+        <v>903300</v>
       </c>
       <c r="J46" s="3">
+        <v>933800</v>
+      </c>
+      <c r="K46" s="3">
         <v>802600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>638100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>881700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>645200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>788000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23800</v>
+        <v>25200</v>
       </c>
       <c r="E47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30500</v>
+      </c>
+      <c r="G47" s="3">
         <v>27600</v>
       </c>
-      <c r="F47" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>26200</v>
-      </c>
       <c r="H47" s="3">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="I47" s="3">
-        <v>20600</v>
+        <v>27700</v>
       </c>
       <c r="J47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K47" s="3">
         <v>40500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>181900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>177700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>191200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2259200</v>
+        <v>2500100</v>
       </c>
       <c r="E48" s="3">
-        <v>2200400</v>
+        <v>2498500</v>
       </c>
       <c r="F48" s="3">
-        <v>1899000</v>
+        <v>2433500</v>
       </c>
       <c r="G48" s="3">
-        <v>1821400</v>
+        <v>2100200</v>
       </c>
       <c r="H48" s="3">
-        <v>1797600</v>
+        <v>2014300</v>
       </c>
       <c r="I48" s="3">
-        <v>1730100</v>
+        <v>1988000</v>
       </c>
       <c r="J48" s="3">
+        <v>1913400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1651700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1490700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1737500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1677400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3460700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>280900</v>
+        <v>302500</v>
       </c>
       <c r="E49" s="3">
-        <v>277300</v>
+        <v>310700</v>
       </c>
       <c r="F49" s="3">
-        <v>268000</v>
+        <v>306700</v>
       </c>
       <c r="G49" s="3">
-        <v>272600</v>
+        <v>296400</v>
       </c>
       <c r="H49" s="3">
-        <v>266300</v>
+        <v>301400</v>
       </c>
       <c r="I49" s="3">
+        <v>294500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>309300</v>
+      </c>
+      <c r="K49" s="3">
         <v>279700</v>
       </c>
-      <c r="J49" s="3">
-        <v>279700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>264000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>301900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>313700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>409000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107900</v>
+        <v>147200</v>
       </c>
       <c r="E52" s="3">
-        <v>71500</v>
+        <v>119300</v>
       </c>
       <c r="F52" s="3">
-        <v>70200</v>
+        <v>79100</v>
       </c>
       <c r="G52" s="3">
-        <v>55800</v>
+        <v>77600</v>
       </c>
       <c r="H52" s="3">
-        <v>78500</v>
+        <v>61700</v>
       </c>
       <c r="I52" s="3">
-        <v>69100</v>
+        <v>86900</v>
       </c>
       <c r="J52" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K52" s="3">
         <v>64300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>68000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>56100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>116100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3639000</v>
+        <v>3992300</v>
       </c>
       <c r="E54" s="3">
-        <v>3515700</v>
+        <v>4024500</v>
       </c>
       <c r="F54" s="3">
-        <v>3138500</v>
+        <v>3888100</v>
       </c>
       <c r="G54" s="3">
-        <v>3077500</v>
+        <v>3471000</v>
       </c>
       <c r="H54" s="3">
-        <v>2984200</v>
+        <v>3403500</v>
       </c>
       <c r="I54" s="3">
-        <v>2943800</v>
+        <v>3300400</v>
       </c>
       <c r="J54" s="3">
+        <v>3255700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2838900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2613900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3190700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2870000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2973200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>494300</v>
+        <v>580500</v>
       </c>
       <c r="E57" s="3">
-        <v>451500</v>
+        <v>333300</v>
       </c>
       <c r="F57" s="3">
-        <v>432900</v>
+        <v>499300</v>
       </c>
       <c r="G57" s="3">
-        <v>181100</v>
+        <v>478700</v>
       </c>
       <c r="H57" s="3">
-        <v>404500</v>
+        <v>200300</v>
       </c>
       <c r="I57" s="3">
-        <v>176500</v>
+        <v>447400</v>
       </c>
       <c r="J57" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K57" s="3">
         <v>671900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>171300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>489000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>446100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>399100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>176000</v>
+        <v>145200</v>
       </c>
       <c r="E58" s="3">
-        <v>308000</v>
+        <v>194600</v>
       </c>
       <c r="F58" s="3">
-        <v>320200</v>
+        <v>340600</v>
       </c>
       <c r="G58" s="3">
-        <v>162500</v>
+        <v>354100</v>
       </c>
       <c r="H58" s="3">
-        <v>134500</v>
+        <v>179800</v>
       </c>
       <c r="I58" s="3">
-        <v>140700</v>
+        <v>148800</v>
       </c>
       <c r="J58" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K58" s="3">
         <v>187900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>106600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>228400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>346000</v>
+        <v>319300</v>
       </c>
       <c r="E59" s="3">
-        <v>221300</v>
+        <v>596000</v>
       </c>
       <c r="F59" s="3">
-        <v>221300</v>
+        <v>244700</v>
       </c>
       <c r="G59" s="3">
-        <v>473600</v>
+        <v>244700</v>
       </c>
       <c r="H59" s="3">
-        <v>436300</v>
+        <v>523800</v>
       </c>
       <c r="I59" s="3">
-        <v>446400</v>
+        <v>482500</v>
       </c>
       <c r="J59" s="3">
+        <v>493700</v>
+      </c>
+      <c r="K59" s="3">
         <v>451700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>480000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>359200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>263400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>313000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1016300</v>
+        <v>1045000</v>
       </c>
       <c r="E60" s="3">
-        <v>980700</v>
+        <v>1124000</v>
       </c>
       <c r="F60" s="3">
-        <v>974300</v>
+        <v>1084600</v>
       </c>
       <c r="G60" s="3">
-        <v>817300</v>
+        <v>1077500</v>
       </c>
       <c r="H60" s="3">
-        <v>766000</v>
+        <v>903900</v>
       </c>
       <c r="I60" s="3">
-        <v>763600</v>
+        <v>847200</v>
       </c>
       <c r="J60" s="3">
+        <v>844500</v>
+      </c>
+      <c r="K60" s="3">
         <v>774600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>706200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>896800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>816200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>813200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>818800</v>
+        <v>894300</v>
       </c>
       <c r="E61" s="3">
-        <v>701600</v>
+        <v>905600</v>
       </c>
       <c r="F61" s="3">
-        <v>286900</v>
+        <v>776000</v>
       </c>
       <c r="G61" s="3">
-        <v>438700</v>
+        <v>317300</v>
       </c>
       <c r="H61" s="3">
-        <v>424300</v>
+        <v>485200</v>
       </c>
       <c r="I61" s="3">
-        <v>383300</v>
+        <v>469300</v>
       </c>
       <c r="J61" s="3">
+        <v>423900</v>
+      </c>
+      <c r="K61" s="3">
         <v>280600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>239600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>313000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>211400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>229700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56600</v>
+        <v>136500</v>
       </c>
       <c r="E62" s="3">
-        <v>82300</v>
+        <v>62500</v>
       </c>
       <c r="F62" s="3">
-        <v>112600</v>
+        <v>91100</v>
       </c>
       <c r="G62" s="3">
-        <v>86100</v>
+        <v>124600</v>
       </c>
       <c r="H62" s="3">
-        <v>184400</v>
+        <v>95300</v>
       </c>
       <c r="I62" s="3">
-        <v>99200</v>
+        <v>203900</v>
       </c>
       <c r="J62" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K62" s="3">
         <v>133900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>147000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>174000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>152100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1890000</v>
+        <v>2074000</v>
       </c>
       <c r="E66" s="3">
-        <v>1762900</v>
+        <v>2090200</v>
       </c>
       <c r="F66" s="3">
-        <v>1385400</v>
+        <v>1949600</v>
       </c>
       <c r="G66" s="3">
-        <v>1364200</v>
+        <v>1532200</v>
       </c>
       <c r="H66" s="3">
-        <v>1386200</v>
+        <v>1508700</v>
       </c>
       <c r="I66" s="3">
-        <v>1265300</v>
+        <v>1533100</v>
       </c>
       <c r="J66" s="3">
+        <v>1399300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1119000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1410400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1260900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1212300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1449600</v>
+        <v>1587200</v>
       </c>
       <c r="E72" s="3">
-        <v>1453400</v>
+        <v>1603200</v>
       </c>
       <c r="F72" s="3">
-        <v>1453700</v>
+        <v>1607400</v>
       </c>
       <c r="G72" s="3">
-        <v>1414000</v>
+        <v>1607700</v>
       </c>
       <c r="H72" s="3">
-        <v>1298600</v>
+        <v>1563800</v>
       </c>
       <c r="I72" s="3">
-        <v>1369800</v>
+        <v>1436200</v>
       </c>
       <c r="J72" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1329500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1197200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1423400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1252100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1392000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1749000</v>
+        <v>1918300</v>
       </c>
       <c r="E76" s="3">
-        <v>1752800</v>
+        <v>1934300</v>
       </c>
       <c r="F76" s="3">
-        <v>1753100</v>
+        <v>1938500</v>
       </c>
       <c r="G76" s="3">
-        <v>1713400</v>
+        <v>1938800</v>
       </c>
       <c r="H76" s="3">
-        <v>1598000</v>
+        <v>1894900</v>
       </c>
       <c r="I76" s="3">
-        <v>1678600</v>
+        <v>1767300</v>
       </c>
       <c r="J76" s="3">
+        <v>1856400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1638200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1494900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1780300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1609000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1760900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-16500</v>
+        <v>70700</v>
       </c>
       <c r="E81" s="3">
-        <v>52200</v>
+        <v>-18200</v>
       </c>
       <c r="F81" s="3">
-        <v>86000</v>
+        <v>54900</v>
       </c>
       <c r="G81" s="3">
-        <v>76900</v>
+        <v>95100</v>
       </c>
       <c r="H81" s="3">
-        <v>74400</v>
+        <v>85100</v>
       </c>
       <c r="I81" s="3">
-        <v>92200</v>
+        <v>82300</v>
       </c>
       <c r="J81" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K81" s="3">
         <v>121100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>112800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>165400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,25 +3630,26 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207700</v>
+        <v>220000</v>
       </c>
       <c r="E83" s="3">
-        <v>202300</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3">
-        <v>165500</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
+        <v>229700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>223700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
+        <v>183000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -3461,8 +3660,8 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>399900</v>
+        <v>217500</v>
       </c>
       <c r="E89" s="3">
-        <v>107700</v>
+        <v>442300</v>
       </c>
       <c r="F89" s="3">
-        <v>210000</v>
+        <v>119100</v>
       </c>
       <c r="G89" s="3">
-        <v>128200</v>
+        <v>232300</v>
       </c>
       <c r="H89" s="3">
-        <v>270700</v>
+        <v>141800</v>
       </c>
       <c r="I89" s="3">
-        <v>89900</v>
+        <v>299400</v>
       </c>
       <c r="J89" s="3">
+        <v>99500</v>
+      </c>
+      <c r="K89" s="3">
         <v>220700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>414700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>204200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-208000</v>
+        <v>-192300</v>
       </c>
       <c r="E91" s="3">
-        <v>-249200</v>
+        <v>-230100</v>
       </c>
       <c r="F91" s="3">
-        <v>-259300</v>
+        <v>-275500</v>
       </c>
       <c r="G91" s="3">
-        <v>-190300</v>
+        <v>-286800</v>
       </c>
       <c r="H91" s="3">
-        <v>-224200</v>
+        <v>-210400</v>
       </c>
       <c r="I91" s="3">
-        <v>-235600</v>
+        <v>-247900</v>
       </c>
       <c r="J91" s="3">
+        <v>-260500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-292400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-263400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-140400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-588900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117800</v>
+        <v>-191800</v>
       </c>
       <c r="E94" s="3">
-        <v>-235600</v>
+        <v>-130300</v>
       </c>
       <c r="F94" s="3">
-        <v>-259200</v>
+        <v>-260500</v>
       </c>
       <c r="G94" s="3">
-        <v>-186700</v>
+        <v>-286700</v>
       </c>
       <c r="H94" s="3">
-        <v>-162400</v>
+        <v>-206400</v>
       </c>
       <c r="I94" s="3">
-        <v>-229900</v>
+        <v>-179600</v>
       </c>
       <c r="J94" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-286400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-350200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-212900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-205000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3958,8 +4192,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-61400</v>
+        <v>-79600</v>
       </c>
       <c r="E100" s="3">
-        <v>102600</v>
+        <v>-67900</v>
       </c>
       <c r="F100" s="3">
-        <v>5800</v>
+        <v>113500</v>
       </c>
       <c r="G100" s="3">
-        <v>36700</v>
+        <v>6400</v>
       </c>
       <c r="H100" s="3">
-        <v>-26700</v>
+        <v>40600</v>
       </c>
       <c r="I100" s="3">
-        <v>129300</v>
+        <v>-29600</v>
       </c>
       <c r="J100" s="3">
+        <v>143100</v>
+      </c>
+      <c r="K100" s="3">
         <v>47500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-41800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4139,23 +4388,23 @@
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
@@ -4163,45 +4412,51 @@
       <c r="O101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>220800</v>
+        <v>-53800</v>
       </c>
       <c r="E102" s="3">
-        <v>-25300</v>
+        <v>244100</v>
       </c>
       <c r="F102" s="3">
-        <v>-42400</v>
+        <v>-27900</v>
       </c>
       <c r="G102" s="3">
-        <v>-22800</v>
+        <v>-46900</v>
       </c>
       <c r="H102" s="3">
-        <v>80300</v>
+        <v>-25200</v>
       </c>
       <c r="I102" s="3">
-        <v>-10400</v>
+        <v>88800</v>
       </c>
       <c r="J102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-17900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>126300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-201600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1402700</v>
+        <v>1424500</v>
       </c>
       <c r="E8" s="3">
-        <v>1413700</v>
+        <v>1435700</v>
       </c>
       <c r="F8" s="3">
-        <v>1408200</v>
+        <v>1430100</v>
       </c>
       <c r="G8" s="3">
-        <v>1394000</v>
+        <v>1415700</v>
       </c>
       <c r="H8" s="3">
-        <v>1344700</v>
+        <v>1365600</v>
       </c>
       <c r="I8" s="3">
-        <v>1300900</v>
+        <v>1321100</v>
       </c>
       <c r="J8" s="3">
-        <v>1299300</v>
+        <v>1319500</v>
       </c>
       <c r="K8" s="3">
         <v>1229100</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>276800</v>
+        <v>281100</v>
       </c>
       <c r="E9" s="3">
-        <v>300100</v>
+        <v>304700</v>
       </c>
       <c r="F9" s="3">
-        <v>310200</v>
+        <v>315000</v>
       </c>
       <c r="G9" s="3">
-        <v>299800</v>
+        <v>304500</v>
       </c>
       <c r="H9" s="3">
-        <v>442400</v>
+        <v>449300</v>
       </c>
       <c r="I9" s="3">
-        <v>397900</v>
+        <v>404100</v>
       </c>
       <c r="J9" s="3">
-        <v>266000</v>
+        <v>270200</v>
       </c>
       <c r="K9" s="3">
         <v>285000</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1125900</v>
+        <v>1143400</v>
       </c>
       <c r="E10" s="3">
-        <v>1113700</v>
+        <v>1131000</v>
       </c>
       <c r="F10" s="3">
-        <v>1098000</v>
+        <v>1115100</v>
       </c>
       <c r="G10" s="3">
-        <v>1094200</v>
+        <v>1111200</v>
       </c>
       <c r="H10" s="3">
-        <v>902300</v>
+        <v>916300</v>
       </c>
       <c r="I10" s="3">
-        <v>903000</v>
+        <v>917100</v>
       </c>
       <c r="J10" s="3">
-        <v>1033200</v>
+        <v>1049300</v>
       </c>
       <c r="K10" s="3">
         <v>944100</v>
@@ -978,19 +978,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
-        <v>23100</v>
+        <v>23400</v>
       </c>
       <c r="F14" s="3">
         <v>4100</v>
       </c>
       <c r="G14" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="H14" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I14" s="3">
         <v>3100</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>218800</v>
+        <v>222200</v>
       </c>
       <c r="E15" s="3">
-        <v>206600</v>
+        <v>209800</v>
       </c>
       <c r="F15" s="3">
-        <v>219600</v>
+        <v>223000</v>
       </c>
       <c r="G15" s="3">
-        <v>186100</v>
+        <v>189000</v>
       </c>
       <c r="H15" s="3">
-        <v>177300</v>
+        <v>180100</v>
       </c>
       <c r="I15" s="3">
-        <v>186400</v>
+        <v>189300</v>
       </c>
       <c r="J15" s="3">
-        <v>176700</v>
+        <v>179400</v>
       </c>
       <c r="K15" s="3">
         <v>168200</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1235400</v>
+        <v>1254600</v>
       </c>
       <c r="E17" s="3">
-        <v>1381300</v>
+        <v>1402800</v>
       </c>
       <c r="F17" s="3">
-        <v>1267300</v>
+        <v>1287100</v>
       </c>
       <c r="G17" s="3">
-        <v>1225300</v>
+        <v>1244400</v>
       </c>
       <c r="H17" s="3">
-        <v>1200900</v>
+        <v>1219500</v>
       </c>
       <c r="I17" s="3">
-        <v>1148300</v>
+        <v>1166200</v>
       </c>
       <c r="J17" s="3">
-        <v>1134700</v>
+        <v>1152400</v>
       </c>
       <c r="K17" s="3">
         <v>1071100</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>167300</v>
+        <v>169900</v>
       </c>
       <c r="E18" s="3">
-        <v>32500</v>
+        <v>33000</v>
       </c>
       <c r="F18" s="3">
-        <v>140800</v>
+        <v>143000</v>
       </c>
       <c r="G18" s="3">
-        <v>168700</v>
+        <v>171300</v>
       </c>
       <c r="H18" s="3">
-        <v>143800</v>
+        <v>146100</v>
       </c>
       <c r="I18" s="3">
-        <v>152600</v>
+        <v>154900</v>
       </c>
       <c r="J18" s="3">
-        <v>164600</v>
+        <v>167100</v>
       </c>
       <c r="K18" s="3">
         <v>157900</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44100</v>
+        <v>-44700</v>
       </c>
       <c r="E20" s="3">
-        <v>-50100</v>
+        <v>-50900</v>
       </c>
       <c r="F20" s="3">
-        <v>-50200</v>
+        <v>-51000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28300</v>
+        <v>-28800</v>
       </c>
       <c r="H20" s="3">
-        <v>-21500</v>
+        <v>-21800</v>
       </c>
       <c r="I20" s="3">
-        <v>-28700</v>
+        <v>-29200</v>
       </c>
       <c r="J20" s="3">
-        <v>-18900</v>
+        <v>-19200</v>
       </c>
       <c r="K20" s="3">
         <v>-24800</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>343300</v>
+        <v>348600</v>
       </c>
       <c r="E21" s="3">
-        <v>212000</v>
+        <v>215300</v>
       </c>
       <c r="F21" s="3">
-        <v>314300</v>
+        <v>319200</v>
       </c>
       <c r="G21" s="3">
-        <v>142800</v>
+        <v>145000</v>
       </c>
       <c r="H21" s="3">
-        <v>305300</v>
+        <v>310100</v>
       </c>
       <c r="I21" s="3">
-        <v>133500</v>
+        <v>135600</v>
       </c>
       <c r="J21" s="3">
-        <v>322400</v>
+        <v>327400</v>
       </c>
       <c r="K21" s="3">
         <v>150700</v>
@@ -1275,13 +1275,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>108600</v>
+        <v>110300</v>
       </c>
       <c r="E23" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="F23" s="3">
-        <v>78600</v>
+        <v>79800</v>
       </c>
       <c r="G23" s="3">
-        <v>140400</v>
+        <v>142500</v>
       </c>
       <c r="H23" s="3">
-        <v>122300</v>
+        <v>124200</v>
       </c>
       <c r="I23" s="3">
-        <v>123800</v>
+        <v>125800</v>
       </c>
       <c r="J23" s="3">
-        <v>145700</v>
+        <v>147900</v>
       </c>
       <c r="K23" s="3">
         <v>133100</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37800</v>
+        <v>38400</v>
       </c>
       <c r="E24" s="3">
         <v>500</v>
       </c>
       <c r="F24" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="G24" s="3">
-        <v>45600</v>
+        <v>46300</v>
       </c>
       <c r="H24" s="3">
-        <v>31500</v>
+        <v>32000</v>
       </c>
       <c r="I24" s="3">
-        <v>34000</v>
+        <v>34600</v>
       </c>
       <c r="J24" s="3">
-        <v>38900</v>
+        <v>39500</v>
       </c>
       <c r="K24" s="3">
         <v>9000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70900</v>
+        <v>72000</v>
       </c>
       <c r="E26" s="3">
-        <v>-18200</v>
+        <v>-18400</v>
       </c>
       <c r="F26" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="G26" s="3">
-        <v>94800</v>
+        <v>96300</v>
       </c>
       <c r="H26" s="3">
-        <v>90800</v>
+        <v>92200</v>
       </c>
       <c r="I26" s="3">
-        <v>89800</v>
+        <v>91200</v>
       </c>
       <c r="J26" s="3">
-        <v>106700</v>
+        <v>108400</v>
       </c>
       <c r="K26" s="3">
         <v>124100</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70700</v>
+        <v>71800</v>
       </c>
       <c r="E27" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F27" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="G27" s="3">
-        <v>95100</v>
+        <v>96600</v>
       </c>
       <c r="H27" s="3">
-        <v>85100</v>
+        <v>86400</v>
       </c>
       <c r="I27" s="3">
-        <v>82300</v>
+        <v>83600</v>
       </c>
       <c r="J27" s="3">
-        <v>102000</v>
+        <v>103600</v>
       </c>
       <c r="K27" s="3">
         <v>121100</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44100</v>
+        <v>44700</v>
       </c>
       <c r="E32" s="3">
-        <v>50100</v>
+        <v>50900</v>
       </c>
       <c r="F32" s="3">
-        <v>50200</v>
+        <v>51000</v>
       </c>
       <c r="G32" s="3">
-        <v>28300</v>
+        <v>28800</v>
       </c>
       <c r="H32" s="3">
-        <v>21500</v>
+        <v>21800</v>
       </c>
       <c r="I32" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="J32" s="3">
-        <v>18900</v>
+        <v>19200</v>
       </c>
       <c r="K32" s="3">
         <v>24800</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70700</v>
+        <v>71800</v>
       </c>
       <c r="E33" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F33" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="G33" s="3">
-        <v>95100</v>
+        <v>96600</v>
       </c>
       <c r="H33" s="3">
-        <v>85100</v>
+        <v>86400</v>
       </c>
       <c r="I33" s="3">
-        <v>82300</v>
+        <v>83600</v>
       </c>
       <c r="J33" s="3">
-        <v>102000</v>
+        <v>103600</v>
       </c>
       <c r="K33" s="3">
         <v>121100</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70700</v>
+        <v>71800</v>
       </c>
       <c r="E35" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F35" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="G35" s="3">
-        <v>95100</v>
+        <v>96600</v>
       </c>
       <c r="H35" s="3">
-        <v>85100</v>
+        <v>86400</v>
       </c>
       <c r="I35" s="3">
-        <v>82300</v>
+        <v>83600</v>
       </c>
       <c r="J35" s="3">
-        <v>102000</v>
+        <v>103600</v>
       </c>
       <c r="K35" s="3">
         <v>121100</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>185900</v>
+        <v>188800</v>
       </c>
       <c r="E41" s="3">
-        <v>144800</v>
+        <v>147000</v>
       </c>
       <c r="F41" s="3">
-        <v>79900</v>
+        <v>81100</v>
       </c>
       <c r="G41" s="3">
-        <v>85800</v>
+        <v>87100</v>
       </c>
       <c r="H41" s="3">
-        <v>102100</v>
+        <v>103700</v>
       </c>
       <c r="I41" s="3">
-        <v>98200</v>
+        <v>99700</v>
       </c>
       <c r="J41" s="3">
-        <v>61500</v>
+        <v>62500</v>
       </c>
       <c r="K41" s="3">
         <v>143500</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>86800</v>
+        <v>88200</v>
       </c>
       <c r="E42" s="3">
-        <v>225500</v>
+        <v>229000</v>
       </c>
       <c r="F42" s="3">
-        <v>134100</v>
+        <v>136200</v>
       </c>
       <c r="G42" s="3">
-        <v>136400</v>
+        <v>138600</v>
       </c>
       <c r="H42" s="3">
-        <v>149900</v>
+        <v>152300</v>
       </c>
       <c r="I42" s="3">
-        <v>179000</v>
+        <v>181800</v>
       </c>
       <c r="J42" s="3">
-        <v>192700</v>
+        <v>195700</v>
       </c>
       <c r="K42" s="3">
         <v>188100</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>482100</v>
+        <v>489600</v>
       </c>
       <c r="E43" s="3">
-        <v>574000</v>
+        <v>582900</v>
       </c>
       <c r="F43" s="3">
-        <v>606200</v>
+        <v>615700</v>
       </c>
       <c r="G43" s="3">
-        <v>663900</v>
+        <v>674300</v>
       </c>
       <c r="H43" s="3">
-        <v>629600</v>
+        <v>639400</v>
       </c>
       <c r="I43" s="3">
-        <v>538100</v>
+        <v>546500</v>
       </c>
       <c r="J43" s="3">
-        <v>570300</v>
+        <v>579200</v>
       </c>
       <c r="K43" s="3">
         <v>491400</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55700</v>
+        <v>56500</v>
       </c>
       <c r="E44" s="3">
-        <v>63700</v>
+        <v>64700</v>
       </c>
       <c r="F44" s="3">
-        <v>78300</v>
+        <v>79500</v>
       </c>
       <c r="G44" s="3">
-        <v>83100</v>
+        <v>84400</v>
       </c>
       <c r="H44" s="3">
-        <v>90700</v>
+        <v>92100</v>
       </c>
       <c r="I44" s="3">
-        <v>87900</v>
+        <v>89300</v>
       </c>
       <c r="J44" s="3">
-        <v>105300</v>
+        <v>106900</v>
       </c>
       <c r="K44" s="3">
         <v>75200</v>
@@ -2152,22 +2152,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>206900</v>
+        <v>210100</v>
       </c>
       <c r="E45" s="3">
-        <v>61600</v>
+        <v>62600</v>
       </c>
       <c r="F45" s="3">
-        <v>140000</v>
+        <v>142100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>24800</v>
+        <v>25200</v>
       </c>
       <c r="I45" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="J45" s="3">
         <v>4100</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1017400</v>
+        <v>1033200</v>
       </c>
       <c r="E46" s="3">
-        <v>1069600</v>
+        <v>1086300</v>
       </c>
       <c r="F46" s="3">
-        <v>1038400</v>
+        <v>1054600</v>
       </c>
       <c r="G46" s="3">
-        <v>969200</v>
+        <v>984300</v>
       </c>
       <c r="H46" s="3">
-        <v>997100</v>
+        <v>1012600</v>
       </c>
       <c r="I46" s="3">
-        <v>903300</v>
+        <v>917300</v>
       </c>
       <c r="J46" s="3">
-        <v>933800</v>
+        <v>948400</v>
       </c>
       <c r="K46" s="3">
         <v>802600</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25200</v>
+        <v>25600</v>
       </c>
       <c r="E47" s="3">
-        <v>26400</v>
+        <v>26800</v>
       </c>
       <c r="F47" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="G47" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="H47" s="3">
-        <v>29000</v>
+        <v>29400</v>
       </c>
       <c r="I47" s="3">
-        <v>27700</v>
+        <v>28100</v>
       </c>
       <c r="J47" s="3">
-        <v>22700</v>
+        <v>23100</v>
       </c>
       <c r="K47" s="3">
         <v>40500</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500100</v>
+        <v>2539000</v>
       </c>
       <c r="E48" s="3">
-        <v>2498500</v>
+        <v>2537400</v>
       </c>
       <c r="F48" s="3">
-        <v>2433500</v>
+        <v>2471300</v>
       </c>
       <c r="G48" s="3">
-        <v>2100200</v>
+        <v>2132900</v>
       </c>
       <c r="H48" s="3">
-        <v>2014300</v>
+        <v>2045700</v>
       </c>
       <c r="I48" s="3">
-        <v>1988000</v>
+        <v>2019000</v>
       </c>
       <c r="J48" s="3">
-        <v>1913400</v>
+        <v>1943200</v>
       </c>
       <c r="K48" s="3">
         <v>1651700</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>302500</v>
+        <v>307200</v>
       </c>
       <c r="E49" s="3">
-        <v>310700</v>
+        <v>315500</v>
       </c>
       <c r="F49" s="3">
-        <v>306700</v>
+        <v>311500</v>
       </c>
       <c r="G49" s="3">
-        <v>296400</v>
+        <v>301000</v>
       </c>
       <c r="H49" s="3">
-        <v>301400</v>
+        <v>306100</v>
       </c>
       <c r="I49" s="3">
-        <v>294500</v>
+        <v>299100</v>
       </c>
       <c r="J49" s="3">
-        <v>309300</v>
+        <v>314100</v>
       </c>
       <c r="K49" s="3">
         <v>279700</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147200</v>
+        <v>149500</v>
       </c>
       <c r="E52" s="3">
-        <v>119300</v>
+        <v>121200</v>
       </c>
       <c r="F52" s="3">
-        <v>79100</v>
+        <v>80300</v>
       </c>
       <c r="G52" s="3">
+        <v>78800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>62700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>88200</v>
+      </c>
+      <c r="J52" s="3">
         <v>77600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>61700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>86900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>76400</v>
       </c>
       <c r="K52" s="3">
         <v>64300</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3992300</v>
+        <v>4054400</v>
       </c>
       <c r="E54" s="3">
-        <v>4024500</v>
+        <v>4087100</v>
       </c>
       <c r="F54" s="3">
-        <v>3888100</v>
+        <v>3948600</v>
       </c>
       <c r="G54" s="3">
-        <v>3471000</v>
+        <v>3525000</v>
       </c>
       <c r="H54" s="3">
-        <v>3403500</v>
+        <v>3456500</v>
       </c>
       <c r="I54" s="3">
-        <v>3300400</v>
+        <v>3351700</v>
       </c>
       <c r="J54" s="3">
-        <v>3255700</v>
+        <v>3306400</v>
       </c>
       <c r="K54" s="3">
         <v>2838900</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>580500</v>
+        <v>589600</v>
       </c>
       <c r="E57" s="3">
-        <v>333300</v>
+        <v>338500</v>
       </c>
       <c r="F57" s="3">
-        <v>499300</v>
+        <v>507100</v>
       </c>
       <c r="G57" s="3">
-        <v>478700</v>
+        <v>486200</v>
       </c>
       <c r="H57" s="3">
-        <v>200300</v>
+        <v>203400</v>
       </c>
       <c r="I57" s="3">
-        <v>447400</v>
+        <v>454300</v>
       </c>
       <c r="J57" s="3">
-        <v>195200</v>
+        <v>198300</v>
       </c>
       <c r="K57" s="3">
         <v>671900</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>145200</v>
+        <v>147500</v>
       </c>
       <c r="E58" s="3">
-        <v>194600</v>
+        <v>197700</v>
       </c>
       <c r="F58" s="3">
-        <v>340600</v>
+        <v>345900</v>
       </c>
       <c r="G58" s="3">
-        <v>354100</v>
+        <v>359600</v>
       </c>
       <c r="H58" s="3">
-        <v>179800</v>
+        <v>182600</v>
       </c>
       <c r="I58" s="3">
-        <v>148800</v>
+        <v>151100</v>
       </c>
       <c r="J58" s="3">
-        <v>155600</v>
+        <v>158000</v>
       </c>
       <c r="K58" s="3">
         <v>187900</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>319300</v>
+        <v>324200</v>
       </c>
       <c r="E59" s="3">
-        <v>596000</v>
+        <v>605300</v>
       </c>
       <c r="F59" s="3">
-        <v>244700</v>
+        <v>248500</v>
       </c>
       <c r="G59" s="3">
-        <v>244700</v>
+        <v>248500</v>
       </c>
       <c r="H59" s="3">
-        <v>523800</v>
+        <v>532000</v>
       </c>
       <c r="I59" s="3">
-        <v>482500</v>
+        <v>490000</v>
       </c>
       <c r="J59" s="3">
-        <v>493700</v>
+        <v>501300</v>
       </c>
       <c r="K59" s="3">
         <v>451700</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1045000</v>
+        <v>1061300</v>
       </c>
       <c r="E60" s="3">
-        <v>1124000</v>
+        <v>1141400</v>
       </c>
       <c r="F60" s="3">
-        <v>1084600</v>
+        <v>1101500</v>
       </c>
       <c r="G60" s="3">
-        <v>1077500</v>
+        <v>1094300</v>
       </c>
       <c r="H60" s="3">
-        <v>903900</v>
+        <v>917900</v>
       </c>
       <c r="I60" s="3">
-        <v>847200</v>
+        <v>860300</v>
       </c>
       <c r="J60" s="3">
-        <v>844500</v>
+        <v>857600</v>
       </c>
       <c r="K60" s="3">
         <v>774600</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>894300</v>
+        <v>908200</v>
       </c>
       <c r="E61" s="3">
-        <v>905600</v>
+        <v>919700</v>
       </c>
       <c r="F61" s="3">
-        <v>776000</v>
+        <v>788000</v>
       </c>
       <c r="G61" s="3">
-        <v>317300</v>
+        <v>322200</v>
       </c>
       <c r="H61" s="3">
-        <v>485200</v>
+        <v>492800</v>
       </c>
       <c r="I61" s="3">
-        <v>469300</v>
+        <v>476600</v>
       </c>
       <c r="J61" s="3">
-        <v>423900</v>
+        <v>430500</v>
       </c>
       <c r="K61" s="3">
         <v>280600</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>136500</v>
+        <v>138600</v>
       </c>
       <c r="E62" s="3">
-        <v>62500</v>
+        <v>63500</v>
       </c>
       <c r="F62" s="3">
-        <v>91100</v>
+        <v>92500</v>
       </c>
       <c r="G62" s="3">
-        <v>124600</v>
+        <v>126500</v>
       </c>
       <c r="H62" s="3">
-        <v>95300</v>
+        <v>96700</v>
       </c>
       <c r="I62" s="3">
-        <v>203900</v>
+        <v>207100</v>
       </c>
       <c r="J62" s="3">
-        <v>109700</v>
+        <v>111500</v>
       </c>
       <c r="K62" s="3">
         <v>133900</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2074000</v>
+        <v>2106300</v>
       </c>
       <c r="E66" s="3">
-        <v>2090200</v>
+        <v>2122700</v>
       </c>
       <c r="F66" s="3">
-        <v>1949600</v>
+        <v>1980000</v>
       </c>
       <c r="G66" s="3">
-        <v>1532200</v>
+        <v>1556000</v>
       </c>
       <c r="H66" s="3">
-        <v>1508700</v>
+        <v>1532100</v>
       </c>
       <c r="I66" s="3">
-        <v>1533100</v>
+        <v>1556900</v>
       </c>
       <c r="J66" s="3">
-        <v>1399300</v>
+        <v>1421100</v>
       </c>
       <c r="K66" s="3">
         <v>1200700</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1587200</v>
+        <v>1611900</v>
       </c>
       <c r="E72" s="3">
-        <v>1603200</v>
+        <v>1628100</v>
       </c>
       <c r="F72" s="3">
-        <v>1607400</v>
+        <v>1632400</v>
       </c>
       <c r="G72" s="3">
-        <v>1607700</v>
+        <v>1632700</v>
       </c>
       <c r="H72" s="3">
-        <v>1563800</v>
+        <v>1588100</v>
       </c>
       <c r="I72" s="3">
-        <v>1436200</v>
+        <v>1458600</v>
       </c>
       <c r="J72" s="3">
-        <v>1515000</v>
+        <v>1538500</v>
       </c>
       <c r="K72" s="3">
         <v>1329500</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1918300</v>
+        <v>1948100</v>
       </c>
       <c r="E76" s="3">
-        <v>1934300</v>
+        <v>1964400</v>
       </c>
       <c r="F76" s="3">
-        <v>1938500</v>
+        <v>1968600</v>
       </c>
       <c r="G76" s="3">
-        <v>1938800</v>
+        <v>1969000</v>
       </c>
       <c r="H76" s="3">
-        <v>1894900</v>
+        <v>1924400</v>
       </c>
       <c r="I76" s="3">
-        <v>1767300</v>
+        <v>1794800</v>
       </c>
       <c r="J76" s="3">
-        <v>1856400</v>
+        <v>1885300</v>
       </c>
       <c r="K76" s="3">
         <v>1638200</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70700</v>
+        <v>71800</v>
       </c>
       <c r="E81" s="3">
-        <v>-18200</v>
+        <v>-18500</v>
       </c>
       <c r="F81" s="3">
-        <v>54900</v>
+        <v>55700</v>
       </c>
       <c r="G81" s="3">
-        <v>95100</v>
+        <v>96600</v>
       </c>
       <c r="H81" s="3">
-        <v>85100</v>
+        <v>86400</v>
       </c>
       <c r="I81" s="3">
-        <v>82300</v>
+        <v>83600</v>
       </c>
       <c r="J81" s="3">
-        <v>102000</v>
+        <v>103600</v>
       </c>
       <c r="K81" s="3">
         <v>121100</v>
@@ -3637,19 +3637,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>220000</v>
+        <v>223400</v>
       </c>
       <c r="E83" s="3">
-        <v>229700</v>
+        <v>233200</v>
       </c>
       <c r="F83" s="3">
-        <v>223700</v>
+        <v>227200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>183000</v>
+        <v>185800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>217500</v>
+        <v>220900</v>
       </c>
       <c r="E89" s="3">
-        <v>442300</v>
+        <v>449100</v>
       </c>
       <c r="F89" s="3">
-        <v>119100</v>
+        <v>121000</v>
       </c>
       <c r="G89" s="3">
-        <v>232300</v>
+        <v>235900</v>
       </c>
       <c r="H89" s="3">
-        <v>141800</v>
+        <v>144000</v>
       </c>
       <c r="I89" s="3">
-        <v>299400</v>
+        <v>304100</v>
       </c>
       <c r="J89" s="3">
-        <v>99500</v>
+        <v>101000</v>
       </c>
       <c r="K89" s="3">
         <v>220700</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-192300</v>
+        <v>-195300</v>
       </c>
       <c r="E91" s="3">
-        <v>-230100</v>
+        <v>-233600</v>
       </c>
       <c r="F91" s="3">
-        <v>-275500</v>
+        <v>-279800</v>
       </c>
       <c r="G91" s="3">
-        <v>-286800</v>
+        <v>-291200</v>
       </c>
       <c r="H91" s="3">
-        <v>-210400</v>
+        <v>-213700</v>
       </c>
       <c r="I91" s="3">
-        <v>-247900</v>
+        <v>-251800</v>
       </c>
       <c r="J91" s="3">
-        <v>-260500</v>
+        <v>-264600</v>
       </c>
       <c r="K91" s="3">
         <v>-292400</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-191800</v>
+        <v>-194700</v>
       </c>
       <c r="E94" s="3">
-        <v>-130300</v>
+        <v>-132300</v>
       </c>
       <c r="F94" s="3">
-        <v>-260500</v>
+        <v>-264600</v>
       </c>
       <c r="G94" s="3">
-        <v>-286700</v>
+        <v>-291200</v>
       </c>
       <c r="H94" s="3">
-        <v>-206400</v>
+        <v>-209700</v>
       </c>
       <c r="I94" s="3">
-        <v>-179600</v>
+        <v>-182400</v>
       </c>
       <c r="J94" s="3">
-        <v>-254200</v>
+        <v>-258200</v>
       </c>
       <c r="K94" s="3">
         <v>-286400</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-79600</v>
+        <v>-80800</v>
       </c>
       <c r="E100" s="3">
-        <v>-67900</v>
+        <v>-68900</v>
       </c>
       <c r="F100" s="3">
-        <v>113500</v>
+        <v>115200</v>
       </c>
       <c r="G100" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H100" s="3">
-        <v>40600</v>
+        <v>41200</v>
       </c>
       <c r="I100" s="3">
-        <v>-29600</v>
+        <v>-30000</v>
       </c>
       <c r="J100" s="3">
-        <v>143100</v>
+        <v>145300</v>
       </c>
       <c r="K100" s="3">
         <v>47500</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-53800</v>
+        <v>-54700</v>
       </c>
       <c r="E102" s="3">
-        <v>244100</v>
+        <v>247900</v>
       </c>
       <c r="F102" s="3">
-        <v>-27900</v>
+        <v>-28400</v>
       </c>
       <c r="G102" s="3">
-        <v>-46900</v>
+        <v>-47600</v>
       </c>
       <c r="H102" s="3">
-        <v>-25200</v>
+        <v>-25600</v>
       </c>
       <c r="I102" s="3">
-        <v>88800</v>
+        <v>90200</v>
       </c>
       <c r="J102" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="K102" s="3">
         <v>-17900</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1424500</v>
+        <v>1575400</v>
       </c>
       <c r="E8" s="3">
-        <v>1435700</v>
+        <v>1544400</v>
       </c>
       <c r="F8" s="3">
-        <v>1430100</v>
+        <v>1556500</v>
       </c>
       <c r="G8" s="3">
-        <v>1415700</v>
+        <v>1550400</v>
       </c>
       <c r="H8" s="3">
-        <v>1365600</v>
+        <v>1534800</v>
       </c>
       <c r="I8" s="3">
-        <v>1321100</v>
+        <v>1480500</v>
       </c>
       <c r="J8" s="3">
+        <v>1432300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1319500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1229100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1156500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1408000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1150200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1193200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>281100</v>
+        <v>320300</v>
       </c>
       <c r="E9" s="3">
         <v>304700</v>
       </c>
       <c r="F9" s="3">
-        <v>315000</v>
+        <v>330400</v>
       </c>
       <c r="G9" s="3">
-        <v>304500</v>
+        <v>341500</v>
       </c>
       <c r="H9" s="3">
-        <v>449300</v>
+        <v>330100</v>
       </c>
       <c r="I9" s="3">
-        <v>404100</v>
+        <v>487100</v>
       </c>
       <c r="J9" s="3">
+        <v>438100</v>
+      </c>
+      <c r="K9" s="3">
         <v>270200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>285000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>246300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>307000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>227900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>252600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1143400</v>
+        <v>1255100</v>
       </c>
       <c r="E10" s="3">
-        <v>1131000</v>
+        <v>1239600</v>
       </c>
       <c r="F10" s="3">
-        <v>1115100</v>
+        <v>1226100</v>
       </c>
       <c r="G10" s="3">
-        <v>1111200</v>
+        <v>1208900</v>
       </c>
       <c r="H10" s="3">
-        <v>916300</v>
+        <v>1204700</v>
       </c>
       <c r="I10" s="3">
-        <v>917100</v>
+        <v>993400</v>
       </c>
       <c r="J10" s="3">
+        <v>994200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1049300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>944100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>910300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1101000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>922300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>940600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +989,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1300</v>
+        <v>13100</v>
       </c>
       <c r="E14" s="3">
-        <v>23400</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>4100</v>
+        <v>25400</v>
       </c>
       <c r="G14" s="3">
-        <v>12300</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>13300</v>
       </c>
       <c r="I14" s="3">
-        <v>3100</v>
+        <v>6200</v>
       </c>
       <c r="J14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>222200</v>
+        <v>240600</v>
       </c>
       <c r="E15" s="3">
-        <v>209800</v>
+        <v>240900</v>
       </c>
       <c r="F15" s="3">
-        <v>223000</v>
+        <v>227400</v>
       </c>
       <c r="G15" s="3">
-        <v>189000</v>
+        <v>241800</v>
       </c>
       <c r="H15" s="3">
-        <v>180100</v>
+        <v>204900</v>
       </c>
       <c r="I15" s="3">
-        <v>189300</v>
+        <v>195200</v>
       </c>
       <c r="J15" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K15" s="3">
         <v>179400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>168200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>153200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>188100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>177100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>201000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1254600</v>
+        <v>1410800</v>
       </c>
       <c r="E17" s="3">
-        <v>1402800</v>
+        <v>1360200</v>
       </c>
       <c r="F17" s="3">
-        <v>1287100</v>
+        <v>1522500</v>
       </c>
       <c r="G17" s="3">
-        <v>1244400</v>
+        <v>1395300</v>
       </c>
       <c r="H17" s="3">
-        <v>1219500</v>
+        <v>1349000</v>
       </c>
       <c r="I17" s="3">
-        <v>1166200</v>
+        <v>1322100</v>
       </c>
       <c r="J17" s="3">
+        <v>1264300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1152400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1071100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1010800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1245200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1088400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1069500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>169900</v>
+        <v>164600</v>
       </c>
       <c r="E18" s="3">
-        <v>33000</v>
+        <v>184200</v>
       </c>
       <c r="F18" s="3">
-        <v>143000</v>
+        <v>34000</v>
       </c>
       <c r="G18" s="3">
-        <v>171300</v>
+        <v>155000</v>
       </c>
       <c r="H18" s="3">
-        <v>146100</v>
+        <v>185700</v>
       </c>
       <c r="I18" s="3">
-        <v>154900</v>
+        <v>158400</v>
       </c>
       <c r="J18" s="3">
+        <v>168000</v>
+      </c>
+      <c r="K18" s="3">
         <v>167100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>145700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>162900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>61800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>123700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,110 +1214,117 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44700</v>
+        <v>-16000</v>
       </c>
       <c r="E20" s="3">
-        <v>-50900</v>
+        <v>-48500</v>
       </c>
       <c r="F20" s="3">
-        <v>-51000</v>
+        <v>-41800</v>
       </c>
       <c r="G20" s="3">
-        <v>-28800</v>
+        <v>-55300</v>
       </c>
       <c r="H20" s="3">
-        <v>-21800</v>
+        <v>-31200</v>
       </c>
       <c r="I20" s="3">
-        <v>-29200</v>
+        <v>-23700</v>
       </c>
       <c r="J20" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>348600</v>
+        <v>402300</v>
       </c>
       <c r="E21" s="3">
-        <v>215300</v>
+        <v>377900</v>
       </c>
       <c r="F21" s="3">
-        <v>319200</v>
+        <v>245100</v>
       </c>
       <c r="G21" s="3">
-        <v>145000</v>
+        <v>346000</v>
       </c>
       <c r="H21" s="3">
-        <v>310100</v>
+        <v>157200</v>
       </c>
       <c r="I21" s="3">
-        <v>135600</v>
+        <v>336100</v>
       </c>
       <c r="J21" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K21" s="3">
         <v>327400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>150700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>280600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>224000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>334600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>16000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>16100</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>13400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1295,14 +1335,14 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110300</v>
+        <v>132700</v>
       </c>
       <c r="E23" s="3">
-        <v>-17900</v>
+        <v>119600</v>
       </c>
       <c r="F23" s="3">
-        <v>79800</v>
+        <v>-21100</v>
       </c>
       <c r="G23" s="3">
-        <v>142500</v>
+        <v>86500</v>
       </c>
       <c r="H23" s="3">
-        <v>124200</v>
+        <v>154500</v>
       </c>
       <c r="I23" s="3">
-        <v>125800</v>
+        <v>134700</v>
       </c>
       <c r="J23" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K23" s="3">
         <v>147900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>131400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>149100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>118100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38400</v>
+        <v>35400</v>
       </c>
       <c r="E24" s="3">
-        <v>500</v>
+        <v>41600</v>
       </c>
       <c r="F24" s="3">
-        <v>23800</v>
+        <v>600</v>
       </c>
       <c r="G24" s="3">
-        <v>46300</v>
+        <v>25800</v>
       </c>
       <c r="H24" s="3">
-        <v>32000</v>
+        <v>50200</v>
       </c>
       <c r="I24" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="J24" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K24" s="3">
         <v>39500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72000</v>
+        <v>97200</v>
       </c>
       <c r="E26" s="3">
-        <v>-18400</v>
+        <v>78000</v>
       </c>
       <c r="F26" s="3">
-        <v>56000</v>
+        <v>-21700</v>
       </c>
       <c r="G26" s="3">
-        <v>96300</v>
+        <v>60700</v>
       </c>
       <c r="H26" s="3">
-        <v>92200</v>
+        <v>104400</v>
       </c>
       <c r="I26" s="3">
-        <v>91200</v>
+        <v>100000</v>
       </c>
       <c r="J26" s="3">
+        <v>98900</v>
+      </c>
+      <c r="K26" s="3">
         <v>108400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>124100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>117500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71800</v>
+        <v>96900</v>
       </c>
       <c r="E27" s="3">
-        <v>-18500</v>
+        <v>77900</v>
       </c>
       <c r="F27" s="3">
-        <v>55700</v>
+        <v>-21800</v>
       </c>
       <c r="G27" s="3">
-        <v>96600</v>
+        <v>60400</v>
       </c>
       <c r="H27" s="3">
-        <v>86400</v>
+        <v>104700</v>
       </c>
       <c r="I27" s="3">
-        <v>83600</v>
+        <v>93700</v>
       </c>
       <c r="J27" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K27" s="3">
         <v>103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>121100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>112800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>139400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,14 +1676,17 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>26000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44700</v>
+        <v>16000</v>
       </c>
       <c r="E32" s="3">
-        <v>50900</v>
+        <v>48500</v>
       </c>
       <c r="F32" s="3">
-        <v>51000</v>
+        <v>41800</v>
       </c>
       <c r="G32" s="3">
-        <v>28800</v>
+        <v>55300</v>
       </c>
       <c r="H32" s="3">
-        <v>21800</v>
+        <v>31200</v>
       </c>
       <c r="I32" s="3">
-        <v>29200</v>
+        <v>23700</v>
       </c>
       <c r="J32" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71800</v>
+        <v>96900</v>
       </c>
       <c r="E33" s="3">
-        <v>-18500</v>
+        <v>77900</v>
       </c>
       <c r="F33" s="3">
-        <v>55700</v>
+        <v>-21800</v>
       </c>
       <c r="G33" s="3">
-        <v>96600</v>
+        <v>60400</v>
       </c>
       <c r="H33" s="3">
-        <v>86400</v>
+        <v>104700</v>
       </c>
       <c r="I33" s="3">
-        <v>83600</v>
+        <v>93700</v>
       </c>
       <c r="J33" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K33" s="3">
         <v>103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>121100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>112800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>165400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71800</v>
+        <v>96900</v>
       </c>
       <c r="E35" s="3">
-        <v>-18500</v>
+        <v>77900</v>
       </c>
       <c r="F35" s="3">
-        <v>55700</v>
+        <v>-21800</v>
       </c>
       <c r="G35" s="3">
-        <v>96600</v>
+        <v>60400</v>
       </c>
       <c r="H35" s="3">
-        <v>86400</v>
+        <v>104700</v>
       </c>
       <c r="I35" s="3">
-        <v>83600</v>
+        <v>93700</v>
       </c>
       <c r="J35" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K35" s="3">
         <v>103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>121100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>112800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>165400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>188800</v>
+        <v>361100</v>
       </c>
       <c r="E41" s="3">
-        <v>147000</v>
+        <v>204600</v>
       </c>
       <c r="F41" s="3">
-        <v>81100</v>
+        <v>159400</v>
       </c>
       <c r="G41" s="3">
-        <v>87100</v>
+        <v>87900</v>
       </c>
       <c r="H41" s="3">
-        <v>103700</v>
+        <v>94400</v>
       </c>
       <c r="I41" s="3">
-        <v>99700</v>
+        <v>112400</v>
       </c>
       <c r="J41" s="3">
+        <v>108100</v>
+      </c>
+      <c r="K41" s="3">
         <v>62500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>143500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>174600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>267600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>88200</v>
+        <v>6400</v>
       </c>
       <c r="E42" s="3">
-        <v>229000</v>
+        <v>95600</v>
       </c>
       <c r="F42" s="3">
-        <v>136200</v>
+        <v>248300</v>
       </c>
       <c r="G42" s="3">
-        <v>138600</v>
+        <v>147600</v>
       </c>
       <c r="H42" s="3">
-        <v>152300</v>
+        <v>150200</v>
       </c>
       <c r="I42" s="3">
-        <v>181800</v>
+        <v>165100</v>
       </c>
       <c r="J42" s="3">
+        <v>197100</v>
+      </c>
+      <c r="K42" s="3">
         <v>195700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>188100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>120200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>334800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>489600</v>
+        <v>634800</v>
       </c>
       <c r="E43" s="3">
-        <v>582900</v>
+        <v>530800</v>
       </c>
       <c r="F43" s="3">
-        <v>615700</v>
+        <v>631900</v>
       </c>
       <c r="G43" s="3">
-        <v>674300</v>
+        <v>667400</v>
       </c>
       <c r="H43" s="3">
-        <v>639400</v>
+        <v>731000</v>
       </c>
       <c r="I43" s="3">
-        <v>546500</v>
+        <v>693100</v>
       </c>
       <c r="J43" s="3">
+        <v>592500</v>
+      </c>
+      <c r="K43" s="3">
         <v>579200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>491400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>445900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>520300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>518300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>670700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56500</v>
+        <v>74100</v>
       </c>
       <c r="E44" s="3">
-        <v>64700</v>
+        <v>61300</v>
       </c>
       <c r="F44" s="3">
-        <v>79500</v>
+        <v>70200</v>
       </c>
       <c r="G44" s="3">
-        <v>84400</v>
+        <v>86200</v>
       </c>
       <c r="H44" s="3">
-        <v>92100</v>
+        <v>91500</v>
       </c>
       <c r="I44" s="3">
-        <v>89300</v>
+        <v>99900</v>
       </c>
       <c r="J44" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K44" s="3">
         <v>106900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>66600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>62500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>45200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>210100</v>
+        <v>73500</v>
       </c>
       <c r="E45" s="3">
-        <v>62600</v>
+        <v>227800</v>
       </c>
       <c r="F45" s="3">
-        <v>142100</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>67800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>154100</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>25200</v>
-      </c>
       <c r="I45" s="3">
-        <v>10900</v>
+        <v>27300</v>
       </c>
       <c r="J45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4200</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>160800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1033200</v>
+        <v>1149800</v>
       </c>
       <c r="E46" s="3">
-        <v>1086300</v>
+        <v>1120100</v>
       </c>
       <c r="F46" s="3">
-        <v>1054600</v>
+        <v>1177600</v>
       </c>
       <c r="G46" s="3">
-        <v>984300</v>
+        <v>1143300</v>
       </c>
       <c r="H46" s="3">
-        <v>1012600</v>
+        <v>1067000</v>
       </c>
       <c r="I46" s="3">
-        <v>917300</v>
+        <v>1097800</v>
       </c>
       <c r="J46" s="3">
+        <v>994500</v>
+      </c>
+      <c r="K46" s="3">
         <v>948400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>802600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>638100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>881700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>645200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>788000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25600</v>
+        <v>33600</v>
       </c>
       <c r="E47" s="3">
-        <v>26800</v>
+        <v>27700</v>
       </c>
       <c r="F47" s="3">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="G47" s="3">
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="H47" s="3">
-        <v>29400</v>
+        <v>30400</v>
       </c>
       <c r="I47" s="3">
-        <v>28100</v>
+        <v>31900</v>
       </c>
       <c r="J47" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K47" s="3">
         <v>23100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>153000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>181900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>177700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>191200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2539000</v>
+        <v>2944200</v>
       </c>
       <c r="E48" s="3">
-        <v>2537400</v>
+        <v>2752500</v>
       </c>
       <c r="F48" s="3">
-        <v>2471300</v>
+        <v>2750800</v>
       </c>
       <c r="G48" s="3">
-        <v>2132900</v>
+        <v>2679200</v>
       </c>
       <c r="H48" s="3">
-        <v>2045700</v>
+        <v>2312300</v>
       </c>
       <c r="I48" s="3">
-        <v>2019000</v>
+        <v>2217700</v>
       </c>
       <c r="J48" s="3">
+        <v>2188800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1943200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1651700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1490700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1737500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1677400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3460700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>307200</v>
+        <v>332400</v>
       </c>
       <c r="E49" s="3">
-        <v>315500</v>
+        <v>333000</v>
       </c>
       <c r="F49" s="3">
-        <v>311500</v>
+        <v>342100</v>
       </c>
       <c r="G49" s="3">
-        <v>301000</v>
+        <v>337700</v>
       </c>
       <c r="H49" s="3">
-        <v>306100</v>
+        <v>326300</v>
       </c>
       <c r="I49" s="3">
-        <v>299100</v>
+        <v>331900</v>
       </c>
       <c r="J49" s="3">
+        <v>324200</v>
+      </c>
+      <c r="K49" s="3">
         <v>314100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>279700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>264000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>301900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>313700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>409000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149500</v>
+        <v>147200</v>
       </c>
       <c r="E52" s="3">
-        <v>121200</v>
+        <v>162000</v>
       </c>
       <c r="F52" s="3">
-        <v>80300</v>
+        <v>131400</v>
       </c>
       <c r="G52" s="3">
-        <v>78800</v>
+        <v>87000</v>
       </c>
       <c r="H52" s="3">
-        <v>62700</v>
+        <v>85500</v>
       </c>
       <c r="I52" s="3">
-        <v>88200</v>
+        <v>67900</v>
       </c>
       <c r="J52" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K52" s="3">
         <v>77600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>87700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>56100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>116100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4054400</v>
+        <v>4607300</v>
       </c>
       <c r="E54" s="3">
-        <v>4087100</v>
+        <v>4395400</v>
       </c>
       <c r="F54" s="3">
-        <v>3948600</v>
+        <v>4430800</v>
       </c>
       <c r="G54" s="3">
-        <v>3525000</v>
+        <v>4280700</v>
       </c>
       <c r="H54" s="3">
-        <v>3456500</v>
+        <v>3821500</v>
       </c>
       <c r="I54" s="3">
-        <v>3351700</v>
+        <v>3747200</v>
       </c>
       <c r="J54" s="3">
+        <v>3633600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3306400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2838900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2613900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3190700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2870000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2973200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>589600</v>
+        <v>493500</v>
       </c>
       <c r="E57" s="3">
-        <v>338500</v>
+        <v>639200</v>
       </c>
       <c r="F57" s="3">
-        <v>507100</v>
+        <v>367000</v>
       </c>
       <c r="G57" s="3">
-        <v>486200</v>
+        <v>549700</v>
       </c>
       <c r="H57" s="3">
-        <v>203400</v>
+        <v>527100</v>
       </c>
       <c r="I57" s="3">
-        <v>454300</v>
+        <v>220500</v>
       </c>
       <c r="J57" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K57" s="3">
         <v>198300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>671900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>171300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>489000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>446100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>399100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147500</v>
+        <v>137500</v>
       </c>
       <c r="E58" s="3">
-        <v>197700</v>
+        <v>159900</v>
       </c>
       <c r="F58" s="3">
-        <v>345900</v>
+        <v>214300</v>
       </c>
       <c r="G58" s="3">
-        <v>359600</v>
+        <v>375000</v>
       </c>
       <c r="H58" s="3">
-        <v>182600</v>
+        <v>389800</v>
       </c>
       <c r="I58" s="3">
-        <v>151100</v>
+        <v>197900</v>
       </c>
       <c r="J58" s="3">
+        <v>163800</v>
+      </c>
+      <c r="K58" s="3">
         <v>158000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>187900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>106600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>228400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>324200</v>
+        <v>622700</v>
       </c>
       <c r="E59" s="3">
-        <v>605300</v>
+        <v>351500</v>
       </c>
       <c r="F59" s="3">
-        <v>248500</v>
+        <v>656200</v>
       </c>
       <c r="G59" s="3">
-        <v>248500</v>
+        <v>269400</v>
       </c>
       <c r="H59" s="3">
-        <v>532000</v>
+        <v>269400</v>
       </c>
       <c r="I59" s="3">
-        <v>490000</v>
+        <v>576700</v>
       </c>
       <c r="J59" s="3">
+        <v>531200</v>
+      </c>
+      <c r="K59" s="3">
         <v>501300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>480000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>359200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>263400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>313000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1061300</v>
+        <v>1253700</v>
       </c>
       <c r="E60" s="3">
-        <v>1141400</v>
+        <v>1150500</v>
       </c>
       <c r="F60" s="3">
-        <v>1101500</v>
+        <v>1237500</v>
       </c>
       <c r="G60" s="3">
-        <v>1094300</v>
+        <v>1194100</v>
       </c>
       <c r="H60" s="3">
-        <v>917900</v>
+        <v>1186400</v>
       </c>
       <c r="I60" s="3">
-        <v>860300</v>
+        <v>995100</v>
       </c>
       <c r="J60" s="3">
+        <v>932700</v>
+      </c>
+      <c r="K60" s="3">
         <v>857600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>774600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>706200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>896800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>816200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>813200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>908200</v>
+        <v>1005800</v>
       </c>
       <c r="E61" s="3">
-        <v>919700</v>
+        <v>984600</v>
       </c>
       <c r="F61" s="3">
-        <v>788000</v>
+        <v>997000</v>
       </c>
       <c r="G61" s="3">
-        <v>322200</v>
+        <v>854300</v>
       </c>
       <c r="H61" s="3">
-        <v>492800</v>
+        <v>349400</v>
       </c>
       <c r="I61" s="3">
-        <v>476600</v>
+        <v>534200</v>
       </c>
       <c r="J61" s="3">
+        <v>516700</v>
+      </c>
+      <c r="K61" s="3">
         <v>430500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>280600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>239600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>313000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>211400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>229700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>138600</v>
+        <v>85700</v>
       </c>
       <c r="E62" s="3">
-        <v>63500</v>
+        <v>150300</v>
       </c>
       <c r="F62" s="3">
-        <v>92500</v>
+        <v>68900</v>
       </c>
       <c r="G62" s="3">
-        <v>126500</v>
+        <v>100300</v>
       </c>
       <c r="H62" s="3">
-        <v>96700</v>
+        <v>137100</v>
       </c>
       <c r="I62" s="3">
-        <v>207100</v>
+        <v>104900</v>
       </c>
       <c r="J62" s="3">
+        <v>224500</v>
+      </c>
+      <c r="K62" s="3">
         <v>111500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>133900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>147000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>174000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>152100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2106300</v>
+        <v>2343300</v>
       </c>
       <c r="E66" s="3">
-        <v>2122700</v>
+        <v>2283400</v>
       </c>
       <c r="F66" s="3">
-        <v>1980000</v>
+        <v>2301200</v>
       </c>
       <c r="G66" s="3">
-        <v>1556000</v>
+        <v>2146500</v>
       </c>
       <c r="H66" s="3">
-        <v>1532100</v>
+        <v>1686900</v>
       </c>
       <c r="I66" s="3">
-        <v>1556900</v>
+        <v>1661000</v>
       </c>
       <c r="J66" s="3">
+        <v>1687900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1421100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1119000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1410400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1260900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1212300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1611900</v>
+        <v>1899500</v>
       </c>
       <c r="E72" s="3">
-        <v>1628100</v>
+        <v>1747500</v>
       </c>
       <c r="F72" s="3">
-        <v>1632400</v>
+        <v>1765100</v>
       </c>
       <c r="G72" s="3">
-        <v>1632700</v>
+        <v>1769700</v>
       </c>
       <c r="H72" s="3">
-        <v>1588100</v>
+        <v>1770100</v>
       </c>
       <c r="I72" s="3">
-        <v>1458600</v>
+        <v>1721700</v>
       </c>
       <c r="J72" s="3">
+        <v>1581200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1538500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1329500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1197200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1423400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1252100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1392000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1948100</v>
+        <v>2264000</v>
       </c>
       <c r="E76" s="3">
-        <v>1964400</v>
+        <v>2112000</v>
       </c>
       <c r="F76" s="3">
-        <v>1968600</v>
+        <v>2129600</v>
       </c>
       <c r="G76" s="3">
-        <v>1969000</v>
+        <v>2134200</v>
       </c>
       <c r="H76" s="3">
-        <v>1924400</v>
+        <v>2134600</v>
       </c>
       <c r="I76" s="3">
-        <v>1794800</v>
+        <v>2086200</v>
       </c>
       <c r="J76" s="3">
+        <v>1945800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1885300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1638200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1494900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1780300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1609000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1760900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71800</v>
+        <v>96900</v>
       </c>
       <c r="E81" s="3">
-        <v>-18500</v>
+        <v>77900</v>
       </c>
       <c r="F81" s="3">
-        <v>55700</v>
+        <v>-21800</v>
       </c>
       <c r="G81" s="3">
-        <v>96600</v>
+        <v>60400</v>
       </c>
       <c r="H81" s="3">
-        <v>86400</v>
+        <v>104700</v>
       </c>
       <c r="I81" s="3">
-        <v>83600</v>
+        <v>93700</v>
       </c>
       <c r="J81" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K81" s="3">
         <v>103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>121100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>112800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>165400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,28 +3829,29 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>223400</v>
+        <v>253600</v>
       </c>
       <c r="E83" s="3">
-        <v>233200</v>
+        <v>242200</v>
       </c>
       <c r="F83" s="3">
-        <v>227200</v>
-      </c>
-      <c r="G83" s="3" t="s">
+        <v>252800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>246300</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H83" s="3">
-        <v>185800</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
+      <c r="I83" s="3">
+        <v>201500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3663,8 +3862,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>220900</v>
+        <v>542500</v>
       </c>
       <c r="E89" s="3">
-        <v>449100</v>
+        <v>239500</v>
       </c>
       <c r="F89" s="3">
-        <v>121000</v>
+        <v>486900</v>
       </c>
       <c r="G89" s="3">
-        <v>235900</v>
+        <v>131200</v>
       </c>
       <c r="H89" s="3">
-        <v>144000</v>
+        <v>255700</v>
       </c>
       <c r="I89" s="3">
-        <v>304100</v>
+        <v>156100</v>
       </c>
       <c r="J89" s="3">
+        <v>329600</v>
+      </c>
+      <c r="K89" s="3">
         <v>101000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>220700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>104000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>414700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>204200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-195300</v>
+        <v>-378200</v>
       </c>
       <c r="E91" s="3">
-        <v>-233600</v>
+        <v>-211700</v>
       </c>
       <c r="F91" s="3">
-        <v>-279800</v>
+        <v>-253300</v>
       </c>
       <c r="G91" s="3">
-        <v>-291200</v>
+        <v>-303400</v>
       </c>
       <c r="H91" s="3">
-        <v>-213700</v>
+        <v>-315700</v>
       </c>
       <c r="I91" s="3">
-        <v>-251800</v>
+        <v>-231700</v>
       </c>
       <c r="J91" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-264600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-292400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-202700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-263400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-140400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-588900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-194700</v>
+        <v>-370400</v>
       </c>
       <c r="E94" s="3">
-        <v>-132300</v>
+        <v>-211100</v>
       </c>
       <c r="F94" s="3">
-        <v>-264600</v>
+        <v>-143400</v>
       </c>
       <c r="G94" s="3">
-        <v>-291200</v>
+        <v>-286800</v>
       </c>
       <c r="H94" s="3">
-        <v>-209700</v>
+        <v>-315600</v>
       </c>
       <c r="I94" s="3">
-        <v>-182400</v>
+        <v>-227300</v>
       </c>
       <c r="J94" s="3">
+        <v>-197700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-258200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-286400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-350200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-212900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-205000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4195,8 +4429,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-80800</v>
+        <v>-93000</v>
       </c>
       <c r="E100" s="3">
-        <v>-68900</v>
+        <v>-87600</v>
       </c>
       <c r="F100" s="3">
-        <v>115200</v>
+        <v>-74700</v>
       </c>
       <c r="G100" s="3">
-        <v>6500</v>
+        <v>124900</v>
       </c>
       <c r="H100" s="3">
-        <v>41200</v>
+        <v>7100</v>
       </c>
       <c r="I100" s="3">
-        <v>-30000</v>
+        <v>44700</v>
       </c>
       <c r="J100" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K100" s="3">
         <v>145300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-41800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-36900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4391,23 +4640,23 @@
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
@@ -4415,48 +4664,54 @@
       <c r="P101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-54700</v>
+        <v>79200</v>
       </c>
       <c r="E102" s="3">
-        <v>247900</v>
+        <v>-59300</v>
       </c>
       <c r="F102" s="3">
-        <v>-28400</v>
+        <v>268800</v>
       </c>
       <c r="G102" s="3">
-        <v>-47600</v>
+        <v>-30700</v>
       </c>
       <c r="H102" s="3">
-        <v>-25600</v>
+        <v>-51600</v>
       </c>
       <c r="I102" s="3">
-        <v>90200</v>
+        <v>-27700</v>
       </c>
       <c r="J102" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>126300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-201600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1575400</v>
+        <v>1435700</v>
       </c>
       <c r="E8" s="3">
-        <v>1544400</v>
+        <v>1407400</v>
       </c>
       <c r="F8" s="3">
-        <v>1556500</v>
+        <v>1418500</v>
       </c>
       <c r="G8" s="3">
-        <v>1550400</v>
+        <v>1412900</v>
       </c>
       <c r="H8" s="3">
-        <v>1534800</v>
+        <v>1398700</v>
       </c>
       <c r="I8" s="3">
-        <v>1480500</v>
+        <v>1349200</v>
       </c>
       <c r="J8" s="3">
-        <v>1432300</v>
+        <v>1305300</v>
       </c>
       <c r="K8" s="3">
         <v>1319500</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>320300</v>
+        <v>291900</v>
       </c>
       <c r="E9" s="3">
-        <v>304700</v>
+        <v>277700</v>
       </c>
       <c r="F9" s="3">
-        <v>330400</v>
+        <v>301100</v>
       </c>
       <c r="G9" s="3">
-        <v>341500</v>
+        <v>311200</v>
       </c>
       <c r="H9" s="3">
-        <v>330100</v>
+        <v>300800</v>
       </c>
       <c r="I9" s="3">
-        <v>487100</v>
+        <v>443900</v>
       </c>
       <c r="J9" s="3">
-        <v>438100</v>
+        <v>399200</v>
       </c>
       <c r="K9" s="3">
         <v>270200</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1255100</v>
+        <v>1143800</v>
       </c>
       <c r="E10" s="3">
-        <v>1239600</v>
+        <v>1129700</v>
       </c>
       <c r="F10" s="3">
-        <v>1226100</v>
+        <v>1117400</v>
       </c>
       <c r="G10" s="3">
-        <v>1208900</v>
+        <v>1101700</v>
       </c>
       <c r="H10" s="3">
-        <v>1204700</v>
+        <v>1097900</v>
       </c>
       <c r="I10" s="3">
-        <v>993400</v>
+        <v>905300</v>
       </c>
       <c r="J10" s="3">
-        <v>994200</v>
+        <v>906100</v>
       </c>
       <c r="K10" s="3">
         <v>1049300</v>
@@ -998,25 +998,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13100</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="3">
-        <v>25400</v>
+        <v>23200</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="H14" s="3">
-        <v>13300</v>
+        <v>12100</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="J14" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="K14" s="3">
         <v>-2300</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>240600</v>
+        <v>219200</v>
       </c>
       <c r="E15" s="3">
-        <v>240900</v>
+        <v>219500</v>
       </c>
       <c r="F15" s="3">
-        <v>227400</v>
+        <v>207300</v>
       </c>
       <c r="G15" s="3">
-        <v>241800</v>
+        <v>220400</v>
       </c>
       <c r="H15" s="3">
-        <v>204900</v>
+        <v>186700</v>
       </c>
       <c r="I15" s="3">
-        <v>195200</v>
+        <v>177900</v>
       </c>
       <c r="J15" s="3">
-        <v>205200</v>
+        <v>187000</v>
       </c>
       <c r="K15" s="3">
         <v>179400</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1410800</v>
+        <v>1285700</v>
       </c>
       <c r="E17" s="3">
-        <v>1360200</v>
+        <v>1239600</v>
       </c>
       <c r="F17" s="3">
-        <v>1522500</v>
+        <v>1387500</v>
       </c>
       <c r="G17" s="3">
-        <v>1395300</v>
+        <v>1271600</v>
       </c>
       <c r="H17" s="3">
-        <v>1349000</v>
+        <v>1229400</v>
       </c>
       <c r="I17" s="3">
-        <v>1322100</v>
+        <v>1204900</v>
       </c>
       <c r="J17" s="3">
-        <v>1264300</v>
+        <v>1152200</v>
       </c>
       <c r="K17" s="3">
         <v>1152400</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>164600</v>
+        <v>150000</v>
       </c>
       <c r="E18" s="3">
-        <v>184200</v>
+        <v>167900</v>
       </c>
       <c r="F18" s="3">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="G18" s="3">
-        <v>155000</v>
+        <v>141300</v>
       </c>
       <c r="H18" s="3">
-        <v>185700</v>
+        <v>169300</v>
       </c>
       <c r="I18" s="3">
-        <v>158400</v>
+        <v>144300</v>
       </c>
       <c r="J18" s="3">
-        <v>168000</v>
+        <v>153100</v>
       </c>
       <c r="K18" s="3">
         <v>167100</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16000</v>
+        <v>-14500</v>
       </c>
       <c r="E20" s="3">
-        <v>-48500</v>
+        <v>-44200</v>
       </c>
       <c r="F20" s="3">
-        <v>-41800</v>
+        <v>-38100</v>
       </c>
       <c r="G20" s="3">
-        <v>-55300</v>
+        <v>-50400</v>
       </c>
       <c r="H20" s="3">
-        <v>-31200</v>
+        <v>-28400</v>
       </c>
       <c r="I20" s="3">
-        <v>-23700</v>
+        <v>-21600</v>
       </c>
       <c r="J20" s="3">
-        <v>-31600</v>
+        <v>-28800</v>
       </c>
       <c r="K20" s="3">
         <v>-19200</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>402300</v>
+        <v>366700</v>
       </c>
       <c r="E21" s="3">
-        <v>377900</v>
+        <v>344400</v>
       </c>
       <c r="F21" s="3">
-        <v>245100</v>
+        <v>223300</v>
       </c>
       <c r="G21" s="3">
-        <v>346000</v>
+        <v>315300</v>
       </c>
       <c r="H21" s="3">
-        <v>157200</v>
+        <v>143300</v>
       </c>
       <c r="I21" s="3">
-        <v>336100</v>
+        <v>306300</v>
       </c>
       <c r="J21" s="3">
-        <v>147000</v>
+        <v>134000</v>
       </c>
       <c r="K21" s="3">
         <v>327400</v>
@@ -1315,16 +1315,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>16000</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="3">
-        <v>16100</v>
+        <v>14700</v>
       </c>
       <c r="F22" s="3">
-        <v>13400</v>
+        <v>12200</v>
       </c>
       <c r="G22" s="3">
-        <v>13200</v>
+        <v>12000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132700</v>
+        <v>120900</v>
       </c>
       <c r="E23" s="3">
-        <v>119600</v>
+        <v>109000</v>
       </c>
       <c r="F23" s="3">
-        <v>-21100</v>
+        <v>-19300</v>
       </c>
       <c r="G23" s="3">
-        <v>86500</v>
+        <v>78900</v>
       </c>
       <c r="H23" s="3">
-        <v>154500</v>
+        <v>140800</v>
       </c>
       <c r="I23" s="3">
-        <v>134700</v>
+        <v>122700</v>
       </c>
       <c r="J23" s="3">
-        <v>136300</v>
+        <v>124300</v>
       </c>
       <c r="K23" s="3">
         <v>147900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35400</v>
+        <v>32300</v>
       </c>
       <c r="E24" s="3">
-        <v>41600</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
-        <v>25800</v>
+        <v>23500</v>
       </c>
       <c r="H24" s="3">
-        <v>50200</v>
+        <v>45700</v>
       </c>
       <c r="I24" s="3">
-        <v>34700</v>
+        <v>31600</v>
       </c>
       <c r="J24" s="3">
-        <v>37500</v>
+        <v>34100</v>
       </c>
       <c r="K24" s="3">
         <v>39500</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>97200</v>
+        <v>88600</v>
       </c>
       <c r="E26" s="3">
-        <v>78000</v>
+        <v>71100</v>
       </c>
       <c r="F26" s="3">
-        <v>-21700</v>
+        <v>-19800</v>
       </c>
       <c r="G26" s="3">
-        <v>60700</v>
+        <v>55300</v>
       </c>
       <c r="H26" s="3">
-        <v>104400</v>
+        <v>95100</v>
       </c>
       <c r="I26" s="3">
-        <v>100000</v>
+        <v>91100</v>
       </c>
       <c r="J26" s="3">
-        <v>98900</v>
+        <v>90100</v>
       </c>
       <c r="K26" s="3">
         <v>108400</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96900</v>
+        <v>88300</v>
       </c>
       <c r="E27" s="3">
-        <v>77900</v>
+        <v>71000</v>
       </c>
       <c r="F27" s="3">
-        <v>-21800</v>
+        <v>-19900</v>
       </c>
       <c r="G27" s="3">
-        <v>60400</v>
+        <v>55100</v>
       </c>
       <c r="H27" s="3">
-        <v>104700</v>
+        <v>95400</v>
       </c>
       <c r="I27" s="3">
-        <v>93700</v>
+        <v>85400</v>
       </c>
       <c r="J27" s="3">
-        <v>90600</v>
+        <v>82600</v>
       </c>
       <c r="K27" s="3">
         <v>103600</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="E32" s="3">
-        <v>48500</v>
+        <v>44200</v>
       </c>
       <c r="F32" s="3">
-        <v>41800</v>
+        <v>38100</v>
       </c>
       <c r="G32" s="3">
-        <v>55300</v>
+        <v>50400</v>
       </c>
       <c r="H32" s="3">
-        <v>31200</v>
+        <v>28400</v>
       </c>
       <c r="I32" s="3">
-        <v>23700</v>
+        <v>21600</v>
       </c>
       <c r="J32" s="3">
-        <v>31600</v>
+        <v>28800</v>
       </c>
       <c r="K32" s="3">
         <v>19200</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96900</v>
+        <v>88300</v>
       </c>
       <c r="E33" s="3">
-        <v>77900</v>
+        <v>71000</v>
       </c>
       <c r="F33" s="3">
-        <v>-21800</v>
+        <v>-19900</v>
       </c>
       <c r="G33" s="3">
-        <v>60400</v>
+        <v>55100</v>
       </c>
       <c r="H33" s="3">
-        <v>104700</v>
+        <v>95400</v>
       </c>
       <c r="I33" s="3">
-        <v>93700</v>
+        <v>85400</v>
       </c>
       <c r="J33" s="3">
-        <v>90600</v>
+        <v>82600</v>
       </c>
       <c r="K33" s="3">
         <v>103600</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96900</v>
+        <v>88300</v>
       </c>
       <c r="E35" s="3">
-        <v>77900</v>
+        <v>71000</v>
       </c>
       <c r="F35" s="3">
-        <v>-21800</v>
+        <v>-19900</v>
       </c>
       <c r="G35" s="3">
-        <v>60400</v>
+        <v>55100</v>
       </c>
       <c r="H35" s="3">
-        <v>104700</v>
+        <v>95400</v>
       </c>
       <c r="I35" s="3">
-        <v>93700</v>
+        <v>85400</v>
       </c>
       <c r="J35" s="3">
-        <v>90600</v>
+        <v>82600</v>
       </c>
       <c r="K35" s="3">
         <v>103600</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>361100</v>
+        <v>329100</v>
       </c>
       <c r="E41" s="3">
-        <v>204600</v>
+        <v>186500</v>
       </c>
       <c r="F41" s="3">
-        <v>159400</v>
+        <v>145200</v>
       </c>
       <c r="G41" s="3">
-        <v>87900</v>
+        <v>80100</v>
       </c>
       <c r="H41" s="3">
-        <v>94400</v>
+        <v>86000</v>
       </c>
       <c r="I41" s="3">
-        <v>112400</v>
+        <v>102400</v>
       </c>
       <c r="J41" s="3">
-        <v>108100</v>
+        <v>98500</v>
       </c>
       <c r="K41" s="3">
         <v>62500</v>
@@ -2110,25 +2110,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
-        <v>95600</v>
+        <v>87100</v>
       </c>
       <c r="F42" s="3">
-        <v>248300</v>
+        <v>226300</v>
       </c>
       <c r="G42" s="3">
-        <v>147600</v>
+        <v>134500</v>
       </c>
       <c r="H42" s="3">
-        <v>150200</v>
+        <v>136900</v>
       </c>
       <c r="I42" s="3">
-        <v>165100</v>
+        <v>150400</v>
       </c>
       <c r="J42" s="3">
-        <v>197100</v>
+        <v>179600</v>
       </c>
       <c r="K42" s="3">
         <v>195700</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>634800</v>
+        <v>578500</v>
       </c>
       <c r="E43" s="3">
-        <v>530800</v>
+        <v>483700</v>
       </c>
       <c r="F43" s="3">
-        <v>631900</v>
+        <v>575900</v>
       </c>
       <c r="G43" s="3">
-        <v>667400</v>
+        <v>608300</v>
       </c>
       <c r="H43" s="3">
-        <v>731000</v>
+        <v>666200</v>
       </c>
       <c r="I43" s="3">
-        <v>693100</v>
+        <v>631700</v>
       </c>
       <c r="J43" s="3">
-        <v>592500</v>
+        <v>539900</v>
       </c>
       <c r="K43" s="3">
         <v>579200</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74100</v>
+        <v>67500</v>
       </c>
       <c r="E44" s="3">
-        <v>61300</v>
+        <v>55800</v>
       </c>
       <c r="F44" s="3">
-        <v>70200</v>
+        <v>63900</v>
       </c>
       <c r="G44" s="3">
-        <v>86200</v>
+        <v>78500</v>
       </c>
       <c r="H44" s="3">
-        <v>91500</v>
+        <v>83300</v>
       </c>
       <c r="I44" s="3">
-        <v>99900</v>
+        <v>91000</v>
       </c>
       <c r="J44" s="3">
-        <v>96800</v>
+        <v>88200</v>
       </c>
       <c r="K44" s="3">
         <v>106900</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73500</v>
+        <v>67000</v>
       </c>
       <c r="E45" s="3">
-        <v>227800</v>
+        <v>207600</v>
       </c>
       <c r="F45" s="3">
-        <v>67800</v>
+        <v>61800</v>
       </c>
       <c r="G45" s="3">
-        <v>154100</v>
+        <v>140400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>27300</v>
+        <v>24900</v>
       </c>
       <c r="J45" s="3">
-        <v>11800</v>
+        <v>10700</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1149800</v>
+        <v>1047900</v>
       </c>
       <c r="E46" s="3">
-        <v>1120100</v>
+        <v>1020800</v>
       </c>
       <c r="F46" s="3">
-        <v>1177600</v>
+        <v>1073200</v>
       </c>
       <c r="G46" s="3">
-        <v>1143300</v>
+        <v>1041900</v>
       </c>
       <c r="H46" s="3">
-        <v>1067000</v>
+        <v>972400</v>
       </c>
       <c r="I46" s="3">
-        <v>1097800</v>
+        <v>1000400</v>
       </c>
       <c r="J46" s="3">
-        <v>994500</v>
+        <v>906300</v>
       </c>
       <c r="K46" s="3">
         <v>948400</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>33600</v>
+        <v>30700</v>
       </c>
       <c r="E47" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>30600</v>
+      </c>
+      <c r="H47" s="3">
         <v>27700</v>
       </c>
-      <c r="F47" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>33600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>30400</v>
-      </c>
       <c r="I47" s="3">
-        <v>31900</v>
+        <v>29100</v>
       </c>
       <c r="J47" s="3">
-        <v>30500</v>
+        <v>27800</v>
       </c>
       <c r="K47" s="3">
         <v>23100</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2944200</v>
+        <v>2683200</v>
       </c>
       <c r="E48" s="3">
-        <v>2752500</v>
+        <v>2508500</v>
       </c>
       <c r="F48" s="3">
-        <v>2750800</v>
+        <v>2506900</v>
       </c>
       <c r="G48" s="3">
-        <v>2679200</v>
+        <v>2441600</v>
       </c>
       <c r="H48" s="3">
-        <v>2312300</v>
+        <v>2107300</v>
       </c>
       <c r="I48" s="3">
-        <v>2217700</v>
+        <v>2021100</v>
       </c>
       <c r="J48" s="3">
-        <v>2188800</v>
+        <v>1994700</v>
       </c>
       <c r="K48" s="3">
         <v>1943200</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>332400</v>
+        <v>302900</v>
       </c>
       <c r="E49" s="3">
-        <v>333000</v>
+        <v>303500</v>
       </c>
       <c r="F49" s="3">
-        <v>342100</v>
+        <v>311700</v>
       </c>
       <c r="G49" s="3">
-        <v>337700</v>
+        <v>307700</v>
       </c>
       <c r="H49" s="3">
-        <v>326300</v>
+        <v>297400</v>
       </c>
       <c r="I49" s="3">
-        <v>331900</v>
+        <v>302500</v>
       </c>
       <c r="J49" s="3">
-        <v>324200</v>
+        <v>295500</v>
       </c>
       <c r="K49" s="3">
         <v>314100</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>147200</v>
+        <v>134200</v>
       </c>
       <c r="E52" s="3">
-        <v>162000</v>
+        <v>147700</v>
       </c>
       <c r="F52" s="3">
-        <v>131400</v>
+        <v>119700</v>
       </c>
       <c r="G52" s="3">
-        <v>87000</v>
+        <v>79300</v>
       </c>
       <c r="H52" s="3">
-        <v>85500</v>
+        <v>77900</v>
       </c>
       <c r="I52" s="3">
-        <v>67900</v>
+        <v>61900</v>
       </c>
       <c r="J52" s="3">
-        <v>95600</v>
+        <v>87200</v>
       </c>
       <c r="K52" s="3">
         <v>77600</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4607300</v>
+        <v>4198800</v>
       </c>
       <c r="E54" s="3">
-        <v>4395400</v>
+        <v>4005700</v>
       </c>
       <c r="F54" s="3">
-        <v>4430800</v>
+        <v>4038000</v>
       </c>
       <c r="G54" s="3">
-        <v>4280700</v>
+        <v>3901100</v>
       </c>
       <c r="H54" s="3">
-        <v>3821500</v>
+        <v>3482700</v>
       </c>
       <c r="I54" s="3">
-        <v>3747200</v>
+        <v>3415000</v>
       </c>
       <c r="J54" s="3">
-        <v>3633600</v>
+        <v>3311400</v>
       </c>
       <c r="K54" s="3">
         <v>3306400</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493500</v>
+        <v>449700</v>
       </c>
       <c r="E57" s="3">
-        <v>639200</v>
+        <v>582500</v>
       </c>
       <c r="F57" s="3">
-        <v>367000</v>
+        <v>334400</v>
       </c>
       <c r="G57" s="3">
-        <v>549700</v>
+        <v>501000</v>
       </c>
       <c r="H57" s="3">
-        <v>527100</v>
+        <v>480300</v>
       </c>
       <c r="I57" s="3">
-        <v>220500</v>
+        <v>201000</v>
       </c>
       <c r="J57" s="3">
-        <v>492600</v>
+        <v>448900</v>
       </c>
       <c r="K57" s="3">
         <v>198300</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>137500</v>
+        <v>125300</v>
       </c>
       <c r="E58" s="3">
-        <v>159900</v>
+        <v>145700</v>
       </c>
       <c r="F58" s="3">
-        <v>214300</v>
+        <v>195300</v>
       </c>
       <c r="G58" s="3">
-        <v>375000</v>
+        <v>341700</v>
       </c>
       <c r="H58" s="3">
-        <v>389800</v>
+        <v>355300</v>
       </c>
       <c r="I58" s="3">
-        <v>197900</v>
+        <v>180400</v>
       </c>
       <c r="J58" s="3">
-        <v>163800</v>
+        <v>149300</v>
       </c>
       <c r="K58" s="3">
         <v>158000</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>622700</v>
+        <v>567500</v>
       </c>
       <c r="E59" s="3">
-        <v>351500</v>
+        <v>320300</v>
       </c>
       <c r="F59" s="3">
-        <v>656200</v>
+        <v>598000</v>
       </c>
       <c r="G59" s="3">
-        <v>269400</v>
+        <v>245600</v>
       </c>
       <c r="H59" s="3">
-        <v>269400</v>
+        <v>245600</v>
       </c>
       <c r="I59" s="3">
-        <v>576700</v>
+        <v>525600</v>
       </c>
       <c r="J59" s="3">
-        <v>531200</v>
+        <v>484100</v>
       </c>
       <c r="K59" s="3">
         <v>501300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1253700</v>
+        <v>1142500</v>
       </c>
       <c r="E60" s="3">
-        <v>1150500</v>
+        <v>1048500</v>
       </c>
       <c r="F60" s="3">
-        <v>1237500</v>
+        <v>1127700</v>
       </c>
       <c r="G60" s="3">
-        <v>1194100</v>
+        <v>1088300</v>
       </c>
       <c r="H60" s="3">
-        <v>1186400</v>
+        <v>1081200</v>
       </c>
       <c r="I60" s="3">
-        <v>995100</v>
+        <v>906900</v>
       </c>
       <c r="J60" s="3">
-        <v>932700</v>
+        <v>850000</v>
       </c>
       <c r="K60" s="3">
         <v>857600</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1005800</v>
+        <v>916600</v>
       </c>
       <c r="E61" s="3">
-        <v>984600</v>
+        <v>897300</v>
       </c>
       <c r="F61" s="3">
-        <v>997000</v>
+        <v>908600</v>
       </c>
       <c r="G61" s="3">
-        <v>854300</v>
+        <v>778600</v>
       </c>
       <c r="H61" s="3">
-        <v>349400</v>
+        <v>318400</v>
       </c>
       <c r="I61" s="3">
-        <v>534200</v>
+        <v>486800</v>
       </c>
       <c r="J61" s="3">
-        <v>516700</v>
+        <v>470900</v>
       </c>
       <c r="K61" s="3">
         <v>430500</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>85700</v>
+        <v>78100</v>
       </c>
       <c r="E62" s="3">
-        <v>150300</v>
+        <v>137000</v>
       </c>
       <c r="F62" s="3">
-        <v>68900</v>
+        <v>62800</v>
       </c>
       <c r="G62" s="3">
-        <v>100300</v>
+        <v>91400</v>
       </c>
       <c r="H62" s="3">
-        <v>137100</v>
+        <v>125000</v>
       </c>
       <c r="I62" s="3">
-        <v>104900</v>
+        <v>95600</v>
       </c>
       <c r="J62" s="3">
-        <v>224500</v>
+        <v>204600</v>
       </c>
       <c r="K62" s="3">
         <v>111500</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2343300</v>
+        <v>2135500</v>
       </c>
       <c r="E66" s="3">
-        <v>2283400</v>
+        <v>2081000</v>
       </c>
       <c r="F66" s="3">
-        <v>2301200</v>
+        <v>2097200</v>
       </c>
       <c r="G66" s="3">
-        <v>2146500</v>
+        <v>1956200</v>
       </c>
       <c r="H66" s="3">
-        <v>1686900</v>
+        <v>1537300</v>
       </c>
       <c r="I66" s="3">
-        <v>1661000</v>
+        <v>1513700</v>
       </c>
       <c r="J66" s="3">
-        <v>1687900</v>
+        <v>1538200</v>
       </c>
       <c r="K66" s="3">
         <v>1421100</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1899500</v>
+        <v>1731100</v>
       </c>
       <c r="E72" s="3">
-        <v>1747500</v>
+        <v>1592500</v>
       </c>
       <c r="F72" s="3">
-        <v>1765100</v>
+        <v>1608600</v>
       </c>
       <c r="G72" s="3">
-        <v>1769700</v>
+        <v>1612800</v>
       </c>
       <c r="H72" s="3">
-        <v>1770100</v>
+        <v>1613100</v>
       </c>
       <c r="I72" s="3">
-        <v>1721700</v>
+        <v>1569100</v>
       </c>
       <c r="J72" s="3">
-        <v>1581200</v>
+        <v>1441000</v>
       </c>
       <c r="K72" s="3">
         <v>1538500</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2264000</v>
+        <v>2063300</v>
       </c>
       <c r="E76" s="3">
-        <v>2112000</v>
+        <v>1924700</v>
       </c>
       <c r="F76" s="3">
-        <v>2129600</v>
+        <v>1940800</v>
       </c>
       <c r="G76" s="3">
-        <v>2134200</v>
+        <v>1945000</v>
       </c>
       <c r="H76" s="3">
-        <v>2134600</v>
+        <v>1945300</v>
       </c>
       <c r="I76" s="3">
-        <v>2086200</v>
+        <v>1901200</v>
       </c>
       <c r="J76" s="3">
-        <v>1945800</v>
+        <v>1773200</v>
       </c>
       <c r="K76" s="3">
         <v>1885300</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96900</v>
+        <v>88300</v>
       </c>
       <c r="E81" s="3">
-        <v>77900</v>
+        <v>71000</v>
       </c>
       <c r="F81" s="3">
-        <v>-21800</v>
+        <v>-19900</v>
       </c>
       <c r="G81" s="3">
-        <v>60400</v>
+        <v>55100</v>
       </c>
       <c r="H81" s="3">
-        <v>104700</v>
+        <v>95400</v>
       </c>
       <c r="I81" s="3">
-        <v>93700</v>
+        <v>85400</v>
       </c>
       <c r="J81" s="3">
-        <v>90600</v>
+        <v>82600</v>
       </c>
       <c r="K81" s="3">
         <v>103600</v>
@@ -3836,22 +3836,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>253600</v>
+        <v>231200</v>
       </c>
       <c r="E83" s="3">
-        <v>242200</v>
+        <v>220800</v>
       </c>
       <c r="F83" s="3">
-        <v>252800</v>
+        <v>230400</v>
       </c>
       <c r="G83" s="3">
-        <v>246300</v>
+        <v>224400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <v>201500</v>
+        <v>183600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>542500</v>
+        <v>494400</v>
       </c>
       <c r="E89" s="3">
-        <v>239500</v>
+        <v>218300</v>
       </c>
       <c r="F89" s="3">
-        <v>486900</v>
+        <v>443800</v>
       </c>
       <c r="G89" s="3">
-        <v>131200</v>
+        <v>119500</v>
       </c>
       <c r="H89" s="3">
-        <v>255700</v>
+        <v>233100</v>
       </c>
       <c r="I89" s="3">
-        <v>156100</v>
+        <v>142300</v>
       </c>
       <c r="J89" s="3">
-        <v>329600</v>
+        <v>300400</v>
       </c>
       <c r="K89" s="3">
         <v>101000</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-378200</v>
+        <v>-344600</v>
       </c>
       <c r="E91" s="3">
-        <v>-211700</v>
+        <v>-192900</v>
       </c>
       <c r="F91" s="3">
-        <v>-253300</v>
+        <v>-230800</v>
       </c>
       <c r="G91" s="3">
-        <v>-303400</v>
+        <v>-276500</v>
       </c>
       <c r="H91" s="3">
-        <v>-315700</v>
+        <v>-287700</v>
       </c>
       <c r="I91" s="3">
-        <v>-231700</v>
+        <v>-211200</v>
       </c>
       <c r="J91" s="3">
-        <v>-273000</v>
+        <v>-248800</v>
       </c>
       <c r="K91" s="3">
         <v>-264600</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-370400</v>
+        <v>-337500</v>
       </c>
       <c r="E94" s="3">
-        <v>-211100</v>
+        <v>-192400</v>
       </c>
       <c r="F94" s="3">
-        <v>-143400</v>
+        <v>-130700</v>
       </c>
       <c r="G94" s="3">
-        <v>-286800</v>
+        <v>-261400</v>
       </c>
       <c r="H94" s="3">
-        <v>-315600</v>
+        <v>-287700</v>
       </c>
       <c r="I94" s="3">
-        <v>-227300</v>
+        <v>-207100</v>
       </c>
       <c r="J94" s="3">
-        <v>-197700</v>
+        <v>-180200</v>
       </c>
       <c r="K94" s="3">
         <v>-258200</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-93000</v>
+        <v>-84700</v>
       </c>
       <c r="E100" s="3">
-        <v>-87600</v>
+        <v>-79900</v>
       </c>
       <c r="F100" s="3">
-        <v>-74700</v>
+        <v>-68100</v>
       </c>
       <c r="G100" s="3">
-        <v>124900</v>
+        <v>113900</v>
       </c>
       <c r="H100" s="3">
-        <v>7100</v>
+        <v>6400</v>
       </c>
       <c r="I100" s="3">
-        <v>44700</v>
+        <v>40700</v>
       </c>
       <c r="J100" s="3">
-        <v>-32600</v>
+        <v>-29700</v>
       </c>
       <c r="K100" s="3">
         <v>145300</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79200</v>
+        <v>72200</v>
       </c>
       <c r="E102" s="3">
-        <v>-59300</v>
+        <v>-54000</v>
       </c>
       <c r="F102" s="3">
-        <v>268800</v>
+        <v>245000</v>
       </c>
       <c r="G102" s="3">
-        <v>-30700</v>
+        <v>-28000</v>
       </c>
       <c r="H102" s="3">
-        <v>-51600</v>
+        <v>-47000</v>
       </c>
       <c r="I102" s="3">
-        <v>-27700</v>
+        <v>-25300</v>
       </c>
       <c r="J102" s="3">
-        <v>97800</v>
+        <v>89100</v>
       </c>
       <c r="K102" s="3">
         <v>-11700</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1435700</v>
+        <v>1319000</v>
       </c>
       <c r="E8" s="3">
-        <v>1407400</v>
+        <v>1352100</v>
       </c>
       <c r="F8" s="3">
-        <v>1418500</v>
+        <v>1325500</v>
       </c>
       <c r="G8" s="3">
-        <v>1412900</v>
+        <v>1335900</v>
       </c>
       <c r="H8" s="3">
-        <v>1398700</v>
+        <v>1330600</v>
       </c>
       <c r="I8" s="3">
-        <v>1349200</v>
+        <v>1317200</v>
       </c>
       <c r="J8" s="3">
+        <v>1270700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1305300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1319500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1229100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1156500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1408000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1150200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1193200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>291900</v>
+        <v>264800</v>
       </c>
       <c r="E9" s="3">
-        <v>277700</v>
+        <v>274900</v>
       </c>
       <c r="F9" s="3">
-        <v>301100</v>
+        <v>261600</v>
       </c>
       <c r="G9" s="3">
-        <v>311200</v>
+        <v>283500</v>
       </c>
       <c r="H9" s="3">
-        <v>300800</v>
+        <v>293100</v>
       </c>
       <c r="I9" s="3">
-        <v>443900</v>
+        <v>283300</v>
       </c>
       <c r="J9" s="3">
+        <v>418000</v>
+      </c>
+      <c r="K9" s="3">
         <v>399200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>270200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>285000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>246300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>307000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>252600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1143800</v>
+        <v>1054200</v>
       </c>
       <c r="E10" s="3">
-        <v>1129700</v>
+        <v>1077200</v>
       </c>
       <c r="F10" s="3">
-        <v>1117400</v>
+        <v>1063900</v>
       </c>
       <c r="G10" s="3">
-        <v>1101700</v>
+        <v>1052300</v>
       </c>
       <c r="H10" s="3">
-        <v>1097900</v>
+        <v>1037500</v>
       </c>
       <c r="I10" s="3">
-        <v>905300</v>
+        <v>1033900</v>
       </c>
       <c r="J10" s="3">
+        <v>852600</v>
+      </c>
+      <c r="K10" s="3">
         <v>906100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1049300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>944100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>910300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1101000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>922300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>940600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,102 +1009,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11900</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
-        <v>23200</v>
-      </c>
       <c r="G14" s="3">
-        <v>4100</v>
+        <v>21800</v>
       </c>
       <c r="H14" s="3">
-        <v>12100</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>5700</v>
+        <v>11400</v>
       </c>
       <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>219200</v>
+        <v>211400</v>
       </c>
       <c r="E15" s="3">
-        <v>219500</v>
+        <v>206500</v>
       </c>
       <c r="F15" s="3">
-        <v>207300</v>
+        <v>206700</v>
       </c>
       <c r="G15" s="3">
-        <v>220400</v>
+        <v>195200</v>
       </c>
       <c r="H15" s="3">
-        <v>186700</v>
+        <v>207500</v>
       </c>
       <c r="I15" s="3">
-        <v>177900</v>
+        <v>175900</v>
       </c>
       <c r="J15" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K15" s="3">
         <v>187000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>179400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>168200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>153200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>188100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>177100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>201000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1285700</v>
+        <v>1164800</v>
       </c>
       <c r="E17" s="3">
-        <v>1239600</v>
+        <v>1210800</v>
       </c>
       <c r="F17" s="3">
-        <v>1387500</v>
+        <v>1167400</v>
       </c>
       <c r="G17" s="3">
-        <v>1271600</v>
+        <v>1306700</v>
       </c>
       <c r="H17" s="3">
-        <v>1229400</v>
+        <v>1197600</v>
       </c>
       <c r="I17" s="3">
-        <v>1204900</v>
+        <v>1157800</v>
       </c>
       <c r="J17" s="3">
+        <v>1134700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1152200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1152400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1071100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1010800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1245200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1088400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1069500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>150000</v>
+        <v>154300</v>
       </c>
       <c r="E18" s="3">
-        <v>167900</v>
+        <v>141300</v>
       </c>
       <c r="F18" s="3">
-        <v>31000</v>
+        <v>158100</v>
       </c>
       <c r="G18" s="3">
-        <v>141300</v>
+        <v>29200</v>
       </c>
       <c r="H18" s="3">
-        <v>169300</v>
+        <v>133100</v>
       </c>
       <c r="I18" s="3">
-        <v>144300</v>
+        <v>159400</v>
       </c>
       <c r="J18" s="3">
+        <v>135900</v>
+      </c>
+      <c r="K18" s="3">
         <v>153100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>167100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>145700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>162900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,119 +1248,126 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14500</v>
+        <v>-21100</v>
       </c>
       <c r="E20" s="3">
-        <v>-44200</v>
+        <v>-13700</v>
       </c>
       <c r="F20" s="3">
-        <v>-38100</v>
+        <v>-41600</v>
       </c>
       <c r="G20" s="3">
-        <v>-50400</v>
+        <v>-35900</v>
       </c>
       <c r="H20" s="3">
-        <v>-28400</v>
+        <v>-47500</v>
       </c>
       <c r="I20" s="3">
-        <v>-21600</v>
+        <v>-26800</v>
       </c>
       <c r="J20" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>366700</v>
+        <v>349300</v>
       </c>
       <c r="E21" s="3">
-        <v>344400</v>
+        <v>345300</v>
       </c>
       <c r="F21" s="3">
-        <v>223300</v>
+        <v>324400</v>
       </c>
       <c r="G21" s="3">
-        <v>315300</v>
+        <v>210300</v>
       </c>
       <c r="H21" s="3">
-        <v>143300</v>
+        <v>297000</v>
       </c>
       <c r="I21" s="3">
-        <v>306300</v>
+        <v>134900</v>
       </c>
       <c r="J21" s="3">
+        <v>288500</v>
+      </c>
+      <c r="K21" s="3">
         <v>134000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>327400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>150700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>280600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>224000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>334600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>13800</v>
       </c>
       <c r="G22" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>11500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1338,14 +1378,14 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1356,102 +1396,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>120900</v>
+        <v>119300</v>
       </c>
       <c r="E23" s="3">
-        <v>109000</v>
+        <v>113900</v>
       </c>
       <c r="F23" s="3">
-        <v>-19300</v>
+        <v>102700</v>
       </c>
       <c r="G23" s="3">
-        <v>78900</v>
+        <v>-18200</v>
       </c>
       <c r="H23" s="3">
-        <v>140800</v>
+        <v>74300</v>
       </c>
       <c r="I23" s="3">
-        <v>122700</v>
+        <v>132600</v>
       </c>
       <c r="J23" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K23" s="3">
         <v>124300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>147900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>131400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>149100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>118100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32300</v>
+        <v>35000</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>30400</v>
       </c>
       <c r="F24" s="3">
+        <v>35700</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>23500</v>
-      </c>
       <c r="H24" s="3">
-        <v>45700</v>
+        <v>22200</v>
       </c>
       <c r="I24" s="3">
-        <v>31600</v>
+        <v>43100</v>
       </c>
       <c r="J24" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K24" s="3">
         <v>34100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>88600</v>
+        <v>84300</v>
       </c>
       <c r="E26" s="3">
-        <v>71100</v>
+        <v>83400</v>
       </c>
       <c r="F26" s="3">
-        <v>-19800</v>
+        <v>67000</v>
       </c>
       <c r="G26" s="3">
-        <v>55300</v>
+        <v>-18600</v>
       </c>
       <c r="H26" s="3">
-        <v>95100</v>
+        <v>52100</v>
       </c>
       <c r="I26" s="3">
-        <v>91100</v>
+        <v>89600</v>
       </c>
       <c r="J26" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K26" s="3">
         <v>90100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>108400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>124100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>117500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>88300</v>
+        <v>84300</v>
       </c>
       <c r="E27" s="3">
-        <v>71000</v>
+        <v>83200</v>
       </c>
       <c r="F27" s="3">
-        <v>-19900</v>
+        <v>66800</v>
       </c>
       <c r="G27" s="3">
-        <v>55100</v>
+        <v>-18700</v>
       </c>
       <c r="H27" s="3">
-        <v>95400</v>
+        <v>51900</v>
       </c>
       <c r="I27" s="3">
-        <v>85400</v>
+        <v>89900</v>
       </c>
       <c r="J27" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K27" s="3">
         <v>82600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>121100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>139400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,31 +1696,34 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1679,14 +1740,17 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>26000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14500</v>
+        <v>21100</v>
       </c>
       <c r="E32" s="3">
-        <v>44200</v>
+        <v>13700</v>
       </c>
       <c r="F32" s="3">
-        <v>38100</v>
+        <v>41600</v>
       </c>
       <c r="G32" s="3">
-        <v>50400</v>
+        <v>35900</v>
       </c>
       <c r="H32" s="3">
-        <v>28400</v>
+        <v>47500</v>
       </c>
       <c r="I32" s="3">
-        <v>21600</v>
+        <v>26800</v>
       </c>
       <c r="J32" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K32" s="3">
         <v>28800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>88300</v>
+        <v>84300</v>
       </c>
       <c r="E33" s="3">
-        <v>71000</v>
+        <v>83200</v>
       </c>
       <c r="F33" s="3">
-        <v>-19900</v>
+        <v>66800</v>
       </c>
       <c r="G33" s="3">
-        <v>55100</v>
+        <v>-18700</v>
       </c>
       <c r="H33" s="3">
-        <v>95400</v>
+        <v>51900</v>
       </c>
       <c r="I33" s="3">
-        <v>85400</v>
+        <v>89900</v>
       </c>
       <c r="J33" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K33" s="3">
         <v>82600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>121100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>165400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>88300</v>
+        <v>84300</v>
       </c>
       <c r="E35" s="3">
-        <v>71000</v>
+        <v>83200</v>
       </c>
       <c r="F35" s="3">
-        <v>-19900</v>
+        <v>66800</v>
       </c>
       <c r="G35" s="3">
-        <v>55100</v>
+        <v>-18700</v>
       </c>
       <c r="H35" s="3">
-        <v>95400</v>
+        <v>51900</v>
       </c>
       <c r="I35" s="3">
-        <v>85400</v>
+        <v>89900</v>
       </c>
       <c r="J35" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K35" s="3">
         <v>82600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>121100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>165400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>329100</v>
+        <v>184000</v>
       </c>
       <c r="E41" s="3">
-        <v>186500</v>
+        <v>225300</v>
       </c>
       <c r="F41" s="3">
-        <v>145200</v>
+        <v>175600</v>
       </c>
       <c r="G41" s="3">
-        <v>80100</v>
+        <v>136800</v>
       </c>
       <c r="H41" s="3">
-        <v>86000</v>
+        <v>75500</v>
       </c>
       <c r="I41" s="3">
-        <v>102400</v>
+        <v>81000</v>
       </c>
       <c r="J41" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K41" s="3">
         <v>98500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>143500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>174600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>267600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5800</v>
+        <v>36700</v>
       </c>
       <c r="E42" s="3">
-        <v>87100</v>
+        <v>90100</v>
       </c>
       <c r="F42" s="3">
-        <v>226300</v>
+        <v>82000</v>
       </c>
       <c r="G42" s="3">
-        <v>134500</v>
+        <v>213100</v>
       </c>
       <c r="H42" s="3">
-        <v>136900</v>
+        <v>126700</v>
       </c>
       <c r="I42" s="3">
-        <v>150400</v>
+        <v>128900</v>
       </c>
       <c r="J42" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K42" s="3">
         <v>179600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>195700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>188100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>120200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>334800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>578500</v>
+        <v>427400</v>
       </c>
       <c r="E43" s="3">
-        <v>483700</v>
+        <v>544900</v>
       </c>
       <c r="F43" s="3">
-        <v>575900</v>
+        <v>455600</v>
       </c>
       <c r="G43" s="3">
-        <v>608300</v>
+        <v>542400</v>
       </c>
       <c r="H43" s="3">
-        <v>666200</v>
+        <v>572900</v>
       </c>
       <c r="I43" s="3">
-        <v>631700</v>
+        <v>627400</v>
       </c>
       <c r="J43" s="3">
+        <v>594900</v>
+      </c>
+      <c r="K43" s="3">
         <v>539900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>579200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>491400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>445900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>520300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>518300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>670700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67500</v>
+        <v>73900</v>
       </c>
       <c r="E44" s="3">
-        <v>55800</v>
+        <v>63600</v>
       </c>
       <c r="F44" s="3">
-        <v>63900</v>
+        <v>52600</v>
       </c>
       <c r="G44" s="3">
+        <v>60200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>74000</v>
+      </c>
+      <c r="I44" s="3">
         <v>78500</v>
       </c>
-      <c r="H44" s="3">
-        <v>83300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>91000</v>
-      </c>
       <c r="J44" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K44" s="3">
         <v>88200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>106900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>75200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>66600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>45200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67000</v>
+        <v>172700</v>
       </c>
       <c r="E45" s="3">
-        <v>207600</v>
+        <v>63100</v>
       </c>
       <c r="F45" s="3">
-        <v>61800</v>
+        <v>195500</v>
       </c>
       <c r="G45" s="3">
-        <v>140400</v>
-      </c>
-      <c r="H45" s="3" t="s">
+        <v>58200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>132300</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>24900</v>
-      </c>
       <c r="J45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4200</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>160800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1047900</v>
+        <v>894700</v>
       </c>
       <c r="E46" s="3">
-        <v>1020800</v>
+        <v>986900</v>
       </c>
       <c r="F46" s="3">
-        <v>1073200</v>
+        <v>961300</v>
       </c>
       <c r="G46" s="3">
-        <v>1041900</v>
+        <v>1010700</v>
       </c>
       <c r="H46" s="3">
-        <v>972400</v>
+        <v>981200</v>
       </c>
       <c r="I46" s="3">
-        <v>1000400</v>
+        <v>915800</v>
       </c>
       <c r="J46" s="3">
+        <v>942200</v>
+      </c>
+      <c r="K46" s="3">
         <v>906300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>948400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>802600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>638100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>881700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>645200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>788000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30700</v>
+        <v>27200</v>
       </c>
       <c r="E47" s="3">
-        <v>25300</v>
+        <v>28900</v>
       </c>
       <c r="F47" s="3">
-        <v>26400</v>
+        <v>23800</v>
       </c>
       <c r="G47" s="3">
-        <v>30600</v>
+        <v>24900</v>
       </c>
       <c r="H47" s="3">
-        <v>27700</v>
+        <v>28800</v>
       </c>
       <c r="I47" s="3">
-        <v>29100</v>
+        <v>26100</v>
       </c>
       <c r="J47" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K47" s="3">
         <v>27800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>153000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>181900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>177700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>191200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2683200</v>
+        <v>2595800</v>
       </c>
       <c r="E48" s="3">
-        <v>2508500</v>
+        <v>2526900</v>
       </c>
       <c r="F48" s="3">
-        <v>2506900</v>
+        <v>2362400</v>
       </c>
       <c r="G48" s="3">
-        <v>2441600</v>
+        <v>2360900</v>
       </c>
       <c r="H48" s="3">
-        <v>2107300</v>
+        <v>2299500</v>
       </c>
       <c r="I48" s="3">
-        <v>2021100</v>
+        <v>1984600</v>
       </c>
       <c r="J48" s="3">
+        <v>1903400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1994700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1943200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1651700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1490700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1737500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1677400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3460700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>302900</v>
+        <v>276500</v>
       </c>
       <c r="E49" s="3">
-        <v>303500</v>
+        <v>285300</v>
       </c>
       <c r="F49" s="3">
-        <v>311700</v>
+        <v>285800</v>
       </c>
       <c r="G49" s="3">
-        <v>307700</v>
+        <v>293600</v>
       </c>
       <c r="H49" s="3">
-        <v>297400</v>
+        <v>289800</v>
       </c>
       <c r="I49" s="3">
-        <v>302500</v>
+        <v>280100</v>
       </c>
       <c r="J49" s="3">
+        <v>284800</v>
+      </c>
+      <c r="K49" s="3">
         <v>295500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>314100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>279700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>264000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>301900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>313700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>409000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134200</v>
+        <v>133000</v>
       </c>
       <c r="E52" s="3">
-        <v>147700</v>
+        <v>126400</v>
       </c>
       <c r="F52" s="3">
-        <v>119700</v>
+        <v>139100</v>
       </c>
       <c r="G52" s="3">
-        <v>79300</v>
+        <v>112700</v>
       </c>
       <c r="H52" s="3">
-        <v>77900</v>
+        <v>74700</v>
       </c>
       <c r="I52" s="3">
-        <v>61900</v>
+        <v>73300</v>
       </c>
       <c r="J52" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K52" s="3">
         <v>87200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>77600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>87700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>56100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>116100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4198800</v>
+        <v>3927200</v>
       </c>
       <c r="E54" s="3">
-        <v>4005700</v>
+        <v>3954300</v>
       </c>
       <c r="F54" s="3">
-        <v>4038000</v>
+        <v>3772400</v>
       </c>
       <c r="G54" s="3">
-        <v>3901100</v>
+        <v>3802900</v>
       </c>
       <c r="H54" s="3">
-        <v>3482700</v>
+        <v>3674000</v>
       </c>
       <c r="I54" s="3">
-        <v>3415000</v>
+        <v>3279900</v>
       </c>
       <c r="J54" s="3">
+        <v>3216100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3311400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3306400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2838900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2613900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3190700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2870000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2973200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>449700</v>
+        <v>648200</v>
       </c>
       <c r="E57" s="3">
-        <v>582500</v>
+        <v>423600</v>
       </c>
       <c r="F57" s="3">
-        <v>334400</v>
+        <v>548600</v>
       </c>
       <c r="G57" s="3">
-        <v>501000</v>
+        <v>315000</v>
       </c>
       <c r="H57" s="3">
-        <v>480300</v>
+        <v>471800</v>
       </c>
       <c r="I57" s="3">
-        <v>201000</v>
+        <v>452400</v>
       </c>
       <c r="J57" s="3">
+        <v>189300</v>
+      </c>
+      <c r="K57" s="3">
         <v>448900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>198300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>671900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>171300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>489000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>446100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>399100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>125300</v>
+        <v>203500</v>
       </c>
       <c r="E58" s="3">
-        <v>145700</v>
+        <v>118000</v>
       </c>
       <c r="F58" s="3">
-        <v>195300</v>
+        <v>137200</v>
       </c>
       <c r="G58" s="3">
-        <v>341700</v>
+        <v>183900</v>
       </c>
       <c r="H58" s="3">
-        <v>355300</v>
+        <v>321800</v>
       </c>
       <c r="I58" s="3">
-        <v>180400</v>
+        <v>334600</v>
       </c>
       <c r="J58" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K58" s="3">
         <v>149300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>158000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>187900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>106600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>228400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>567500</v>
+        <v>195900</v>
       </c>
       <c r="E59" s="3">
-        <v>320300</v>
+        <v>534400</v>
       </c>
       <c r="F59" s="3">
-        <v>598000</v>
+        <v>301700</v>
       </c>
       <c r="G59" s="3">
-        <v>245600</v>
+        <v>563200</v>
       </c>
       <c r="H59" s="3">
-        <v>245600</v>
+        <v>231300</v>
       </c>
       <c r="I59" s="3">
-        <v>525600</v>
+        <v>231300</v>
       </c>
       <c r="J59" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K59" s="3">
         <v>484100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>501300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>480000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>359200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>263400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>313000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1142500</v>
+        <v>1047600</v>
       </c>
       <c r="E60" s="3">
-        <v>1048500</v>
+        <v>1076000</v>
       </c>
       <c r="F60" s="3">
-        <v>1127700</v>
+        <v>987500</v>
       </c>
       <c r="G60" s="3">
-        <v>1088300</v>
+        <v>1062100</v>
       </c>
       <c r="H60" s="3">
-        <v>1081200</v>
+        <v>1024900</v>
       </c>
       <c r="I60" s="3">
-        <v>906900</v>
+        <v>1018200</v>
       </c>
       <c r="J60" s="3">
+        <v>854100</v>
+      </c>
+      <c r="K60" s="3">
         <v>850000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>857600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>774600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>706200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>896800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>816200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>813200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>916600</v>
+        <v>790400</v>
       </c>
       <c r="E61" s="3">
-        <v>897300</v>
+        <v>863200</v>
       </c>
       <c r="F61" s="3">
-        <v>908600</v>
+        <v>845100</v>
       </c>
       <c r="G61" s="3">
-        <v>778600</v>
+        <v>855700</v>
       </c>
       <c r="H61" s="3">
-        <v>318400</v>
+        <v>733200</v>
       </c>
       <c r="I61" s="3">
-        <v>486800</v>
+        <v>299800</v>
       </c>
       <c r="J61" s="3">
+        <v>458500</v>
+      </c>
+      <c r="K61" s="3">
         <v>470900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>430500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>280600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>239600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>313000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>211400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78100</v>
+        <v>69100</v>
       </c>
       <c r="E62" s="3">
-        <v>137000</v>
+        <v>73500</v>
       </c>
       <c r="F62" s="3">
-        <v>62800</v>
+        <v>129000</v>
       </c>
       <c r="G62" s="3">
-        <v>91400</v>
+        <v>59100</v>
       </c>
       <c r="H62" s="3">
-        <v>125000</v>
+        <v>86000</v>
       </c>
       <c r="I62" s="3">
-        <v>95600</v>
+        <v>117700</v>
       </c>
       <c r="J62" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K62" s="3">
         <v>204600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>133900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>147000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>174000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>152100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2135500</v>
+        <v>1905500</v>
       </c>
       <c r="E66" s="3">
-        <v>2081000</v>
+        <v>2011200</v>
       </c>
       <c r="F66" s="3">
-        <v>2097200</v>
+        <v>1959800</v>
       </c>
       <c r="G66" s="3">
-        <v>1956200</v>
+        <v>1975100</v>
       </c>
       <c r="H66" s="3">
-        <v>1537300</v>
+        <v>1842300</v>
       </c>
       <c r="I66" s="3">
-        <v>1513700</v>
+        <v>1447800</v>
       </c>
       <c r="J66" s="3">
+        <v>1425600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1538200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1421100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1200700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1119000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1410400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1260900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1212300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1731100</v>
+        <v>1708800</v>
       </c>
       <c r="E72" s="3">
-        <v>1592500</v>
+        <v>1630300</v>
       </c>
       <c r="F72" s="3">
-        <v>1608600</v>
+        <v>1499800</v>
       </c>
       <c r="G72" s="3">
-        <v>1612800</v>
+        <v>1514900</v>
       </c>
       <c r="H72" s="3">
-        <v>1613100</v>
+        <v>1518900</v>
       </c>
       <c r="I72" s="3">
-        <v>1569100</v>
+        <v>1519200</v>
       </c>
       <c r="J72" s="3">
+        <v>1477700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1441000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1538500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1329500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1197200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1423400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1252100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1392000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2063300</v>
+        <v>2021700</v>
       </c>
       <c r="E76" s="3">
-        <v>1924700</v>
+        <v>1943100</v>
       </c>
       <c r="F76" s="3">
-        <v>1940800</v>
+        <v>1812700</v>
       </c>
       <c r="G76" s="3">
-        <v>1945000</v>
+        <v>1827800</v>
       </c>
       <c r="H76" s="3">
-        <v>1945300</v>
+        <v>1831700</v>
       </c>
       <c r="I76" s="3">
-        <v>1901200</v>
+        <v>1832000</v>
       </c>
       <c r="J76" s="3">
+        <v>1790500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1773200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1885300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1638200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1494900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1780300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1609000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1760900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>88300</v>
+        <v>84300</v>
       </c>
       <c r="E81" s="3">
-        <v>71000</v>
+        <v>83200</v>
       </c>
       <c r="F81" s="3">
-        <v>-19900</v>
+        <v>66800</v>
       </c>
       <c r="G81" s="3">
-        <v>55100</v>
+        <v>-18700</v>
       </c>
       <c r="H81" s="3">
-        <v>95400</v>
+        <v>51900</v>
       </c>
       <c r="I81" s="3">
-        <v>85400</v>
+        <v>89900</v>
       </c>
       <c r="J81" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K81" s="3">
         <v>82600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>121100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>165400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,31 +4028,32 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231200</v>
+        <v>216100</v>
       </c>
       <c r="E83" s="3">
-        <v>220800</v>
+        <v>217700</v>
       </c>
       <c r="F83" s="3">
-        <v>230400</v>
+        <v>207900</v>
       </c>
       <c r="G83" s="3">
-        <v>224400</v>
-      </c>
-      <c r="H83" s="3" t="s">
+        <v>217000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>211400</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
-        <v>183600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+      <c r="J83" s="3">
+        <v>172900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3865,8 +4064,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>494400</v>
+        <v>222900</v>
       </c>
       <c r="E89" s="3">
-        <v>218300</v>
+        <v>459800</v>
       </c>
       <c r="F89" s="3">
-        <v>443800</v>
+        <v>211400</v>
       </c>
       <c r="G89" s="3">
-        <v>119500</v>
+        <v>417900</v>
       </c>
       <c r="H89" s="3">
-        <v>233100</v>
+        <v>112600</v>
       </c>
       <c r="I89" s="3">
-        <v>142300</v>
+        <v>219500</v>
       </c>
       <c r="J89" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K89" s="3">
         <v>300400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>101000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>220700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>104000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>414700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-344600</v>
+        <v>-248000</v>
       </c>
       <c r="E91" s="3">
-        <v>-192900</v>
+        <v>-324600</v>
       </c>
       <c r="F91" s="3">
-        <v>-230800</v>
+        <v>-181700</v>
       </c>
       <c r="G91" s="3">
-        <v>-276500</v>
+        <v>-217400</v>
       </c>
       <c r="H91" s="3">
-        <v>-287700</v>
+        <v>-260400</v>
       </c>
       <c r="I91" s="3">
-        <v>-211200</v>
+        <v>-271000</v>
       </c>
       <c r="J91" s="3">
+        <v>-198900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-248800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-264600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-292400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-202700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-263400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-140400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-588900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-337500</v>
+        <v>-259800</v>
       </c>
       <c r="E94" s="3">
-        <v>-192400</v>
+        <v>-337300</v>
       </c>
       <c r="F94" s="3">
-        <v>-130700</v>
+        <v>-161800</v>
       </c>
       <c r="G94" s="3">
-        <v>-261400</v>
+        <v>-123100</v>
       </c>
       <c r="H94" s="3">
-        <v>-287700</v>
+        <v>-246200</v>
       </c>
       <c r="I94" s="3">
-        <v>-207100</v>
+        <v>-270900</v>
       </c>
       <c r="J94" s="3">
+        <v>-195100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-180200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-258200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-286400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-350200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-212900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-205000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4432,8 +4666,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,55 +4816,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84700</v>
+        <v>-63100</v>
       </c>
       <c r="E100" s="3">
-        <v>-79900</v>
+        <v>-79800</v>
       </c>
       <c r="F100" s="3">
-        <v>-68100</v>
+        <v>-75200</v>
       </c>
       <c r="G100" s="3">
-        <v>113900</v>
+        <v>-64100</v>
       </c>
       <c r="H100" s="3">
-        <v>6400</v>
+        <v>107200</v>
       </c>
       <c r="I100" s="3">
-        <v>40700</v>
+        <v>6100</v>
       </c>
       <c r="J100" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>145300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-41800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>65100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-36900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4643,23 +4892,23 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>100</v>
@@ -4667,51 +4916,57 @@
       <c r="Q101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>72200</v>
+        <v>-100000</v>
       </c>
       <c r="E102" s="3">
-        <v>-54000</v>
+        <v>68000</v>
       </c>
       <c r="F102" s="3">
-        <v>245000</v>
+        <v>-50900</v>
       </c>
       <c r="G102" s="3">
-        <v>-28000</v>
+        <v>230700</v>
       </c>
       <c r="H102" s="3">
-        <v>-47000</v>
+        <v>-26400</v>
       </c>
       <c r="I102" s="3">
-        <v>-25300</v>
+        <v>-44300</v>
       </c>
       <c r="J102" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K102" s="3">
         <v>89100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>126300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-201600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1319000</v>
+        <v>1413600</v>
       </c>
       <c r="E8" s="3">
-        <v>1352100</v>
+        <v>1449000</v>
       </c>
       <c r="F8" s="3">
-        <v>1325500</v>
+        <v>1420500</v>
       </c>
       <c r="G8" s="3">
-        <v>1335900</v>
+        <v>1431600</v>
       </c>
       <c r="H8" s="3">
-        <v>1330600</v>
+        <v>1426000</v>
       </c>
       <c r="I8" s="3">
-        <v>1317200</v>
+        <v>1411700</v>
       </c>
       <c r="J8" s="3">
-        <v>1270700</v>
+        <v>1361700</v>
       </c>
       <c r="K8" s="3">
         <v>1305300</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>264800</v>
+        <v>283800</v>
       </c>
       <c r="E9" s="3">
-        <v>274900</v>
+        <v>294600</v>
       </c>
       <c r="F9" s="3">
-        <v>261600</v>
+        <v>280300</v>
       </c>
       <c r="G9" s="3">
-        <v>283500</v>
+        <v>303900</v>
       </c>
       <c r="H9" s="3">
-        <v>293100</v>
+        <v>314100</v>
       </c>
       <c r="I9" s="3">
-        <v>283300</v>
+        <v>303600</v>
       </c>
       <c r="J9" s="3">
-        <v>418000</v>
+        <v>448000</v>
       </c>
       <c r="K9" s="3">
         <v>399200</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1054200</v>
+        <v>1129800</v>
       </c>
       <c r="E10" s="3">
-        <v>1077200</v>
+        <v>1154500</v>
       </c>
       <c r="F10" s="3">
-        <v>1063900</v>
+        <v>1140200</v>
       </c>
       <c r="G10" s="3">
-        <v>1052300</v>
+        <v>1127800</v>
       </c>
       <c r="H10" s="3">
-        <v>1037500</v>
+        <v>1111900</v>
       </c>
       <c r="I10" s="3">
-        <v>1033900</v>
+        <v>1108000</v>
       </c>
       <c r="J10" s="3">
-        <v>852600</v>
+        <v>913700</v>
       </c>
       <c r="K10" s="3">
         <v>906100</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G14" s="3">
-        <v>21800</v>
+        <v>23400</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="I14" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="J14" s="3">
-        <v>5300</v>
+        <v>5700</v>
       </c>
       <c r="K14" s="3">
         <v>3100</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>211400</v>
+        <v>226600</v>
       </c>
       <c r="E15" s="3">
-        <v>206500</v>
+        <v>221300</v>
       </c>
       <c r="F15" s="3">
-        <v>206700</v>
+        <v>221500</v>
       </c>
       <c r="G15" s="3">
-        <v>195200</v>
+        <v>209200</v>
       </c>
       <c r="H15" s="3">
-        <v>207500</v>
+        <v>222400</v>
       </c>
       <c r="I15" s="3">
-        <v>175900</v>
+        <v>188500</v>
       </c>
       <c r="J15" s="3">
-        <v>167600</v>
+        <v>179600</v>
       </c>
       <c r="K15" s="3">
         <v>187000</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1164800</v>
+        <v>1248300</v>
       </c>
       <c r="E17" s="3">
-        <v>1210800</v>
+        <v>1297600</v>
       </c>
       <c r="F17" s="3">
-        <v>1167400</v>
+        <v>1251100</v>
       </c>
       <c r="G17" s="3">
-        <v>1306700</v>
+        <v>1400400</v>
       </c>
       <c r="H17" s="3">
-        <v>1197600</v>
+        <v>1283400</v>
       </c>
       <c r="I17" s="3">
-        <v>1157800</v>
+        <v>1240800</v>
       </c>
       <c r="J17" s="3">
-        <v>1134700</v>
+        <v>1216100</v>
       </c>
       <c r="K17" s="3">
         <v>1152200</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>154300</v>
+        <v>165300</v>
       </c>
       <c r="E18" s="3">
-        <v>141300</v>
+        <v>151400</v>
       </c>
       <c r="F18" s="3">
-        <v>158100</v>
+        <v>169400</v>
       </c>
       <c r="G18" s="3">
-        <v>29200</v>
+        <v>31300</v>
       </c>
       <c r="H18" s="3">
-        <v>133100</v>
+        <v>142600</v>
       </c>
       <c r="I18" s="3">
-        <v>159400</v>
+        <v>170800</v>
       </c>
       <c r="J18" s="3">
-        <v>135900</v>
+        <v>145700</v>
       </c>
       <c r="K18" s="3">
         <v>153100</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21100</v>
+        <v>-22600</v>
       </c>
       <c r="E20" s="3">
-        <v>-13700</v>
+        <v>-14700</v>
       </c>
       <c r="F20" s="3">
-        <v>-41600</v>
+        <v>-44600</v>
       </c>
       <c r="G20" s="3">
-        <v>-35900</v>
+        <v>-38400</v>
       </c>
       <c r="H20" s="3">
-        <v>-47500</v>
+        <v>-50900</v>
       </c>
       <c r="I20" s="3">
-        <v>-26800</v>
+        <v>-28700</v>
       </c>
       <c r="J20" s="3">
-        <v>-20300</v>
+        <v>-21800</v>
       </c>
       <c r="K20" s="3">
         <v>-28800</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>349300</v>
+        <v>374300</v>
       </c>
       <c r="E21" s="3">
-        <v>345300</v>
+        <v>370100</v>
       </c>
       <c r="F21" s="3">
-        <v>324400</v>
+        <v>347600</v>
       </c>
       <c r="G21" s="3">
-        <v>210300</v>
+        <v>225400</v>
       </c>
       <c r="H21" s="3">
-        <v>297000</v>
+        <v>318300</v>
       </c>
       <c r="I21" s="3">
-        <v>134900</v>
+        <v>144600</v>
       </c>
       <c r="J21" s="3">
-        <v>288500</v>
+        <v>309200</v>
       </c>
       <c r="K21" s="3">
         <v>134000</v>
@@ -1355,19 +1355,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="F22" s="3">
-        <v>13800</v>
+        <v>14800</v>
       </c>
       <c r="G22" s="3">
-        <v>11500</v>
+        <v>12300</v>
       </c>
       <c r="H22" s="3">
-        <v>11300</v>
+        <v>12100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>119300</v>
+        <v>127900</v>
       </c>
       <c r="E23" s="3">
-        <v>113900</v>
+        <v>122000</v>
       </c>
       <c r="F23" s="3">
-        <v>102700</v>
+        <v>110000</v>
       </c>
       <c r="G23" s="3">
-        <v>-18200</v>
+        <v>-19500</v>
       </c>
       <c r="H23" s="3">
-        <v>74300</v>
+        <v>79600</v>
       </c>
       <c r="I23" s="3">
-        <v>132600</v>
+        <v>142100</v>
       </c>
       <c r="J23" s="3">
-        <v>115600</v>
+        <v>123900</v>
       </c>
       <c r="K23" s="3">
         <v>124300</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35000</v>
+        <v>37500</v>
       </c>
       <c r="E24" s="3">
-        <v>30400</v>
+        <v>32600</v>
       </c>
       <c r="F24" s="3">
-        <v>35700</v>
+        <v>38200</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
       </c>
       <c r="H24" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="I24" s="3">
-        <v>43100</v>
+        <v>46100</v>
       </c>
       <c r="J24" s="3">
-        <v>29800</v>
+        <v>31900</v>
       </c>
       <c r="K24" s="3">
         <v>34100</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84300</v>
+        <v>90400</v>
       </c>
       <c r="E26" s="3">
-        <v>83400</v>
+        <v>89400</v>
       </c>
       <c r="F26" s="3">
-        <v>67000</v>
+        <v>71800</v>
       </c>
       <c r="G26" s="3">
-        <v>-18600</v>
+        <v>-20000</v>
       </c>
       <c r="H26" s="3">
-        <v>52100</v>
+        <v>55800</v>
       </c>
       <c r="I26" s="3">
-        <v>89600</v>
+        <v>96000</v>
       </c>
       <c r="J26" s="3">
-        <v>85800</v>
+        <v>92000</v>
       </c>
       <c r="K26" s="3">
         <v>90100</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="E27" s="3">
-        <v>83200</v>
+        <v>89200</v>
       </c>
       <c r="F27" s="3">
-        <v>66800</v>
+        <v>71600</v>
       </c>
       <c r="G27" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="H27" s="3">
-        <v>51900</v>
+        <v>55600</v>
       </c>
       <c r="I27" s="3">
-        <v>89900</v>
+        <v>96300</v>
       </c>
       <c r="J27" s="3">
-        <v>80400</v>
+        <v>86200</v>
       </c>
       <c r="K27" s="3">
         <v>82600</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21100</v>
+        <v>22600</v>
       </c>
       <c r="E32" s="3">
-        <v>13700</v>
+        <v>14700</v>
       </c>
       <c r="F32" s="3">
-        <v>41600</v>
+        <v>44600</v>
       </c>
       <c r="G32" s="3">
-        <v>35900</v>
+        <v>38400</v>
       </c>
       <c r="H32" s="3">
-        <v>47500</v>
+        <v>50900</v>
       </c>
       <c r="I32" s="3">
-        <v>26800</v>
+        <v>28700</v>
       </c>
       <c r="J32" s="3">
-        <v>20300</v>
+        <v>21800</v>
       </c>
       <c r="K32" s="3">
         <v>28800</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="E33" s="3">
-        <v>83200</v>
+        <v>89200</v>
       </c>
       <c r="F33" s="3">
-        <v>66800</v>
+        <v>71600</v>
       </c>
       <c r="G33" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="H33" s="3">
-        <v>51900</v>
+        <v>55600</v>
       </c>
       <c r="I33" s="3">
-        <v>89900</v>
+        <v>96300</v>
       </c>
       <c r="J33" s="3">
-        <v>80400</v>
+        <v>86200</v>
       </c>
       <c r="K33" s="3">
         <v>82600</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="E35" s="3">
-        <v>83200</v>
+        <v>89200</v>
       </c>
       <c r="F35" s="3">
-        <v>66800</v>
+        <v>71600</v>
       </c>
       <c r="G35" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="H35" s="3">
-        <v>51900</v>
+        <v>55600</v>
       </c>
       <c r="I35" s="3">
-        <v>89900</v>
+        <v>96300</v>
       </c>
       <c r="J35" s="3">
-        <v>80400</v>
+        <v>86200</v>
       </c>
       <c r="K35" s="3">
         <v>82600</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>184000</v>
+        <v>197200</v>
       </c>
       <c r="E41" s="3">
-        <v>225300</v>
+        <v>241500</v>
       </c>
       <c r="F41" s="3">
-        <v>175600</v>
+        <v>188200</v>
       </c>
       <c r="G41" s="3">
-        <v>136800</v>
+        <v>146600</v>
       </c>
       <c r="H41" s="3">
-        <v>75500</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3">
-        <v>81000</v>
+        <v>86800</v>
       </c>
       <c r="J41" s="3">
-        <v>96500</v>
+        <v>103400</v>
       </c>
       <c r="K41" s="3">
         <v>98500</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36700</v>
+        <v>39400</v>
       </c>
       <c r="E42" s="3">
-        <v>90100</v>
+        <v>96500</v>
       </c>
       <c r="F42" s="3">
-        <v>82000</v>
+        <v>87900</v>
       </c>
       <c r="G42" s="3">
-        <v>213100</v>
+        <v>228400</v>
       </c>
       <c r="H42" s="3">
-        <v>126700</v>
+        <v>135800</v>
       </c>
       <c r="I42" s="3">
-        <v>128900</v>
+        <v>138200</v>
       </c>
       <c r="J42" s="3">
-        <v>141700</v>
+        <v>151800</v>
       </c>
       <c r="K42" s="3">
         <v>179600</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>427400</v>
+        <v>458000</v>
       </c>
       <c r="E43" s="3">
-        <v>544900</v>
+        <v>583900</v>
       </c>
       <c r="F43" s="3">
-        <v>455600</v>
+        <v>488200</v>
       </c>
       <c r="G43" s="3">
-        <v>542400</v>
+        <v>581200</v>
       </c>
       <c r="H43" s="3">
-        <v>572900</v>
+        <v>613900</v>
       </c>
       <c r="I43" s="3">
-        <v>627400</v>
+        <v>672300</v>
       </c>
       <c r="J43" s="3">
-        <v>594900</v>
+        <v>637500</v>
       </c>
       <c r="K43" s="3">
         <v>539900</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>73900</v>
+        <v>79200</v>
       </c>
       <c r="E44" s="3">
-        <v>63600</v>
+        <v>68100</v>
       </c>
       <c r="F44" s="3">
-        <v>52600</v>
+        <v>56400</v>
       </c>
       <c r="G44" s="3">
-        <v>60200</v>
+        <v>64500</v>
       </c>
       <c r="H44" s="3">
-        <v>74000</v>
+        <v>79300</v>
       </c>
       <c r="I44" s="3">
-        <v>78500</v>
+        <v>84100</v>
       </c>
       <c r="J44" s="3">
-        <v>85700</v>
+        <v>91900</v>
       </c>
       <c r="K44" s="3">
         <v>88200</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>172700</v>
+        <v>185000</v>
       </c>
       <c r="E45" s="3">
-        <v>63100</v>
+        <v>67600</v>
       </c>
       <c r="F45" s="3">
-        <v>195500</v>
+        <v>209500</v>
       </c>
       <c r="G45" s="3">
-        <v>58200</v>
+        <v>62400</v>
       </c>
       <c r="H45" s="3">
-        <v>132300</v>
+        <v>141700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>23400</v>
+        <v>25100</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>894700</v>
+        <v>958800</v>
       </c>
       <c r="E46" s="3">
-        <v>986900</v>
+        <v>1057600</v>
       </c>
       <c r="F46" s="3">
-        <v>961300</v>
+        <v>1030200</v>
       </c>
       <c r="G46" s="3">
-        <v>1010700</v>
+        <v>1083200</v>
       </c>
       <c r="H46" s="3">
-        <v>981200</v>
+        <v>1051600</v>
       </c>
       <c r="I46" s="3">
-        <v>915800</v>
+        <v>981400</v>
       </c>
       <c r="J46" s="3">
-        <v>942200</v>
+        <v>1009700</v>
       </c>
       <c r="K46" s="3">
         <v>906300</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27200</v>
+        <v>29100</v>
       </c>
       <c r="E47" s="3">
-        <v>28900</v>
+        <v>30900</v>
       </c>
       <c r="F47" s="3">
-        <v>23800</v>
+        <v>25500</v>
       </c>
       <c r="G47" s="3">
-        <v>24900</v>
+        <v>26700</v>
       </c>
       <c r="H47" s="3">
-        <v>28800</v>
+        <v>30900</v>
       </c>
       <c r="I47" s="3">
-        <v>26100</v>
+        <v>28000</v>
       </c>
       <c r="J47" s="3">
-        <v>27400</v>
+        <v>29300</v>
       </c>
       <c r="K47" s="3">
         <v>27800</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2595800</v>
+        <v>2781900</v>
       </c>
       <c r="E48" s="3">
-        <v>2526900</v>
+        <v>2708000</v>
       </c>
       <c r="F48" s="3">
-        <v>2362400</v>
+        <v>2531700</v>
       </c>
       <c r="G48" s="3">
-        <v>2360900</v>
+        <v>2530100</v>
       </c>
       <c r="H48" s="3">
-        <v>2299500</v>
+        <v>2464300</v>
       </c>
       <c r="I48" s="3">
-        <v>1984600</v>
+        <v>2126800</v>
       </c>
       <c r="J48" s="3">
-        <v>1903400</v>
+        <v>2039800</v>
       </c>
       <c r="K48" s="3">
         <v>1994700</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>276500</v>
+        <v>296300</v>
       </c>
       <c r="E49" s="3">
-        <v>285300</v>
+        <v>305700</v>
       </c>
       <c r="F49" s="3">
-        <v>285800</v>
+        <v>306300</v>
       </c>
       <c r="G49" s="3">
-        <v>293600</v>
+        <v>314600</v>
       </c>
       <c r="H49" s="3">
-        <v>289800</v>
+        <v>310600</v>
       </c>
       <c r="I49" s="3">
-        <v>280100</v>
+        <v>300100</v>
       </c>
       <c r="J49" s="3">
-        <v>284800</v>
+        <v>305300</v>
       </c>
       <c r="K49" s="3">
         <v>295500</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133000</v>
+        <v>142500</v>
       </c>
       <c r="E52" s="3">
-        <v>126400</v>
+        <v>135400</v>
       </c>
       <c r="F52" s="3">
-        <v>139100</v>
+        <v>149000</v>
       </c>
       <c r="G52" s="3">
-        <v>112700</v>
+        <v>120800</v>
       </c>
       <c r="H52" s="3">
-        <v>74700</v>
+        <v>80100</v>
       </c>
       <c r="I52" s="3">
-        <v>73300</v>
+        <v>78600</v>
       </c>
       <c r="J52" s="3">
-        <v>58300</v>
+        <v>62500</v>
       </c>
       <c r="K52" s="3">
         <v>87200</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3927200</v>
+        <v>4208700</v>
       </c>
       <c r="E54" s="3">
-        <v>3954300</v>
+        <v>4237700</v>
       </c>
       <c r="F54" s="3">
-        <v>3772400</v>
+        <v>4042800</v>
       </c>
       <c r="G54" s="3">
-        <v>3802900</v>
+        <v>4075400</v>
       </c>
       <c r="H54" s="3">
-        <v>3674000</v>
+        <v>3937300</v>
       </c>
       <c r="I54" s="3">
-        <v>3279900</v>
+        <v>3515000</v>
       </c>
       <c r="J54" s="3">
-        <v>3216100</v>
+        <v>3446600</v>
       </c>
       <c r="K54" s="3">
         <v>3311400</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>648200</v>
+        <v>694700</v>
       </c>
       <c r="E57" s="3">
-        <v>423600</v>
+        <v>453900</v>
       </c>
       <c r="F57" s="3">
-        <v>548600</v>
+        <v>587900</v>
       </c>
       <c r="G57" s="3">
-        <v>315000</v>
+        <v>337500</v>
       </c>
       <c r="H57" s="3">
-        <v>471800</v>
+        <v>505600</v>
       </c>
       <c r="I57" s="3">
-        <v>452400</v>
+        <v>484800</v>
       </c>
       <c r="J57" s="3">
-        <v>189300</v>
+        <v>202800</v>
       </c>
       <c r="K57" s="3">
         <v>448900</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>203500</v>
+        <v>218100</v>
       </c>
       <c r="E58" s="3">
-        <v>118000</v>
+        <v>126500</v>
       </c>
       <c r="F58" s="3">
-        <v>137200</v>
+        <v>147100</v>
       </c>
       <c r="G58" s="3">
-        <v>183900</v>
+        <v>197100</v>
       </c>
       <c r="H58" s="3">
-        <v>321800</v>
+        <v>344900</v>
       </c>
       <c r="I58" s="3">
-        <v>334600</v>
+        <v>358600</v>
       </c>
       <c r="J58" s="3">
-        <v>169900</v>
+        <v>182000</v>
       </c>
       <c r="K58" s="3">
         <v>149300</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>195900</v>
+        <v>209900</v>
       </c>
       <c r="E59" s="3">
-        <v>534400</v>
+        <v>572700</v>
       </c>
       <c r="F59" s="3">
-        <v>301700</v>
+        <v>323300</v>
       </c>
       <c r="G59" s="3">
-        <v>563200</v>
+        <v>603600</v>
       </c>
       <c r="H59" s="3">
-        <v>231300</v>
+        <v>247800</v>
       </c>
       <c r="I59" s="3">
-        <v>231300</v>
+        <v>247800</v>
       </c>
       <c r="J59" s="3">
-        <v>495000</v>
+        <v>530500</v>
       </c>
       <c r="K59" s="3">
         <v>484100</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1047600</v>
+        <v>1122700</v>
       </c>
       <c r="E60" s="3">
-        <v>1076000</v>
+        <v>1153100</v>
       </c>
       <c r="F60" s="3">
-        <v>987500</v>
+        <v>1058300</v>
       </c>
       <c r="G60" s="3">
-        <v>1062100</v>
+        <v>1138200</v>
       </c>
       <c r="H60" s="3">
-        <v>1024900</v>
+        <v>1098400</v>
       </c>
       <c r="I60" s="3">
-        <v>1018200</v>
+        <v>1091200</v>
       </c>
       <c r="J60" s="3">
-        <v>854100</v>
+        <v>915300</v>
       </c>
       <c r="K60" s="3">
         <v>850000</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>790400</v>
+        <v>847100</v>
       </c>
       <c r="E61" s="3">
-        <v>863200</v>
+        <v>925100</v>
       </c>
       <c r="F61" s="3">
-        <v>845100</v>
+        <v>905600</v>
       </c>
       <c r="G61" s="3">
-        <v>855700</v>
+        <v>917000</v>
       </c>
       <c r="H61" s="3">
-        <v>733200</v>
+        <v>785800</v>
       </c>
       <c r="I61" s="3">
-        <v>299800</v>
+        <v>321300</v>
       </c>
       <c r="J61" s="3">
-        <v>458500</v>
+        <v>491400</v>
       </c>
       <c r="K61" s="3">
         <v>470900</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69100</v>
+        <v>74100</v>
       </c>
       <c r="E62" s="3">
-        <v>73500</v>
+        <v>78800</v>
       </c>
       <c r="F62" s="3">
-        <v>129000</v>
+        <v>138200</v>
       </c>
       <c r="G62" s="3">
-        <v>59100</v>
+        <v>63300</v>
       </c>
       <c r="H62" s="3">
-        <v>86000</v>
+        <v>92200</v>
       </c>
       <c r="I62" s="3">
-        <v>117700</v>
+        <v>126100</v>
       </c>
       <c r="J62" s="3">
-        <v>90000</v>
+        <v>96500</v>
       </c>
       <c r="K62" s="3">
         <v>204600</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1905500</v>
+        <v>2042100</v>
       </c>
       <c r="E66" s="3">
-        <v>2011200</v>
+        <v>2155400</v>
       </c>
       <c r="F66" s="3">
-        <v>1959800</v>
+        <v>2100200</v>
       </c>
       <c r="G66" s="3">
-        <v>1975100</v>
+        <v>2116600</v>
       </c>
       <c r="H66" s="3">
-        <v>1842300</v>
+        <v>1974300</v>
       </c>
       <c r="I66" s="3">
-        <v>1447800</v>
+        <v>1551600</v>
       </c>
       <c r="J66" s="3">
-        <v>1425600</v>
+        <v>1527800</v>
       </c>
       <c r="K66" s="3">
         <v>1538200</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1708800</v>
+        <v>1831300</v>
       </c>
       <c r="E72" s="3">
-        <v>1630300</v>
+        <v>1747100</v>
       </c>
       <c r="F72" s="3">
-        <v>1499800</v>
+        <v>1607300</v>
       </c>
       <c r="G72" s="3">
-        <v>1514900</v>
+        <v>1623500</v>
       </c>
       <c r="H72" s="3">
-        <v>1518900</v>
+        <v>1627800</v>
       </c>
       <c r="I72" s="3">
-        <v>1519200</v>
+        <v>1628100</v>
       </c>
       <c r="J72" s="3">
-        <v>1477700</v>
+        <v>1583600</v>
       </c>
       <c r="K72" s="3">
         <v>1441000</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2021700</v>
+        <v>2166600</v>
       </c>
       <c r="E76" s="3">
-        <v>1943100</v>
+        <v>2082400</v>
       </c>
       <c r="F76" s="3">
-        <v>1812700</v>
+        <v>1942600</v>
       </c>
       <c r="G76" s="3">
-        <v>1827800</v>
+        <v>1958800</v>
       </c>
       <c r="H76" s="3">
-        <v>1831700</v>
+        <v>1963000</v>
       </c>
       <c r="I76" s="3">
-        <v>1832000</v>
+        <v>1963400</v>
       </c>
       <c r="J76" s="3">
-        <v>1790500</v>
+        <v>1918900</v>
       </c>
       <c r="K76" s="3">
         <v>1773200</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>84300</v>
+        <v>90300</v>
       </c>
       <c r="E81" s="3">
-        <v>83200</v>
+        <v>89200</v>
       </c>
       <c r="F81" s="3">
-        <v>66800</v>
+        <v>71600</v>
       </c>
       <c r="G81" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="H81" s="3">
-        <v>51900</v>
+        <v>55600</v>
       </c>
       <c r="I81" s="3">
-        <v>89900</v>
+        <v>96300</v>
       </c>
       <c r="J81" s="3">
-        <v>80400</v>
+        <v>86200</v>
       </c>
       <c r="K81" s="3">
         <v>82600</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216100</v>
+        <v>231600</v>
       </c>
       <c r="E83" s="3">
-        <v>217700</v>
+        <v>233300</v>
       </c>
       <c r="F83" s="3">
-        <v>207900</v>
+        <v>222800</v>
       </c>
       <c r="G83" s="3">
-        <v>217000</v>
+        <v>232600</v>
       </c>
       <c r="H83" s="3">
-        <v>211400</v>
+        <v>226500</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>172900</v>
+        <v>185300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>222900</v>
+        <v>238900</v>
       </c>
       <c r="E89" s="3">
-        <v>459800</v>
+        <v>492700</v>
       </c>
       <c r="F89" s="3">
-        <v>211400</v>
+        <v>226500</v>
       </c>
       <c r="G89" s="3">
-        <v>417900</v>
+        <v>447900</v>
       </c>
       <c r="H89" s="3">
-        <v>112600</v>
+        <v>120600</v>
       </c>
       <c r="I89" s="3">
-        <v>219500</v>
+        <v>235200</v>
       </c>
       <c r="J89" s="3">
-        <v>134000</v>
+        <v>143600</v>
       </c>
       <c r="K89" s="3">
         <v>300400</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248000</v>
+        <v>-265800</v>
       </c>
       <c r="E91" s="3">
-        <v>-324600</v>
+        <v>-347800</v>
       </c>
       <c r="F91" s="3">
-        <v>-181700</v>
+        <v>-194700</v>
       </c>
       <c r="G91" s="3">
-        <v>-217400</v>
+        <v>-233000</v>
       </c>
       <c r="H91" s="3">
-        <v>-260400</v>
+        <v>-279000</v>
       </c>
       <c r="I91" s="3">
-        <v>-271000</v>
+        <v>-290400</v>
       </c>
       <c r="J91" s="3">
-        <v>-198900</v>
+        <v>-213100</v>
       </c>
       <c r="K91" s="3">
         <v>-248800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-259800</v>
+        <v>-278400</v>
       </c>
       <c r="E94" s="3">
-        <v>-337300</v>
+        <v>-361400</v>
       </c>
       <c r="F94" s="3">
-        <v>-161800</v>
+        <v>-173400</v>
       </c>
       <c r="G94" s="3">
-        <v>-123100</v>
+        <v>-131900</v>
       </c>
       <c r="H94" s="3">
-        <v>-246200</v>
+        <v>-263800</v>
       </c>
       <c r="I94" s="3">
-        <v>-270900</v>
+        <v>-290300</v>
       </c>
       <c r="J94" s="3">
-        <v>-195100</v>
+        <v>-209100</v>
       </c>
       <c r="K94" s="3">
         <v>-180200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63100</v>
+        <v>-67700</v>
       </c>
       <c r="E100" s="3">
-        <v>-79800</v>
+        <v>-85500</v>
       </c>
       <c r="F100" s="3">
-        <v>-75200</v>
+        <v>-80600</v>
       </c>
       <c r="G100" s="3">
-        <v>-64100</v>
+        <v>-68700</v>
       </c>
       <c r="H100" s="3">
-        <v>107200</v>
+        <v>114900</v>
       </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="J100" s="3">
-        <v>38300</v>
+        <v>41100</v>
       </c>
       <c r="K100" s="3">
         <v>-29700</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100000</v>
+        <v>-107200</v>
       </c>
       <c r="E102" s="3">
-        <v>68000</v>
+        <v>72800</v>
       </c>
       <c r="F102" s="3">
-        <v>-50900</v>
+        <v>-54500</v>
       </c>
       <c r="G102" s="3">
-        <v>230700</v>
+        <v>247200</v>
       </c>
       <c r="H102" s="3">
-        <v>-26400</v>
+        <v>-28300</v>
       </c>
       <c r="I102" s="3">
-        <v>-44300</v>
+        <v>-47500</v>
       </c>
       <c r="J102" s="3">
-        <v>-23800</v>
+        <v>-25500</v>
       </c>
       <c r="K102" s="3">
         <v>89100</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1413600</v>
+        <v>1322400</v>
       </c>
       <c r="E8" s="3">
-        <v>1449000</v>
+        <v>1355600</v>
       </c>
       <c r="F8" s="3">
-        <v>1420500</v>
+        <v>1328900</v>
       </c>
       <c r="G8" s="3">
-        <v>1431600</v>
+        <v>1339300</v>
       </c>
       <c r="H8" s="3">
-        <v>1426000</v>
+        <v>1334100</v>
       </c>
       <c r="I8" s="3">
-        <v>1411700</v>
+        <v>1320600</v>
       </c>
       <c r="J8" s="3">
-        <v>1361700</v>
+        <v>1273900</v>
       </c>
       <c r="K8" s="3">
         <v>1305300</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>283800</v>
+        <v>265500</v>
       </c>
       <c r="E9" s="3">
-        <v>294600</v>
+        <v>275600</v>
       </c>
       <c r="F9" s="3">
-        <v>280300</v>
+        <v>262200</v>
       </c>
       <c r="G9" s="3">
-        <v>303900</v>
+        <v>284300</v>
       </c>
       <c r="H9" s="3">
-        <v>314100</v>
+        <v>293800</v>
       </c>
       <c r="I9" s="3">
-        <v>303600</v>
+        <v>284000</v>
       </c>
       <c r="J9" s="3">
-        <v>448000</v>
+        <v>419100</v>
       </c>
       <c r="K9" s="3">
         <v>399200</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1129800</v>
+        <v>1056900</v>
       </c>
       <c r="E10" s="3">
-        <v>1154500</v>
+        <v>1080000</v>
       </c>
       <c r="F10" s="3">
-        <v>1140200</v>
+        <v>1066700</v>
       </c>
       <c r="G10" s="3">
-        <v>1127800</v>
+        <v>1055100</v>
       </c>
       <c r="H10" s="3">
-        <v>1111900</v>
+        <v>1040200</v>
       </c>
       <c r="I10" s="3">
-        <v>1108000</v>
+        <v>1036600</v>
       </c>
       <c r="J10" s="3">
-        <v>913700</v>
+        <v>854800</v>
       </c>
       <c r="K10" s="3">
         <v>906100</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E14" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="F14" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>23400</v>
+        <v>21900</v>
       </c>
       <c r="H14" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I14" s="3">
-        <v>12200</v>
+        <v>11400</v>
       </c>
       <c r="J14" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K14" s="3">
         <v>3100</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>226600</v>
+        <v>212000</v>
       </c>
       <c r="E15" s="3">
-        <v>221300</v>
+        <v>207000</v>
       </c>
       <c r="F15" s="3">
-        <v>221500</v>
+        <v>207300</v>
       </c>
       <c r="G15" s="3">
-        <v>209200</v>
+        <v>195700</v>
       </c>
       <c r="H15" s="3">
-        <v>222400</v>
+        <v>208100</v>
       </c>
       <c r="I15" s="3">
-        <v>188500</v>
+        <v>176300</v>
       </c>
       <c r="J15" s="3">
-        <v>179600</v>
+        <v>168000</v>
       </c>
       <c r="K15" s="3">
         <v>187000</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1248300</v>
+        <v>1167800</v>
       </c>
       <c r="E17" s="3">
-        <v>1297600</v>
+        <v>1213900</v>
       </c>
       <c r="F17" s="3">
-        <v>1251100</v>
+        <v>1170400</v>
       </c>
       <c r="G17" s="3">
-        <v>1400400</v>
+        <v>1310100</v>
       </c>
       <c r="H17" s="3">
-        <v>1283400</v>
+        <v>1200600</v>
       </c>
       <c r="I17" s="3">
-        <v>1240800</v>
+        <v>1160800</v>
       </c>
       <c r="J17" s="3">
-        <v>1216100</v>
+        <v>1137700</v>
       </c>
       <c r="K17" s="3">
         <v>1152200</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>165300</v>
+        <v>154700</v>
       </c>
       <c r="E18" s="3">
-        <v>151400</v>
+        <v>141700</v>
       </c>
       <c r="F18" s="3">
-        <v>169400</v>
+        <v>158500</v>
       </c>
       <c r="G18" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="H18" s="3">
-        <v>142600</v>
+        <v>133400</v>
       </c>
       <c r="I18" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="J18" s="3">
-        <v>145700</v>
+        <v>136300</v>
       </c>
       <c r="K18" s="3">
         <v>153100</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22600</v>
+        <v>-21100</v>
       </c>
       <c r="E20" s="3">
-        <v>-14700</v>
+        <v>-13700</v>
       </c>
       <c r="F20" s="3">
-        <v>-44600</v>
+        <v>-41700</v>
       </c>
       <c r="G20" s="3">
-        <v>-38400</v>
+        <v>-36000</v>
       </c>
       <c r="H20" s="3">
-        <v>-50900</v>
+        <v>-47600</v>
       </c>
       <c r="I20" s="3">
-        <v>-28700</v>
+        <v>-26800</v>
       </c>
       <c r="J20" s="3">
-        <v>-21800</v>
+        <v>-20400</v>
       </c>
       <c r="K20" s="3">
         <v>-28800</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>374300</v>
+        <v>350200</v>
       </c>
       <c r="E21" s="3">
-        <v>370100</v>
+        <v>346200</v>
       </c>
       <c r="F21" s="3">
-        <v>347600</v>
+        <v>325200</v>
       </c>
       <c r="G21" s="3">
-        <v>225400</v>
+        <v>210900</v>
       </c>
       <c r="H21" s="3">
-        <v>318300</v>
+        <v>297800</v>
       </c>
       <c r="I21" s="3">
-        <v>144600</v>
+        <v>135300</v>
       </c>
       <c r="J21" s="3">
-        <v>309200</v>
+        <v>289200</v>
       </c>
       <c r="K21" s="3">
         <v>134000</v>
@@ -1355,19 +1355,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="E22" s="3">
-        <v>14700</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="G22" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="H22" s="3">
-        <v>12100</v>
+        <v>11400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>127900</v>
+        <v>119600</v>
       </c>
       <c r="E23" s="3">
-        <v>122000</v>
+        <v>114200</v>
       </c>
       <c r="F23" s="3">
-        <v>110000</v>
+        <v>102900</v>
       </c>
       <c r="G23" s="3">
-        <v>-19500</v>
+        <v>-18200</v>
       </c>
       <c r="H23" s="3">
-        <v>79600</v>
+        <v>74500</v>
       </c>
       <c r="I23" s="3">
-        <v>142100</v>
+        <v>133000</v>
       </c>
       <c r="J23" s="3">
-        <v>123900</v>
+        <v>115900</v>
       </c>
       <c r="K23" s="3">
         <v>124300</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="E24" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="F24" s="3">
-        <v>38200</v>
+        <v>35800</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
       </c>
       <c r="H24" s="3">
-        <v>23800</v>
+        <v>22200</v>
       </c>
       <c r="I24" s="3">
-        <v>46100</v>
+        <v>43200</v>
       </c>
       <c r="J24" s="3">
-        <v>31900</v>
+        <v>29900</v>
       </c>
       <c r="K24" s="3">
         <v>34100</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90400</v>
+        <v>84500</v>
       </c>
       <c r="E26" s="3">
-        <v>89400</v>
+        <v>83700</v>
       </c>
       <c r="F26" s="3">
-        <v>71800</v>
+        <v>67100</v>
       </c>
       <c r="G26" s="3">
-        <v>-20000</v>
+        <v>-18700</v>
       </c>
       <c r="H26" s="3">
-        <v>55800</v>
+        <v>52200</v>
       </c>
       <c r="I26" s="3">
-        <v>96000</v>
+        <v>89800</v>
       </c>
       <c r="J26" s="3">
-        <v>92000</v>
+        <v>86000</v>
       </c>
       <c r="K26" s="3">
         <v>90100</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90300</v>
+        <v>84500</v>
       </c>
       <c r="E27" s="3">
-        <v>89200</v>
+        <v>83400</v>
       </c>
       <c r="F27" s="3">
-        <v>71600</v>
+        <v>67000</v>
       </c>
       <c r="G27" s="3">
-        <v>-20000</v>
+        <v>-18800</v>
       </c>
       <c r="H27" s="3">
-        <v>55600</v>
+        <v>52000</v>
       </c>
       <c r="I27" s="3">
-        <v>96300</v>
+        <v>90100</v>
       </c>
       <c r="J27" s="3">
-        <v>86200</v>
+        <v>80600</v>
       </c>
       <c r="K27" s="3">
         <v>82600</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22600</v>
+        <v>21100</v>
       </c>
       <c r="E32" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="F32" s="3">
-        <v>44600</v>
+        <v>41700</v>
       </c>
       <c r="G32" s="3">
-        <v>38400</v>
+        <v>36000</v>
       </c>
       <c r="H32" s="3">
-        <v>50900</v>
+        <v>47600</v>
       </c>
       <c r="I32" s="3">
-        <v>28700</v>
+        <v>26800</v>
       </c>
       <c r="J32" s="3">
-        <v>21800</v>
+        <v>20400</v>
       </c>
       <c r="K32" s="3">
         <v>28800</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90300</v>
+        <v>84500</v>
       </c>
       <c r="E33" s="3">
-        <v>89200</v>
+        <v>83400</v>
       </c>
       <c r="F33" s="3">
-        <v>71600</v>
+        <v>67000</v>
       </c>
       <c r="G33" s="3">
-        <v>-20000</v>
+        <v>-18800</v>
       </c>
       <c r="H33" s="3">
-        <v>55600</v>
+        <v>52000</v>
       </c>
       <c r="I33" s="3">
-        <v>96300</v>
+        <v>90100</v>
       </c>
       <c r="J33" s="3">
-        <v>86200</v>
+        <v>80600</v>
       </c>
       <c r="K33" s="3">
         <v>82600</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90300</v>
+        <v>84500</v>
       </c>
       <c r="E35" s="3">
-        <v>89200</v>
+        <v>83400</v>
       </c>
       <c r="F35" s="3">
-        <v>71600</v>
+        <v>67000</v>
       </c>
       <c r="G35" s="3">
-        <v>-20000</v>
+        <v>-18800</v>
       </c>
       <c r="H35" s="3">
-        <v>55600</v>
+        <v>52000</v>
       </c>
       <c r="I35" s="3">
-        <v>96300</v>
+        <v>90100</v>
       </c>
       <c r="J35" s="3">
-        <v>86200</v>
+        <v>80600</v>
       </c>
       <c r="K35" s="3">
         <v>82600</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197200</v>
+        <v>184500</v>
       </c>
       <c r="E41" s="3">
-        <v>241500</v>
+        <v>225900</v>
       </c>
       <c r="F41" s="3">
-        <v>188200</v>
+        <v>176100</v>
       </c>
       <c r="G41" s="3">
-        <v>146600</v>
+        <v>137100</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>75600</v>
       </c>
       <c r="I41" s="3">
-        <v>86800</v>
+        <v>81200</v>
       </c>
       <c r="J41" s="3">
-        <v>103400</v>
+        <v>96700</v>
       </c>
       <c r="K41" s="3">
         <v>98500</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39400</v>
+        <v>36800</v>
       </c>
       <c r="E42" s="3">
-        <v>96500</v>
+        <v>90300</v>
       </c>
       <c r="F42" s="3">
-        <v>87900</v>
+        <v>82200</v>
       </c>
       <c r="G42" s="3">
-        <v>228400</v>
+        <v>213700</v>
       </c>
       <c r="H42" s="3">
-        <v>135800</v>
+        <v>127000</v>
       </c>
       <c r="I42" s="3">
-        <v>138200</v>
+        <v>129300</v>
       </c>
       <c r="J42" s="3">
-        <v>151800</v>
+        <v>142000</v>
       </c>
       <c r="K42" s="3">
         <v>179600</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>458000</v>
+        <v>428500</v>
       </c>
       <c r="E43" s="3">
-        <v>583900</v>
+        <v>546300</v>
       </c>
       <c r="F43" s="3">
-        <v>488200</v>
+        <v>456800</v>
       </c>
       <c r="G43" s="3">
-        <v>581200</v>
+        <v>543800</v>
       </c>
       <c r="H43" s="3">
-        <v>613900</v>
+        <v>574300</v>
       </c>
       <c r="I43" s="3">
-        <v>672300</v>
+        <v>629000</v>
       </c>
       <c r="J43" s="3">
-        <v>637500</v>
+        <v>596400</v>
       </c>
       <c r="K43" s="3">
         <v>539900</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>79200</v>
+        <v>74100</v>
       </c>
       <c r="E44" s="3">
-        <v>68100</v>
+        <v>63700</v>
       </c>
       <c r="F44" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="G44" s="3">
-        <v>64500</v>
+        <v>60400</v>
       </c>
       <c r="H44" s="3">
-        <v>79300</v>
+        <v>74200</v>
       </c>
       <c r="I44" s="3">
-        <v>84100</v>
+        <v>78700</v>
       </c>
       <c r="J44" s="3">
-        <v>91900</v>
+        <v>86000</v>
       </c>
       <c r="K44" s="3">
         <v>88200</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>185000</v>
+        <v>173100</v>
       </c>
       <c r="E45" s="3">
-        <v>67600</v>
+        <v>63200</v>
       </c>
       <c r="F45" s="3">
-        <v>209500</v>
+        <v>196000</v>
       </c>
       <c r="G45" s="3">
-        <v>62400</v>
+        <v>58400</v>
       </c>
       <c r="H45" s="3">
-        <v>141700</v>
+        <v>132600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>25100</v>
+        <v>23500</v>
       </c>
       <c r="K45" s="3">
         <v>10700</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>958800</v>
+        <v>897000</v>
       </c>
       <c r="E46" s="3">
-        <v>1057600</v>
+        <v>989400</v>
       </c>
       <c r="F46" s="3">
-        <v>1030200</v>
+        <v>963800</v>
       </c>
       <c r="G46" s="3">
-        <v>1083200</v>
+        <v>1013300</v>
       </c>
       <c r="H46" s="3">
-        <v>1051600</v>
+        <v>983800</v>
       </c>
       <c r="I46" s="3">
-        <v>981400</v>
+        <v>918200</v>
       </c>
       <c r="J46" s="3">
-        <v>1009700</v>
+        <v>944600</v>
       </c>
       <c r="K46" s="3">
         <v>906300</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29100</v>
+        <v>27300</v>
       </c>
       <c r="E47" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="F47" s="3">
-        <v>25500</v>
+        <v>23900</v>
       </c>
       <c r="G47" s="3">
-        <v>26700</v>
+        <v>25000</v>
       </c>
       <c r="H47" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="I47" s="3">
-        <v>28000</v>
+        <v>26100</v>
       </c>
       <c r="J47" s="3">
-        <v>29300</v>
+        <v>27500</v>
       </c>
       <c r="K47" s="3">
         <v>27800</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2781900</v>
+        <v>2602500</v>
       </c>
       <c r="E48" s="3">
-        <v>2708000</v>
+        <v>2533500</v>
       </c>
       <c r="F48" s="3">
-        <v>2531700</v>
+        <v>2368500</v>
       </c>
       <c r="G48" s="3">
-        <v>2530100</v>
+        <v>2367000</v>
       </c>
       <c r="H48" s="3">
-        <v>2464300</v>
+        <v>2305400</v>
       </c>
       <c r="I48" s="3">
-        <v>2126800</v>
+        <v>1989700</v>
       </c>
       <c r="J48" s="3">
-        <v>2039800</v>
+        <v>1908300</v>
       </c>
       <c r="K48" s="3">
         <v>1994700</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>296300</v>
+        <v>277200</v>
       </c>
       <c r="E49" s="3">
-        <v>305700</v>
+        <v>286000</v>
       </c>
       <c r="F49" s="3">
-        <v>306300</v>
+        <v>286600</v>
       </c>
       <c r="G49" s="3">
-        <v>314600</v>
+        <v>294300</v>
       </c>
       <c r="H49" s="3">
-        <v>310600</v>
+        <v>290600</v>
       </c>
       <c r="I49" s="3">
-        <v>300100</v>
+        <v>280800</v>
       </c>
       <c r="J49" s="3">
-        <v>305300</v>
+        <v>285600</v>
       </c>
       <c r="K49" s="3">
         <v>295500</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>142500</v>
+        <v>133400</v>
       </c>
       <c r="E52" s="3">
-        <v>135400</v>
+        <v>126700</v>
       </c>
       <c r="F52" s="3">
-        <v>149000</v>
+        <v>139400</v>
       </c>
       <c r="G52" s="3">
-        <v>120800</v>
+        <v>113000</v>
       </c>
       <c r="H52" s="3">
-        <v>80100</v>
+        <v>74900</v>
       </c>
       <c r="I52" s="3">
-        <v>78600</v>
+        <v>73500</v>
       </c>
       <c r="J52" s="3">
-        <v>62500</v>
+        <v>58400</v>
       </c>
       <c r="K52" s="3">
         <v>87200</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4208700</v>
+        <v>3937300</v>
       </c>
       <c r="E54" s="3">
-        <v>4237700</v>
+        <v>3964500</v>
       </c>
       <c r="F54" s="3">
-        <v>4042800</v>
+        <v>3782200</v>
       </c>
       <c r="G54" s="3">
-        <v>4075400</v>
+        <v>3812700</v>
       </c>
       <c r="H54" s="3">
-        <v>3937300</v>
+        <v>3683500</v>
       </c>
       <c r="I54" s="3">
-        <v>3515000</v>
+        <v>3288400</v>
       </c>
       <c r="J54" s="3">
-        <v>3446600</v>
+        <v>3224400</v>
       </c>
       <c r="K54" s="3">
         <v>3311400</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>694700</v>
+        <v>649900</v>
       </c>
       <c r="E57" s="3">
-        <v>453900</v>
+        <v>424600</v>
       </c>
       <c r="F57" s="3">
-        <v>587900</v>
+        <v>550000</v>
       </c>
       <c r="G57" s="3">
-        <v>337500</v>
+        <v>315800</v>
       </c>
       <c r="H57" s="3">
-        <v>505600</v>
+        <v>473000</v>
       </c>
       <c r="I57" s="3">
-        <v>484800</v>
+        <v>453500</v>
       </c>
       <c r="J57" s="3">
-        <v>202800</v>
+        <v>189700</v>
       </c>
       <c r="K57" s="3">
         <v>448900</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>218100</v>
+        <v>204000</v>
       </c>
       <c r="E58" s="3">
-        <v>126500</v>
+        <v>118300</v>
       </c>
       <c r="F58" s="3">
-        <v>147100</v>
+        <v>137600</v>
       </c>
       <c r="G58" s="3">
-        <v>197100</v>
+        <v>184400</v>
       </c>
       <c r="H58" s="3">
-        <v>344900</v>
+        <v>322700</v>
       </c>
       <c r="I58" s="3">
-        <v>358600</v>
+        <v>335500</v>
       </c>
       <c r="J58" s="3">
-        <v>182000</v>
+        <v>170300</v>
       </c>
       <c r="K58" s="3">
         <v>149300</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>209900</v>
+        <v>196400</v>
       </c>
       <c r="E59" s="3">
-        <v>572700</v>
+        <v>535800</v>
       </c>
       <c r="F59" s="3">
-        <v>323300</v>
+        <v>302500</v>
       </c>
       <c r="G59" s="3">
-        <v>603600</v>
+        <v>564600</v>
       </c>
       <c r="H59" s="3">
-        <v>247800</v>
+        <v>231900</v>
       </c>
       <c r="I59" s="3">
-        <v>247800</v>
+        <v>231900</v>
       </c>
       <c r="J59" s="3">
-        <v>530500</v>
+        <v>496300</v>
       </c>
       <c r="K59" s="3">
         <v>484100</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1122700</v>
+        <v>1050300</v>
       </c>
       <c r="E60" s="3">
-        <v>1153100</v>
+        <v>1078800</v>
       </c>
       <c r="F60" s="3">
-        <v>1058300</v>
+        <v>990000</v>
       </c>
       <c r="G60" s="3">
-        <v>1138200</v>
+        <v>1064800</v>
       </c>
       <c r="H60" s="3">
-        <v>1098400</v>
+        <v>1027500</v>
       </c>
       <c r="I60" s="3">
-        <v>1091200</v>
+        <v>1020800</v>
       </c>
       <c r="J60" s="3">
-        <v>915300</v>
+        <v>856300</v>
       </c>
       <c r="K60" s="3">
         <v>850000</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>847100</v>
+        <v>792500</v>
       </c>
       <c r="E61" s="3">
-        <v>925100</v>
+        <v>865400</v>
       </c>
       <c r="F61" s="3">
-        <v>905600</v>
+        <v>847200</v>
       </c>
       <c r="G61" s="3">
-        <v>917000</v>
+        <v>857900</v>
       </c>
       <c r="H61" s="3">
-        <v>785800</v>
+        <v>735100</v>
       </c>
       <c r="I61" s="3">
-        <v>321300</v>
+        <v>300600</v>
       </c>
       <c r="J61" s="3">
-        <v>491400</v>
+        <v>459700</v>
       </c>
       <c r="K61" s="3">
         <v>470900</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>74100</v>
+        <v>69300</v>
       </c>
       <c r="E62" s="3">
-        <v>78800</v>
+        <v>73700</v>
       </c>
       <c r="F62" s="3">
-        <v>138200</v>
+        <v>129300</v>
       </c>
       <c r="G62" s="3">
-        <v>63300</v>
+        <v>59300</v>
       </c>
       <c r="H62" s="3">
-        <v>92200</v>
+        <v>86300</v>
       </c>
       <c r="I62" s="3">
-        <v>126100</v>
+        <v>118000</v>
       </c>
       <c r="J62" s="3">
-        <v>96500</v>
+        <v>90200</v>
       </c>
       <c r="K62" s="3">
         <v>204600</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2042100</v>
+        <v>1910400</v>
       </c>
       <c r="E66" s="3">
-        <v>2155400</v>
+        <v>2016400</v>
       </c>
       <c r="F66" s="3">
-        <v>2100200</v>
+        <v>1964800</v>
       </c>
       <c r="G66" s="3">
-        <v>2116600</v>
+        <v>1980200</v>
       </c>
       <c r="H66" s="3">
-        <v>1974300</v>
+        <v>1847000</v>
       </c>
       <c r="I66" s="3">
-        <v>1551600</v>
+        <v>1451600</v>
       </c>
       <c r="J66" s="3">
-        <v>1527800</v>
+        <v>1429300</v>
       </c>
       <c r="K66" s="3">
         <v>1538200</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1831300</v>
+        <v>1713200</v>
       </c>
       <c r="E72" s="3">
-        <v>1747100</v>
+        <v>1634500</v>
       </c>
       <c r="F72" s="3">
-        <v>1607300</v>
+        <v>1503700</v>
       </c>
       <c r="G72" s="3">
-        <v>1623500</v>
+        <v>1518800</v>
       </c>
       <c r="H72" s="3">
-        <v>1627800</v>
+        <v>1522800</v>
       </c>
       <c r="I72" s="3">
-        <v>1628100</v>
+        <v>1523100</v>
       </c>
       <c r="J72" s="3">
-        <v>1583600</v>
+        <v>1481500</v>
       </c>
       <c r="K72" s="3">
         <v>1441000</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2166600</v>
+        <v>2026900</v>
       </c>
       <c r="E76" s="3">
-        <v>2082400</v>
+        <v>1948100</v>
       </c>
       <c r="F76" s="3">
-        <v>1942600</v>
+        <v>1817300</v>
       </c>
       <c r="G76" s="3">
-        <v>1958800</v>
+        <v>1832500</v>
       </c>
       <c r="H76" s="3">
-        <v>1963000</v>
+        <v>1836500</v>
       </c>
       <c r="I76" s="3">
-        <v>1963400</v>
+        <v>1836800</v>
       </c>
       <c r="J76" s="3">
-        <v>1918900</v>
+        <v>1795200</v>
       </c>
       <c r="K76" s="3">
         <v>1773200</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90300</v>
+        <v>84500</v>
       </c>
       <c r="E81" s="3">
-        <v>89200</v>
+        <v>83400</v>
       </c>
       <c r="F81" s="3">
-        <v>71600</v>
+        <v>67000</v>
       </c>
       <c r="G81" s="3">
-        <v>-20000</v>
+        <v>-18800</v>
       </c>
       <c r="H81" s="3">
-        <v>55600</v>
+        <v>52000</v>
       </c>
       <c r="I81" s="3">
-        <v>96300</v>
+        <v>90100</v>
       </c>
       <c r="J81" s="3">
-        <v>86200</v>
+        <v>80600</v>
       </c>
       <c r="K81" s="3">
         <v>82600</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231600</v>
+        <v>216600</v>
       </c>
       <c r="E83" s="3">
-        <v>233300</v>
+        <v>218300</v>
       </c>
       <c r="F83" s="3">
-        <v>222800</v>
+        <v>208400</v>
       </c>
       <c r="G83" s="3">
-        <v>232600</v>
+        <v>217600</v>
       </c>
       <c r="H83" s="3">
-        <v>226500</v>
+        <v>211900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3">
-        <v>185300</v>
+        <v>173300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>238900</v>
+        <v>223500</v>
       </c>
       <c r="E89" s="3">
-        <v>492700</v>
+        <v>461000</v>
       </c>
       <c r="F89" s="3">
-        <v>226500</v>
+        <v>211900</v>
       </c>
       <c r="G89" s="3">
-        <v>447900</v>
+        <v>419000</v>
       </c>
       <c r="H89" s="3">
-        <v>120600</v>
+        <v>112900</v>
       </c>
       <c r="I89" s="3">
-        <v>235200</v>
+        <v>220100</v>
       </c>
       <c r="J89" s="3">
-        <v>143600</v>
+        <v>134300</v>
       </c>
       <c r="K89" s="3">
         <v>300400</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-265800</v>
+        <v>-248600</v>
       </c>
       <c r="E91" s="3">
-        <v>-347800</v>
+        <v>-325400</v>
       </c>
       <c r="F91" s="3">
-        <v>-194700</v>
+        <v>-182200</v>
       </c>
       <c r="G91" s="3">
-        <v>-233000</v>
+        <v>-217900</v>
       </c>
       <c r="H91" s="3">
-        <v>-279000</v>
+        <v>-261000</v>
       </c>
       <c r="I91" s="3">
-        <v>-290400</v>
+        <v>-271700</v>
       </c>
       <c r="J91" s="3">
-        <v>-213100</v>
+        <v>-199400</v>
       </c>
       <c r="K91" s="3">
         <v>-248800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-278400</v>
+        <v>-260400</v>
       </c>
       <c r="E94" s="3">
-        <v>-361400</v>
+        <v>-338100</v>
       </c>
       <c r="F94" s="3">
-        <v>-173400</v>
+        <v>-162200</v>
       </c>
       <c r="G94" s="3">
-        <v>-131900</v>
+        <v>-123400</v>
       </c>
       <c r="H94" s="3">
-        <v>-263800</v>
+        <v>-246800</v>
       </c>
       <c r="I94" s="3">
-        <v>-290300</v>
+        <v>-271600</v>
       </c>
       <c r="J94" s="3">
-        <v>-209100</v>
+        <v>-195600</v>
       </c>
       <c r="K94" s="3">
         <v>-180200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67700</v>
+        <v>-63300</v>
       </c>
       <c r="E100" s="3">
-        <v>-85500</v>
+        <v>-80000</v>
       </c>
       <c r="F100" s="3">
-        <v>-80600</v>
+        <v>-75400</v>
       </c>
       <c r="G100" s="3">
-        <v>-68700</v>
+        <v>-64300</v>
       </c>
       <c r="H100" s="3">
-        <v>114900</v>
+        <v>107500</v>
       </c>
       <c r="I100" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J100" s="3">
-        <v>41100</v>
+        <v>38400</v>
       </c>
       <c r="K100" s="3">
         <v>-29700</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-107200</v>
+        <v>-100200</v>
       </c>
       <c r="E102" s="3">
-        <v>72800</v>
+        <v>68100</v>
       </c>
       <c r="F102" s="3">
-        <v>-54500</v>
+        <v>-51000</v>
       </c>
       <c r="G102" s="3">
-        <v>247200</v>
+        <v>231300</v>
       </c>
       <c r="H102" s="3">
-        <v>-28300</v>
+        <v>-26500</v>
       </c>
       <c r="I102" s="3">
-        <v>-47500</v>
+        <v>-44400</v>
       </c>
       <c r="J102" s="3">
-        <v>-25500</v>
+        <v>-23900</v>
       </c>
       <c r="K102" s="3">
         <v>89100</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1322400</v>
+        <v>1280800</v>
       </c>
       <c r="E8" s="3">
-        <v>1355600</v>
+        <v>1270500</v>
       </c>
       <c r="F8" s="3">
-        <v>1328900</v>
+        <v>1302400</v>
       </c>
       <c r="G8" s="3">
-        <v>1339300</v>
+        <v>1276700</v>
       </c>
       <c r="H8" s="3">
-        <v>1334100</v>
+        <v>1286700</v>
       </c>
       <c r="I8" s="3">
-        <v>1320600</v>
+        <v>1281700</v>
       </c>
       <c r="J8" s="3">
+        <v>1268800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1273900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1305300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1319500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1229100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1156500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1408000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1150200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1193200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265500</v>
+        <v>284400</v>
       </c>
       <c r="E9" s="3">
-        <v>275600</v>
+        <v>255100</v>
       </c>
       <c r="F9" s="3">
-        <v>262200</v>
+        <v>264800</v>
       </c>
       <c r="G9" s="3">
-        <v>284300</v>
+        <v>251900</v>
       </c>
       <c r="H9" s="3">
-        <v>293800</v>
+        <v>273100</v>
       </c>
       <c r="I9" s="3">
-        <v>284000</v>
+        <v>282300</v>
       </c>
       <c r="J9" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K9" s="3">
         <v>419100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>399200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>270200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>285000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>246300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>307000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>227900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>252600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1056900</v>
+        <v>996400</v>
       </c>
       <c r="E10" s="3">
-        <v>1080000</v>
+        <v>1015400</v>
       </c>
       <c r="F10" s="3">
-        <v>1066700</v>
+        <v>1037600</v>
       </c>
       <c r="G10" s="3">
-        <v>1055100</v>
+        <v>1024800</v>
       </c>
       <c r="H10" s="3">
-        <v>1040200</v>
+        <v>1013600</v>
       </c>
       <c r="I10" s="3">
-        <v>1036600</v>
+        <v>999400</v>
       </c>
       <c r="J10" s="3">
+        <v>995900</v>
+      </c>
+      <c r="K10" s="3">
         <v>854800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>906100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1049300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>944100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>910300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1101000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>922300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>940600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,108 +1029,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4700</v>
+        <v>10300</v>
       </c>
       <c r="E14" s="3">
-        <v>11200</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>10800</v>
       </c>
       <c r="G14" s="3">
-        <v>21900</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>3900</v>
+        <v>21000</v>
       </c>
       <c r="I14" s="3">
-        <v>11400</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>212000</v>
+        <v>197800</v>
       </c>
       <c r="E15" s="3">
-        <v>207000</v>
+        <v>203700</v>
       </c>
       <c r="F15" s="3">
-        <v>207300</v>
+        <v>198900</v>
       </c>
       <c r="G15" s="3">
-        <v>195700</v>
+        <v>199100</v>
       </c>
       <c r="H15" s="3">
-        <v>208100</v>
+        <v>188000</v>
       </c>
       <c r="I15" s="3">
-        <v>176300</v>
+        <v>199900</v>
       </c>
       <c r="J15" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K15" s="3">
         <v>168000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>187000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>179400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>168200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>153200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>188100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>177100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>201000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1167800</v>
+        <v>1135000</v>
       </c>
       <c r="E17" s="3">
-        <v>1213900</v>
+        <v>1121900</v>
       </c>
       <c r="F17" s="3">
-        <v>1170400</v>
+        <v>1166300</v>
       </c>
       <c r="G17" s="3">
-        <v>1310100</v>
+        <v>1124400</v>
       </c>
       <c r="H17" s="3">
-        <v>1200600</v>
+        <v>1258600</v>
       </c>
       <c r="I17" s="3">
-        <v>1160800</v>
+        <v>1153500</v>
       </c>
       <c r="J17" s="3">
+        <v>1115200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1137700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1152200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1152400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1071100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1010800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1245200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1088400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1069500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>154700</v>
+        <v>145800</v>
       </c>
       <c r="E18" s="3">
-        <v>141700</v>
+        <v>148600</v>
       </c>
       <c r="F18" s="3">
-        <v>158500</v>
+        <v>136100</v>
       </c>
       <c r="G18" s="3">
-        <v>29300</v>
+        <v>152300</v>
       </c>
       <c r="H18" s="3">
-        <v>133400</v>
+        <v>28100</v>
       </c>
       <c r="I18" s="3">
-        <v>159800</v>
+        <v>128200</v>
       </c>
       <c r="J18" s="3">
+        <v>153500</v>
+      </c>
+      <c r="K18" s="3">
         <v>136300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>153100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>167100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>145700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>162900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,128 +1282,135 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21100</v>
+        <v>-20600</v>
       </c>
       <c r="E20" s="3">
-        <v>-13700</v>
+        <v>-20300</v>
       </c>
       <c r="F20" s="3">
-        <v>-41700</v>
+        <v>-13200</v>
       </c>
       <c r="G20" s="3">
-        <v>-36000</v>
+        <v>-40100</v>
       </c>
       <c r="H20" s="3">
-        <v>-47600</v>
+        <v>-34500</v>
       </c>
       <c r="I20" s="3">
-        <v>-26800</v>
+        <v>-45700</v>
       </c>
       <c r="J20" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>350200</v>
+        <v>333300</v>
       </c>
       <c r="E21" s="3">
-        <v>346200</v>
+        <v>336400</v>
       </c>
       <c r="F21" s="3">
-        <v>325200</v>
+        <v>332600</v>
       </c>
       <c r="G21" s="3">
-        <v>210900</v>
+        <v>312400</v>
       </c>
       <c r="H21" s="3">
-        <v>297800</v>
+        <v>202600</v>
       </c>
       <c r="I21" s="3">
-        <v>135300</v>
+        <v>286100</v>
       </c>
       <c r="J21" s="3">
+        <v>130000</v>
+      </c>
+      <c r="K21" s="3">
         <v>289200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>134000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>327400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>150700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>280600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>224000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>334600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E22" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="F22" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="G22" s="3">
-        <v>11500</v>
+        <v>13300</v>
       </c>
       <c r="H22" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>11000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1381,14 +1421,14 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>119600</v>
+        <v>111700</v>
       </c>
       <c r="E23" s="3">
-        <v>114200</v>
+        <v>114900</v>
       </c>
       <c r="F23" s="3">
-        <v>102900</v>
+        <v>109700</v>
       </c>
       <c r="G23" s="3">
-        <v>-18200</v>
+        <v>98900</v>
       </c>
       <c r="H23" s="3">
-        <v>74500</v>
+        <v>-17500</v>
       </c>
       <c r="I23" s="3">
-        <v>133000</v>
+        <v>71500</v>
       </c>
       <c r="J23" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K23" s="3">
         <v>115900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>124300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>147900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>133100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>131400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>118100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35100</v>
+        <v>35900</v>
       </c>
       <c r="E24" s="3">
-        <v>30500</v>
+        <v>33700</v>
       </c>
       <c r="F24" s="3">
-        <v>35800</v>
+        <v>29300</v>
       </c>
       <c r="G24" s="3">
+        <v>34400</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>22200</v>
-      </c>
       <c r="I24" s="3">
-        <v>43200</v>
+        <v>21400</v>
       </c>
       <c r="J24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K24" s="3">
         <v>29900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-25600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84500</v>
+        <v>75800</v>
       </c>
       <c r="E26" s="3">
-        <v>83700</v>
+        <v>81200</v>
       </c>
       <c r="F26" s="3">
-        <v>67100</v>
+        <v>80400</v>
       </c>
       <c r="G26" s="3">
-        <v>-18700</v>
+        <v>64500</v>
       </c>
       <c r="H26" s="3">
-        <v>52200</v>
+        <v>-18000</v>
       </c>
       <c r="I26" s="3">
-        <v>89800</v>
+        <v>50200</v>
       </c>
       <c r="J26" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K26" s="3">
         <v>86000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>90100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>108400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>124100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>117500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84500</v>
+        <v>75800</v>
       </c>
       <c r="E27" s="3">
-        <v>83400</v>
+        <v>81200</v>
       </c>
       <c r="F27" s="3">
-        <v>67000</v>
+        <v>80100</v>
       </c>
       <c r="G27" s="3">
-        <v>-18800</v>
+        <v>64400</v>
       </c>
       <c r="H27" s="3">
-        <v>52000</v>
+        <v>-18000</v>
       </c>
       <c r="I27" s="3">
-        <v>90100</v>
+        <v>49900</v>
       </c>
       <c r="J27" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K27" s="3">
         <v>80600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>82600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>121100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>139400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1725,8 +1786,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1743,14 +1804,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>26000</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21100</v>
+        <v>20600</v>
       </c>
       <c r="E32" s="3">
-        <v>13700</v>
+        <v>20300</v>
       </c>
       <c r="F32" s="3">
-        <v>41700</v>
+        <v>13200</v>
       </c>
       <c r="G32" s="3">
-        <v>36000</v>
+        <v>40100</v>
       </c>
       <c r="H32" s="3">
-        <v>47600</v>
+        <v>34500</v>
       </c>
       <c r="I32" s="3">
-        <v>26800</v>
+        <v>45700</v>
       </c>
       <c r="J32" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K32" s="3">
         <v>20400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>84500</v>
+        <v>75800</v>
       </c>
       <c r="E33" s="3">
-        <v>83400</v>
+        <v>81200</v>
       </c>
       <c r="F33" s="3">
-        <v>67000</v>
+        <v>80100</v>
       </c>
       <c r="G33" s="3">
-        <v>-18800</v>
+        <v>64400</v>
       </c>
       <c r="H33" s="3">
-        <v>52000</v>
+        <v>-18000</v>
       </c>
       <c r="I33" s="3">
-        <v>90100</v>
+        <v>49900</v>
       </c>
       <c r="J33" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K33" s="3">
         <v>80600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>82600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>121100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>165400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>84500</v>
+        <v>75800</v>
       </c>
       <c r="E35" s="3">
-        <v>83400</v>
+        <v>81200</v>
       </c>
       <c r="F35" s="3">
-        <v>67000</v>
+        <v>80100</v>
       </c>
       <c r="G35" s="3">
-        <v>-18800</v>
+        <v>64400</v>
       </c>
       <c r="H35" s="3">
-        <v>52000</v>
+        <v>-18000</v>
       </c>
       <c r="I35" s="3">
-        <v>90100</v>
+        <v>49900</v>
       </c>
       <c r="J35" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K35" s="3">
         <v>80600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>82600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>121100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>165400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>184500</v>
+        <v>185200</v>
       </c>
       <c r="E41" s="3">
-        <v>225900</v>
+        <v>177200</v>
       </c>
       <c r="F41" s="3">
-        <v>176100</v>
+        <v>217000</v>
       </c>
       <c r="G41" s="3">
-        <v>137100</v>
+        <v>169200</v>
       </c>
       <c r="H41" s="3">
-        <v>75600</v>
+        <v>131800</v>
       </c>
       <c r="I41" s="3">
-        <v>81200</v>
+        <v>72700</v>
       </c>
       <c r="J41" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K41" s="3">
         <v>96700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>143500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>39400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>174600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>267600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36800</v>
+        <v>15700</v>
       </c>
       <c r="E42" s="3">
-        <v>90300</v>
+        <v>38400</v>
       </c>
       <c r="F42" s="3">
-        <v>82200</v>
+        <v>90400</v>
       </c>
       <c r="G42" s="3">
-        <v>213700</v>
+        <v>83100</v>
       </c>
       <c r="H42" s="3">
-        <v>127000</v>
+        <v>208000</v>
       </c>
       <c r="I42" s="3">
-        <v>129300</v>
+        <v>122000</v>
       </c>
       <c r="J42" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K42" s="3">
         <v>142000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>179600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>195700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>188100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>75700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>120200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>334800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>428500</v>
+        <v>563800</v>
       </c>
       <c r="E43" s="3">
-        <v>546300</v>
+        <v>411700</v>
       </c>
       <c r="F43" s="3">
-        <v>456800</v>
+        <v>524800</v>
       </c>
       <c r="G43" s="3">
-        <v>543800</v>
+        <v>438800</v>
       </c>
       <c r="H43" s="3">
-        <v>574300</v>
+        <v>522400</v>
       </c>
       <c r="I43" s="3">
-        <v>629000</v>
+        <v>551800</v>
       </c>
       <c r="J43" s="3">
+        <v>604300</v>
+      </c>
+      <c r="K43" s="3">
         <v>596400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>539900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>579200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>491400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>445900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>520300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>518300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>670700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74100</v>
+        <v>64700</v>
       </c>
       <c r="E44" s="3">
-        <v>63700</v>
+        <v>71200</v>
       </c>
       <c r="F44" s="3">
-        <v>52700</v>
+        <v>61200</v>
       </c>
       <c r="G44" s="3">
-        <v>60400</v>
+        <v>50700</v>
       </c>
       <c r="H44" s="3">
-        <v>74200</v>
+        <v>58000</v>
       </c>
       <c r="I44" s="3">
-        <v>78700</v>
+        <v>71200</v>
       </c>
       <c r="J44" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K44" s="3">
         <v>86000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>106900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>75200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>72800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>45200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>173100</v>
+        <v>132800</v>
       </c>
       <c r="E45" s="3">
-        <v>63200</v>
+        <v>163300</v>
       </c>
       <c r="F45" s="3">
-        <v>196000</v>
+        <v>57100</v>
       </c>
       <c r="G45" s="3">
-        <v>58400</v>
+        <v>184300</v>
       </c>
       <c r="H45" s="3">
-        <v>132600</v>
-      </c>
-      <c r="I45" s="3" t="s">
+        <v>53300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4200</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>160800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>897000</v>
+        <v>962100</v>
       </c>
       <c r="E46" s="3">
-        <v>989400</v>
+        <v>861800</v>
       </c>
       <c r="F46" s="3">
-        <v>963800</v>
+        <v>950500</v>
       </c>
       <c r="G46" s="3">
-        <v>1013300</v>
+        <v>926000</v>
       </c>
       <c r="H46" s="3">
-        <v>983800</v>
+        <v>973500</v>
       </c>
       <c r="I46" s="3">
-        <v>918200</v>
+        <v>945100</v>
       </c>
       <c r="J46" s="3">
+        <v>882100</v>
+      </c>
+      <c r="K46" s="3">
         <v>944600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>906300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>948400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>802600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>638100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>881700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>645200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>788000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>27300</v>
+        <v>30300</v>
       </c>
       <c r="E47" s="3">
-        <v>28900</v>
+        <v>26200</v>
       </c>
       <c r="F47" s="3">
-        <v>23900</v>
+        <v>27800</v>
       </c>
       <c r="G47" s="3">
-        <v>25000</v>
+        <v>22900</v>
       </c>
       <c r="H47" s="3">
-        <v>28900</v>
+        <v>24000</v>
       </c>
       <c r="I47" s="3">
-        <v>26100</v>
+        <v>27700</v>
       </c>
       <c r="J47" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K47" s="3">
         <v>27500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>23100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>153000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>181900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>177700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>191200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2602500</v>
+        <v>2581600</v>
       </c>
       <c r="E48" s="3">
-        <v>2533500</v>
+        <v>2500300</v>
       </c>
       <c r="F48" s="3">
-        <v>2368500</v>
+        <v>2433900</v>
       </c>
       <c r="G48" s="3">
-        <v>2367000</v>
+        <v>2275500</v>
       </c>
       <c r="H48" s="3">
-        <v>2305400</v>
+        <v>2274000</v>
       </c>
       <c r="I48" s="3">
-        <v>1989700</v>
+        <v>2214800</v>
       </c>
       <c r="J48" s="3">
+        <v>1911500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1908300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1994700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1943200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1651700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1490700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1737500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1677400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3460700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>277200</v>
+        <v>253500</v>
       </c>
       <c r="E49" s="3">
-        <v>286000</v>
+        <v>266300</v>
       </c>
       <c r="F49" s="3">
-        <v>286600</v>
+        <v>274800</v>
       </c>
       <c r="G49" s="3">
-        <v>294300</v>
+        <v>275300</v>
       </c>
       <c r="H49" s="3">
-        <v>290600</v>
+        <v>282800</v>
       </c>
       <c r="I49" s="3">
-        <v>280800</v>
+        <v>279100</v>
       </c>
       <c r="J49" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K49" s="3">
         <v>285600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>295500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>314100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>279700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>264000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>301900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>313700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>409000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133400</v>
+        <v>111800</v>
       </c>
       <c r="E52" s="3">
-        <v>126700</v>
+        <v>128100</v>
       </c>
       <c r="F52" s="3">
-        <v>139400</v>
+        <v>121700</v>
       </c>
       <c r="G52" s="3">
-        <v>113000</v>
+        <v>134000</v>
       </c>
       <c r="H52" s="3">
-        <v>74900</v>
+        <v>108600</v>
       </c>
       <c r="I52" s="3">
-        <v>73500</v>
+        <v>72000</v>
       </c>
       <c r="J52" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K52" s="3">
         <v>58400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>77600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>64300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>87700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>56100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>116100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3937300</v>
+        <v>3939200</v>
       </c>
       <c r="E54" s="3">
-        <v>3964500</v>
+        <v>3782700</v>
       </c>
       <c r="F54" s="3">
-        <v>3782200</v>
+        <v>3808800</v>
       </c>
       <c r="G54" s="3">
-        <v>3812700</v>
+        <v>3633600</v>
       </c>
       <c r="H54" s="3">
-        <v>3683500</v>
+        <v>3662900</v>
       </c>
       <c r="I54" s="3">
-        <v>3288400</v>
+        <v>3538800</v>
       </c>
       <c r="J54" s="3">
+        <v>3159200</v>
+      </c>
+      <c r="K54" s="3">
         <v>3224400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3311400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3306400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2838900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2613900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3190700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2870000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2973200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>649900</v>
+        <v>616900</v>
       </c>
       <c r="E57" s="3">
-        <v>424600</v>
+        <v>624400</v>
       </c>
       <c r="F57" s="3">
-        <v>550000</v>
+        <v>408000</v>
       </c>
       <c r="G57" s="3">
-        <v>315800</v>
+        <v>528400</v>
       </c>
       <c r="H57" s="3">
-        <v>473000</v>
+        <v>303400</v>
       </c>
       <c r="I57" s="3">
-        <v>453500</v>
+        <v>454400</v>
       </c>
       <c r="J57" s="3">
+        <v>435700</v>
+      </c>
+      <c r="K57" s="3">
         <v>189700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>448900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>198300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>671900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>171300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>489000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>446100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>399100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>204000</v>
+        <v>283100</v>
       </c>
       <c r="E58" s="3">
-        <v>118300</v>
+        <v>196000</v>
       </c>
       <c r="F58" s="3">
-        <v>137600</v>
+        <v>113700</v>
       </c>
       <c r="G58" s="3">
-        <v>184400</v>
+        <v>132200</v>
       </c>
       <c r="H58" s="3">
-        <v>322700</v>
+        <v>177200</v>
       </c>
       <c r="I58" s="3">
-        <v>335500</v>
+        <v>310000</v>
       </c>
       <c r="J58" s="3">
+        <v>322300</v>
+      </c>
+      <c r="K58" s="3">
         <v>170300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>149300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>158000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>187900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>106600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>228400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>196400</v>
+        <v>206900</v>
       </c>
       <c r="E59" s="3">
-        <v>535800</v>
+        <v>188700</v>
       </c>
       <c r="F59" s="3">
-        <v>302500</v>
+        <v>514800</v>
       </c>
       <c r="G59" s="3">
-        <v>564600</v>
+        <v>290600</v>
       </c>
       <c r="H59" s="3">
-        <v>231900</v>
+        <v>542500</v>
       </c>
       <c r="I59" s="3">
-        <v>231900</v>
+        <v>222700</v>
       </c>
       <c r="J59" s="3">
+        <v>222700</v>
+      </c>
+      <c r="K59" s="3">
         <v>496300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>484100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>501300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>480000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>359200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>263400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>313000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1050300</v>
+        <v>1106900</v>
       </c>
       <c r="E60" s="3">
-        <v>1078800</v>
+        <v>1009100</v>
       </c>
       <c r="F60" s="3">
-        <v>990000</v>
+        <v>1036400</v>
       </c>
       <c r="G60" s="3">
-        <v>1064800</v>
+        <v>951100</v>
       </c>
       <c r="H60" s="3">
-        <v>1027500</v>
+        <v>1023000</v>
       </c>
       <c r="I60" s="3">
-        <v>1020800</v>
+        <v>987200</v>
       </c>
       <c r="J60" s="3">
+        <v>980700</v>
+      </c>
+      <c r="K60" s="3">
         <v>856300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>850000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>857600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>774600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>706200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>896800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>816200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>813200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>792500</v>
+        <v>749500</v>
       </c>
       <c r="E61" s="3">
-        <v>865400</v>
+        <v>761300</v>
       </c>
       <c r="F61" s="3">
-        <v>847200</v>
+        <v>831400</v>
       </c>
       <c r="G61" s="3">
-        <v>857900</v>
+        <v>814000</v>
       </c>
       <c r="H61" s="3">
-        <v>735100</v>
+        <v>824200</v>
       </c>
       <c r="I61" s="3">
-        <v>300600</v>
+        <v>706300</v>
       </c>
       <c r="J61" s="3">
+        <v>288800</v>
+      </c>
+      <c r="K61" s="3">
         <v>459700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>470900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>430500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>280600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>239600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>313000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>211400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>229700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>69300</v>
+        <v>51400</v>
       </c>
       <c r="E62" s="3">
-        <v>73700</v>
+        <v>66600</v>
       </c>
       <c r="F62" s="3">
-        <v>129300</v>
+        <v>70800</v>
       </c>
       <c r="G62" s="3">
-        <v>59300</v>
+        <v>124200</v>
       </c>
       <c r="H62" s="3">
-        <v>86300</v>
+        <v>56900</v>
       </c>
       <c r="I62" s="3">
-        <v>118000</v>
+        <v>82900</v>
       </c>
       <c r="J62" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K62" s="3">
         <v>90200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>204600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>133900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>147000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>174000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>200100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>152100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1910400</v>
+        <v>1906300</v>
       </c>
       <c r="E66" s="3">
-        <v>2016400</v>
+        <v>1835400</v>
       </c>
       <c r="F66" s="3">
-        <v>1964800</v>
+        <v>1937200</v>
       </c>
       <c r="G66" s="3">
-        <v>1980200</v>
+        <v>1887700</v>
       </c>
       <c r="H66" s="3">
-        <v>1847000</v>
+        <v>1902400</v>
       </c>
       <c r="I66" s="3">
-        <v>1451600</v>
+        <v>1774500</v>
       </c>
       <c r="J66" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1429300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1538200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1421100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1119000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1410400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1260900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1212300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1713200</v>
+        <v>1731600</v>
       </c>
       <c r="E72" s="3">
-        <v>1634500</v>
+        <v>1645900</v>
       </c>
       <c r="F72" s="3">
-        <v>1503700</v>
+        <v>1570300</v>
       </c>
       <c r="G72" s="3">
-        <v>1518800</v>
+        <v>1444600</v>
       </c>
       <c r="H72" s="3">
-        <v>1522800</v>
+        <v>1459200</v>
       </c>
       <c r="I72" s="3">
-        <v>1523100</v>
+        <v>1463000</v>
       </c>
       <c r="J72" s="3">
+        <v>1463300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1481500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1441000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1538500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1329500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1197200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1423400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1252100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1392000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2026900</v>
+        <v>2032900</v>
       </c>
       <c r="E76" s="3">
-        <v>1948100</v>
+        <v>1947300</v>
       </c>
       <c r="F76" s="3">
-        <v>1817300</v>
+        <v>1871600</v>
       </c>
       <c r="G76" s="3">
-        <v>1832500</v>
+        <v>1745900</v>
       </c>
       <c r="H76" s="3">
-        <v>1836500</v>
+        <v>1760500</v>
       </c>
       <c r="I76" s="3">
-        <v>1836800</v>
+        <v>1764300</v>
       </c>
       <c r="J76" s="3">
+        <v>1764600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1795200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1773200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1885300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1638200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1494900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1780300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1609000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1760900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>84500</v>
+        <v>75800</v>
       </c>
       <c r="E81" s="3">
-        <v>83400</v>
+        <v>81200</v>
       </c>
       <c r="F81" s="3">
-        <v>67000</v>
+        <v>80100</v>
       </c>
       <c r="G81" s="3">
-        <v>-18800</v>
+        <v>64400</v>
       </c>
       <c r="H81" s="3">
-        <v>52000</v>
+        <v>-18000</v>
       </c>
       <c r="I81" s="3">
-        <v>90100</v>
+        <v>49900</v>
       </c>
       <c r="J81" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K81" s="3">
         <v>80600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>82600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>121100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>165400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,34 +4227,35 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>216600</v>
+        <v>208100</v>
       </c>
       <c r="E83" s="3">
-        <v>218300</v>
+        <v>208100</v>
       </c>
       <c r="F83" s="3">
-        <v>208400</v>
+        <v>209700</v>
       </c>
       <c r="G83" s="3">
-        <v>217600</v>
+        <v>200300</v>
       </c>
       <c r="H83" s="3">
-        <v>211900</v>
-      </c>
-      <c r="I83" s="3" t="s">
+        <v>209000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>203600</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>173300</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
@@ -4067,8 +4266,8 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>223500</v>
+        <v>271700</v>
       </c>
       <c r="E89" s="3">
-        <v>461000</v>
+        <v>214700</v>
       </c>
       <c r="F89" s="3">
-        <v>211900</v>
+        <v>449300</v>
       </c>
       <c r="G89" s="3">
-        <v>419000</v>
+        <v>203600</v>
       </c>
       <c r="H89" s="3">
-        <v>112900</v>
+        <v>402500</v>
       </c>
       <c r="I89" s="3">
-        <v>220100</v>
+        <v>108400</v>
       </c>
       <c r="J89" s="3">
+        <v>211400</v>
+      </c>
+      <c r="K89" s="3">
         <v>134300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>101000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>220700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>104000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>414700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-248600</v>
+        <v>-240400</v>
       </c>
       <c r="E91" s="3">
-        <v>-325400</v>
+        <v>-238900</v>
       </c>
       <c r="F91" s="3">
-        <v>-182200</v>
+        <v>-312600</v>
       </c>
       <c r="G91" s="3">
-        <v>-217900</v>
+        <v>-175000</v>
       </c>
       <c r="H91" s="3">
+        <v>-209400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-250800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-261000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-271700</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-199400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-248800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-264600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-292400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-202700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-263400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-140400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-588900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-260400</v>
+        <v>-304600</v>
       </c>
       <c r="E94" s="3">
-        <v>-338100</v>
+        <v>-250200</v>
       </c>
       <c r="F94" s="3">
-        <v>-162200</v>
+        <v>-324800</v>
       </c>
       <c r="G94" s="3">
-        <v>-123400</v>
+        <v>-155900</v>
       </c>
       <c r="H94" s="3">
-        <v>-246800</v>
+        <v>-118600</v>
       </c>
       <c r="I94" s="3">
-        <v>-271600</v>
+        <v>-237100</v>
       </c>
       <c r="J94" s="3">
+        <v>-260900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-195600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-180200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-258200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-286400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-350200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-212900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-205000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4669,8 +4903,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,99 +5062,105 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63300</v>
+        <v>24000</v>
       </c>
       <c r="E100" s="3">
-        <v>-80000</v>
+        <v>-60800</v>
       </c>
       <c r="F100" s="3">
-        <v>-75400</v>
+        <v>-69000</v>
       </c>
       <c r="G100" s="3">
-        <v>-64300</v>
+        <v>-72400</v>
       </c>
       <c r="H100" s="3">
-        <v>107500</v>
+        <v>-61800</v>
       </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>103300</v>
       </c>
       <c r="J100" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K100" s="3">
         <v>38400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-29700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>145300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>65100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100200</v>
+        <v>-8900</v>
       </c>
       <c r="E102" s="3">
-        <v>68100</v>
+        <v>-96300</v>
       </c>
       <c r="F102" s="3">
-        <v>-51000</v>
+        <v>65500</v>
       </c>
       <c r="G102" s="3">
-        <v>231300</v>
+        <v>-49000</v>
       </c>
       <c r="H102" s="3">
-        <v>-26500</v>
+        <v>222200</v>
       </c>
       <c r="I102" s="3">
-        <v>-44400</v>
+        <v>-25400</v>
       </c>
       <c r="J102" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>89100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>126300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-201600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1280800</v>
+        <v>1235700</v>
       </c>
       <c r="E8" s="3">
-        <v>1270500</v>
+        <v>1225800</v>
       </c>
       <c r="F8" s="3">
-        <v>1302400</v>
+        <v>1256500</v>
       </c>
       <c r="G8" s="3">
-        <v>1276700</v>
+        <v>1231800</v>
       </c>
       <c r="H8" s="3">
-        <v>1286700</v>
+        <v>1241400</v>
       </c>
       <c r="I8" s="3">
-        <v>1281700</v>
+        <v>1236500</v>
       </c>
       <c r="J8" s="3">
-        <v>1268800</v>
+        <v>1224100</v>
       </c>
       <c r="K8" s="3">
         <v>1273900</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>284400</v>
+        <v>274400</v>
       </c>
       <c r="E9" s="3">
-        <v>255100</v>
+        <v>246100</v>
       </c>
       <c r="F9" s="3">
-        <v>264800</v>
+        <v>255400</v>
       </c>
       <c r="G9" s="3">
-        <v>251900</v>
+        <v>243100</v>
       </c>
       <c r="H9" s="3">
-        <v>273100</v>
+        <v>263500</v>
       </c>
       <c r="I9" s="3">
-        <v>282300</v>
+        <v>272400</v>
       </c>
       <c r="J9" s="3">
-        <v>272900</v>
+        <v>263300</v>
       </c>
       <c r="K9" s="3">
         <v>419100</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>996400</v>
+        <v>961300</v>
       </c>
       <c r="E10" s="3">
-        <v>1015400</v>
+        <v>979700</v>
       </c>
       <c r="F10" s="3">
-        <v>1037600</v>
+        <v>1001100</v>
       </c>
       <c r="G10" s="3">
-        <v>1024800</v>
+        <v>988700</v>
       </c>
       <c r="H10" s="3">
-        <v>1013600</v>
+        <v>977900</v>
       </c>
       <c r="I10" s="3">
-        <v>999400</v>
+        <v>964200</v>
       </c>
       <c r="J10" s="3">
-        <v>995900</v>
+        <v>960800</v>
       </c>
       <c r="K10" s="3">
         <v>854800</v>
@@ -1038,25 +1038,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="G14" s="3">
         <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J14" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="K14" s="3">
         <v>5300</v>
@@ -1091,25 +1091,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>197800</v>
+        <v>190800</v>
       </c>
       <c r="E15" s="3">
-        <v>203700</v>
+        <v>196500</v>
       </c>
       <c r="F15" s="3">
-        <v>198900</v>
+        <v>191900</v>
       </c>
       <c r="G15" s="3">
-        <v>199100</v>
+        <v>192100</v>
       </c>
       <c r="H15" s="3">
-        <v>188000</v>
+        <v>181400</v>
       </c>
       <c r="I15" s="3">
-        <v>199900</v>
+        <v>192900</v>
       </c>
       <c r="J15" s="3">
-        <v>169400</v>
+        <v>163400</v>
       </c>
       <c r="K15" s="3">
         <v>168000</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1135000</v>
+        <v>1095000</v>
       </c>
       <c r="E17" s="3">
-        <v>1121900</v>
+        <v>1082400</v>
       </c>
       <c r="F17" s="3">
-        <v>1166300</v>
+        <v>1125200</v>
       </c>
       <c r="G17" s="3">
-        <v>1124400</v>
+        <v>1084800</v>
       </c>
       <c r="H17" s="3">
-        <v>1258600</v>
+        <v>1214300</v>
       </c>
       <c r="I17" s="3">
-        <v>1153500</v>
+        <v>1112900</v>
       </c>
       <c r="J17" s="3">
-        <v>1115200</v>
+        <v>1076000</v>
       </c>
       <c r="K17" s="3">
         <v>1137700</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>145800</v>
+        <v>140600</v>
       </c>
       <c r="E18" s="3">
-        <v>148600</v>
+        <v>143300</v>
       </c>
       <c r="F18" s="3">
-        <v>136100</v>
+        <v>131300</v>
       </c>
       <c r="G18" s="3">
-        <v>152300</v>
+        <v>146900</v>
       </c>
       <c r="H18" s="3">
-        <v>28100</v>
+        <v>27100</v>
       </c>
       <c r="I18" s="3">
-        <v>128200</v>
+        <v>123700</v>
       </c>
       <c r="J18" s="3">
-        <v>153500</v>
+        <v>148100</v>
       </c>
       <c r="K18" s="3">
         <v>136300</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="E20" s="3">
-        <v>-20300</v>
+        <v>-19600</v>
       </c>
       <c r="F20" s="3">
-        <v>-13200</v>
+        <v>-12700</v>
       </c>
       <c r="G20" s="3">
-        <v>-40100</v>
+        <v>-38700</v>
       </c>
       <c r="H20" s="3">
-        <v>-34500</v>
+        <v>-33300</v>
       </c>
       <c r="I20" s="3">
-        <v>-45700</v>
+        <v>-44100</v>
       </c>
       <c r="J20" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="K20" s="3">
         <v>-20400</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>333300</v>
+        <v>321500</v>
       </c>
       <c r="E21" s="3">
-        <v>336400</v>
+        <v>324600</v>
       </c>
       <c r="F21" s="3">
-        <v>332600</v>
+        <v>320900</v>
       </c>
       <c r="G21" s="3">
-        <v>312400</v>
+        <v>301400</v>
       </c>
       <c r="H21" s="3">
-        <v>202600</v>
+        <v>195500</v>
       </c>
       <c r="I21" s="3">
-        <v>286100</v>
+        <v>276000</v>
       </c>
       <c r="J21" s="3">
-        <v>130000</v>
+        <v>125400</v>
       </c>
       <c r="K21" s="3">
         <v>289200</v>
@@ -1395,22 +1395,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="F22" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G22" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="H22" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="I22" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>111700</v>
+        <v>107800</v>
       </c>
       <c r="E23" s="3">
-        <v>114900</v>
+        <v>110900</v>
       </c>
       <c r="F23" s="3">
-        <v>109700</v>
+        <v>105800</v>
       </c>
       <c r="G23" s="3">
-        <v>98900</v>
+        <v>95400</v>
       </c>
       <c r="H23" s="3">
-        <v>-17500</v>
+        <v>-16900</v>
       </c>
       <c r="I23" s="3">
-        <v>71500</v>
+        <v>69000</v>
       </c>
       <c r="J23" s="3">
-        <v>127800</v>
+        <v>123300</v>
       </c>
       <c r="K23" s="3">
         <v>115900</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35900</v>
+        <v>34700</v>
       </c>
       <c r="E24" s="3">
-        <v>33700</v>
+        <v>32500</v>
       </c>
       <c r="F24" s="3">
-        <v>29300</v>
+        <v>28300</v>
       </c>
       <c r="G24" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
       </c>
       <c r="I24" s="3">
-        <v>21400</v>
+        <v>20600</v>
       </c>
       <c r="J24" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="K24" s="3">
         <v>29900</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E26" s="3">
-        <v>81200</v>
+        <v>78400</v>
       </c>
       <c r="F26" s="3">
-        <v>80400</v>
+        <v>77500</v>
       </c>
       <c r="G26" s="3">
-        <v>64500</v>
+        <v>62200</v>
       </c>
       <c r="H26" s="3">
-        <v>-18000</v>
+        <v>-17300</v>
       </c>
       <c r="I26" s="3">
-        <v>50200</v>
+        <v>48400</v>
       </c>
       <c r="J26" s="3">
-        <v>86300</v>
+        <v>83200</v>
       </c>
       <c r="K26" s="3">
         <v>86000</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E27" s="3">
-        <v>81200</v>
+        <v>78300</v>
       </c>
       <c r="F27" s="3">
-        <v>80100</v>
+        <v>77300</v>
       </c>
       <c r="G27" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="H27" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="I27" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="J27" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="K27" s="3">
         <v>80600</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="E32" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="F32" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="G32" s="3">
-        <v>40100</v>
+        <v>38700</v>
       </c>
       <c r="H32" s="3">
-        <v>34500</v>
+        <v>33300</v>
       </c>
       <c r="I32" s="3">
-        <v>45700</v>
+        <v>44100</v>
       </c>
       <c r="J32" s="3">
-        <v>25800</v>
+        <v>24900</v>
       </c>
       <c r="K32" s="3">
         <v>20400</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E33" s="3">
-        <v>81200</v>
+        <v>78300</v>
       </c>
       <c r="F33" s="3">
-        <v>80100</v>
+        <v>77300</v>
       </c>
       <c r="G33" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="H33" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="I33" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="J33" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="K33" s="3">
         <v>80600</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E35" s="3">
-        <v>81200</v>
+        <v>78300</v>
       </c>
       <c r="F35" s="3">
-        <v>80100</v>
+        <v>77300</v>
       </c>
       <c r="G35" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="H35" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="I35" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="J35" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="K35" s="3">
         <v>80600</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>185200</v>
+        <v>178700</v>
       </c>
       <c r="E41" s="3">
-        <v>177200</v>
+        <v>171000</v>
       </c>
       <c r="F41" s="3">
-        <v>217000</v>
+        <v>209400</v>
       </c>
       <c r="G41" s="3">
-        <v>169200</v>
+        <v>163200</v>
       </c>
       <c r="H41" s="3">
-        <v>131800</v>
+        <v>127100</v>
       </c>
       <c r="I41" s="3">
-        <v>72700</v>
+        <v>70100</v>
       </c>
       <c r="J41" s="3">
-        <v>78000</v>
+        <v>75300</v>
       </c>
       <c r="K41" s="3">
         <v>96700</v>
@@ -2290,25 +2290,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="E42" s="3">
-        <v>38400</v>
+        <v>37000</v>
       </c>
       <c r="F42" s="3">
-        <v>90400</v>
+        <v>87200</v>
       </c>
       <c r="G42" s="3">
-        <v>83100</v>
+        <v>80100</v>
       </c>
       <c r="H42" s="3">
-        <v>208000</v>
+        <v>200700</v>
       </c>
       <c r="I42" s="3">
-        <v>122000</v>
+        <v>117700</v>
       </c>
       <c r="J42" s="3">
-        <v>124200</v>
+        <v>119800</v>
       </c>
       <c r="K42" s="3">
         <v>142000</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>563800</v>
+        <v>543900</v>
       </c>
       <c r="E43" s="3">
-        <v>411700</v>
+        <v>397200</v>
       </c>
       <c r="F43" s="3">
-        <v>524800</v>
+        <v>506300</v>
       </c>
       <c r="G43" s="3">
-        <v>438800</v>
+        <v>423400</v>
       </c>
       <c r="H43" s="3">
-        <v>522400</v>
+        <v>504000</v>
       </c>
       <c r="I43" s="3">
-        <v>551800</v>
+        <v>532300</v>
       </c>
       <c r="J43" s="3">
-        <v>604300</v>
+        <v>583000</v>
       </c>
       <c r="K43" s="3">
         <v>596400</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64700</v>
+        <v>62400</v>
       </c>
       <c r="E44" s="3">
-        <v>71200</v>
+        <v>68700</v>
       </c>
       <c r="F44" s="3">
-        <v>61200</v>
+        <v>59100</v>
       </c>
       <c r="G44" s="3">
-        <v>50700</v>
+        <v>48900</v>
       </c>
       <c r="H44" s="3">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="I44" s="3">
-        <v>71200</v>
+        <v>68700</v>
       </c>
       <c r="J44" s="3">
-        <v>75600</v>
+        <v>72900</v>
       </c>
       <c r="K44" s="3">
         <v>86000</v>
@@ -2449,22 +2449,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="E45" s="3">
-        <v>163300</v>
+        <v>157600</v>
       </c>
       <c r="F45" s="3">
-        <v>57100</v>
+        <v>55100</v>
       </c>
       <c r="G45" s="3">
-        <v>184300</v>
+        <v>177800</v>
       </c>
       <c r="H45" s="3">
-        <v>53300</v>
+        <v>51500</v>
       </c>
       <c r="I45" s="3">
-        <v>127400</v>
+        <v>122900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>962100</v>
+        <v>928300</v>
       </c>
       <c r="E46" s="3">
-        <v>861800</v>
+        <v>831400</v>
       </c>
       <c r="F46" s="3">
-        <v>950500</v>
+        <v>917100</v>
       </c>
       <c r="G46" s="3">
-        <v>926000</v>
+        <v>893400</v>
       </c>
       <c r="H46" s="3">
-        <v>973500</v>
+        <v>939300</v>
       </c>
       <c r="I46" s="3">
-        <v>945100</v>
+        <v>911900</v>
       </c>
       <c r="J46" s="3">
-        <v>882100</v>
+        <v>851100</v>
       </c>
       <c r="K46" s="3">
         <v>944600</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="E47" s="3">
-        <v>26200</v>
+        <v>25300</v>
       </c>
       <c r="F47" s="3">
-        <v>27800</v>
+        <v>26800</v>
       </c>
       <c r="G47" s="3">
-        <v>22900</v>
+        <v>22100</v>
       </c>
       <c r="H47" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="I47" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="J47" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
       <c r="K47" s="3">
         <v>27500</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2581600</v>
+        <v>2490700</v>
       </c>
       <c r="E48" s="3">
-        <v>2500300</v>
+        <v>2412300</v>
       </c>
       <c r="F48" s="3">
-        <v>2433900</v>
+        <v>2348300</v>
       </c>
       <c r="G48" s="3">
-        <v>2275500</v>
+        <v>2195400</v>
       </c>
       <c r="H48" s="3">
-        <v>2274000</v>
+        <v>2194000</v>
       </c>
       <c r="I48" s="3">
-        <v>2214800</v>
+        <v>2136900</v>
       </c>
       <c r="J48" s="3">
-        <v>1911500</v>
+        <v>1844300</v>
       </c>
       <c r="K48" s="3">
         <v>1908300</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>253500</v>
+        <v>244600</v>
       </c>
       <c r="E49" s="3">
-        <v>266300</v>
+        <v>256900</v>
       </c>
       <c r="F49" s="3">
-        <v>274800</v>
+        <v>265100</v>
       </c>
       <c r="G49" s="3">
-        <v>275300</v>
+        <v>265600</v>
       </c>
       <c r="H49" s="3">
-        <v>282800</v>
+        <v>272800</v>
       </c>
       <c r="I49" s="3">
-        <v>279100</v>
+        <v>269300</v>
       </c>
       <c r="J49" s="3">
-        <v>269800</v>
+        <v>260300</v>
       </c>
       <c r="K49" s="3">
         <v>285600</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>111800</v>
+        <v>107900</v>
       </c>
       <c r="E52" s="3">
-        <v>128100</v>
+        <v>123600</v>
       </c>
       <c r="F52" s="3">
-        <v>121700</v>
+        <v>117400</v>
       </c>
       <c r="G52" s="3">
-        <v>134000</v>
+        <v>129200</v>
       </c>
       <c r="H52" s="3">
-        <v>108600</v>
+        <v>104800</v>
       </c>
       <c r="I52" s="3">
-        <v>72000</v>
+        <v>69400</v>
       </c>
       <c r="J52" s="3">
-        <v>70600</v>
+        <v>68200</v>
       </c>
       <c r="K52" s="3">
         <v>58400</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3939200</v>
+        <v>3800600</v>
       </c>
       <c r="E54" s="3">
-        <v>3782700</v>
+        <v>3649500</v>
       </c>
       <c r="F54" s="3">
-        <v>3808800</v>
+        <v>3674800</v>
       </c>
       <c r="G54" s="3">
-        <v>3633600</v>
+        <v>3505700</v>
       </c>
       <c r="H54" s="3">
-        <v>3662900</v>
+        <v>3534000</v>
       </c>
       <c r="I54" s="3">
-        <v>3538800</v>
+        <v>3414200</v>
       </c>
       <c r="J54" s="3">
-        <v>3159200</v>
+        <v>3048000</v>
       </c>
       <c r="K54" s="3">
         <v>3224400</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>616900</v>
+        <v>595200</v>
       </c>
       <c r="E57" s="3">
-        <v>624400</v>
+        <v>602400</v>
       </c>
       <c r="F57" s="3">
-        <v>408000</v>
+        <v>393600</v>
       </c>
       <c r="G57" s="3">
-        <v>528400</v>
+        <v>509800</v>
       </c>
       <c r="H57" s="3">
-        <v>303400</v>
+        <v>292700</v>
       </c>
       <c r="I57" s="3">
-        <v>454400</v>
+        <v>438500</v>
       </c>
       <c r="J57" s="3">
-        <v>435700</v>
+        <v>420400</v>
       </c>
       <c r="K57" s="3">
         <v>189700</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>283100</v>
+        <v>273200</v>
       </c>
       <c r="E58" s="3">
-        <v>196000</v>
+        <v>189100</v>
       </c>
       <c r="F58" s="3">
-        <v>113700</v>
+        <v>109700</v>
       </c>
       <c r="G58" s="3">
-        <v>132200</v>
+        <v>127500</v>
       </c>
       <c r="H58" s="3">
-        <v>177200</v>
+        <v>170900</v>
       </c>
       <c r="I58" s="3">
-        <v>310000</v>
+        <v>299100</v>
       </c>
       <c r="J58" s="3">
-        <v>322300</v>
+        <v>310900</v>
       </c>
       <c r="K58" s="3">
         <v>170300</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>206900</v>
+        <v>199600</v>
       </c>
       <c r="E59" s="3">
-        <v>188700</v>
+        <v>182000</v>
       </c>
       <c r="F59" s="3">
-        <v>514800</v>
+        <v>496700</v>
       </c>
       <c r="G59" s="3">
-        <v>290600</v>
+        <v>280400</v>
       </c>
       <c r="H59" s="3">
-        <v>542500</v>
+        <v>523400</v>
       </c>
       <c r="I59" s="3">
-        <v>222700</v>
+        <v>214900</v>
       </c>
       <c r="J59" s="3">
-        <v>222700</v>
+        <v>214900</v>
       </c>
       <c r="K59" s="3">
         <v>496300</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1106900</v>
+        <v>1068000</v>
       </c>
       <c r="E60" s="3">
-        <v>1009100</v>
+        <v>973600</v>
       </c>
       <c r="F60" s="3">
-        <v>1036400</v>
+        <v>999900</v>
       </c>
       <c r="G60" s="3">
-        <v>951100</v>
+        <v>917700</v>
       </c>
       <c r="H60" s="3">
-        <v>1023000</v>
+        <v>987000</v>
       </c>
       <c r="I60" s="3">
-        <v>987200</v>
+        <v>952400</v>
       </c>
       <c r="J60" s="3">
-        <v>980700</v>
+        <v>946200</v>
       </c>
       <c r="K60" s="3">
         <v>856300</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>749500</v>
+        <v>723100</v>
       </c>
       <c r="E61" s="3">
-        <v>761300</v>
+        <v>734500</v>
       </c>
       <c r="F61" s="3">
-        <v>831400</v>
+        <v>802200</v>
       </c>
       <c r="G61" s="3">
-        <v>814000</v>
+        <v>785300</v>
       </c>
       <c r="H61" s="3">
-        <v>824200</v>
+        <v>795200</v>
       </c>
       <c r="I61" s="3">
-        <v>706300</v>
+        <v>681400</v>
       </c>
       <c r="J61" s="3">
-        <v>288800</v>
+        <v>278600</v>
       </c>
       <c r="K61" s="3">
         <v>459700</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>51400</v>
+        <v>49600</v>
       </c>
       <c r="E62" s="3">
-        <v>66600</v>
+        <v>64200</v>
       </c>
       <c r="F62" s="3">
-        <v>70800</v>
+        <v>68300</v>
       </c>
       <c r="G62" s="3">
-        <v>124200</v>
+        <v>119900</v>
       </c>
       <c r="H62" s="3">
-        <v>56900</v>
+        <v>54900</v>
       </c>
       <c r="I62" s="3">
-        <v>82900</v>
+        <v>80000</v>
       </c>
       <c r="J62" s="3">
-        <v>113400</v>
+        <v>109400</v>
       </c>
       <c r="K62" s="3">
         <v>90200</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1906300</v>
+        <v>1839200</v>
       </c>
       <c r="E66" s="3">
+        <v>1770800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1821200</v>
+      </c>
+      <c r="H66" s="3">
         <v>1835400</v>
       </c>
-      <c r="F66" s="3">
-        <v>1937200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1887700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1902400</v>
-      </c>
       <c r="I66" s="3">
-        <v>1774500</v>
+        <v>1712000</v>
       </c>
       <c r="J66" s="3">
-        <v>1394500</v>
+        <v>1345500</v>
       </c>
       <c r="K66" s="3">
         <v>1429300</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1731600</v>
+        <v>1670600</v>
       </c>
       <c r="E72" s="3">
-        <v>1645900</v>
+        <v>1588000</v>
       </c>
       <c r="F72" s="3">
-        <v>1570300</v>
+        <v>1515000</v>
       </c>
       <c r="G72" s="3">
-        <v>1444600</v>
+        <v>1393800</v>
       </c>
       <c r="H72" s="3">
-        <v>1459200</v>
+        <v>1407800</v>
       </c>
       <c r="I72" s="3">
-        <v>1463000</v>
+        <v>1411500</v>
       </c>
       <c r="J72" s="3">
-        <v>1463300</v>
+        <v>1411800</v>
       </c>
       <c r="K72" s="3">
         <v>1481500</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2032900</v>
+        <v>1961400</v>
       </c>
       <c r="E76" s="3">
-        <v>1947300</v>
+        <v>1878700</v>
       </c>
       <c r="F76" s="3">
-        <v>1871600</v>
+        <v>1805700</v>
       </c>
       <c r="G76" s="3">
-        <v>1745900</v>
+        <v>1684500</v>
       </c>
       <c r="H76" s="3">
-        <v>1760500</v>
+        <v>1698500</v>
       </c>
       <c r="I76" s="3">
-        <v>1764300</v>
+        <v>1702200</v>
       </c>
       <c r="J76" s="3">
-        <v>1764600</v>
+        <v>1702500</v>
       </c>
       <c r="K76" s="3">
         <v>1795200</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75800</v>
+        <v>73100</v>
       </c>
       <c r="E81" s="3">
-        <v>81200</v>
+        <v>78300</v>
       </c>
       <c r="F81" s="3">
-        <v>80100</v>
+        <v>77300</v>
       </c>
       <c r="G81" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="H81" s="3">
-        <v>-18000</v>
+        <v>-17400</v>
       </c>
       <c r="I81" s="3">
-        <v>49900</v>
+        <v>48200</v>
       </c>
       <c r="J81" s="3">
-        <v>86600</v>
+        <v>83500</v>
       </c>
       <c r="K81" s="3">
         <v>80600</v>
@@ -4234,22 +4234,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>208100</v>
+        <v>200700</v>
       </c>
       <c r="E83" s="3">
-        <v>208100</v>
+        <v>200800</v>
       </c>
       <c r="F83" s="3">
-        <v>209700</v>
+        <v>202300</v>
       </c>
       <c r="G83" s="3">
-        <v>200300</v>
+        <v>193200</v>
       </c>
       <c r="H83" s="3">
-        <v>209000</v>
+        <v>201700</v>
       </c>
       <c r="I83" s="3">
-        <v>203600</v>
+        <v>196400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>271700</v>
+        <v>262200</v>
       </c>
       <c r="E89" s="3">
-        <v>214700</v>
+        <v>207100</v>
       </c>
       <c r="F89" s="3">
-        <v>449300</v>
+        <v>433400</v>
       </c>
       <c r="G89" s="3">
-        <v>203600</v>
+        <v>196400</v>
       </c>
       <c r="H89" s="3">
-        <v>402500</v>
+        <v>388400</v>
       </c>
       <c r="I89" s="3">
-        <v>108400</v>
+        <v>104600</v>
       </c>
       <c r="J89" s="3">
-        <v>211400</v>
+        <v>204000</v>
       </c>
       <c r="K89" s="3">
         <v>134300</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-240400</v>
+        <v>-231900</v>
       </c>
       <c r="E91" s="3">
-        <v>-238900</v>
+        <v>-230500</v>
       </c>
       <c r="F91" s="3">
-        <v>-312600</v>
+        <v>-301600</v>
       </c>
       <c r="G91" s="3">
-        <v>-175000</v>
+        <v>-168900</v>
       </c>
       <c r="H91" s="3">
-        <v>-209400</v>
+        <v>-202000</v>
       </c>
       <c r="I91" s="3">
-        <v>-250800</v>
+        <v>-242000</v>
       </c>
       <c r="J91" s="3">
-        <v>-261000</v>
+        <v>-251800</v>
       </c>
       <c r="K91" s="3">
         <v>-199400</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-304600</v>
+        <v>-293900</v>
       </c>
       <c r="E94" s="3">
-        <v>-250200</v>
+        <v>-241400</v>
       </c>
       <c r="F94" s="3">
-        <v>-324800</v>
+        <v>-313400</v>
       </c>
       <c r="G94" s="3">
-        <v>-155900</v>
+        <v>-150400</v>
       </c>
       <c r="H94" s="3">
-        <v>-118600</v>
+        <v>-114400</v>
       </c>
       <c r="I94" s="3">
-        <v>-237100</v>
+        <v>-228800</v>
       </c>
       <c r="J94" s="3">
-        <v>-260900</v>
+        <v>-251800</v>
       </c>
       <c r="K94" s="3">
         <v>-195600</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24000</v>
+        <v>23100</v>
       </c>
       <c r="E100" s="3">
-        <v>-60800</v>
+        <v>-58700</v>
       </c>
       <c r="F100" s="3">
-        <v>-69000</v>
+        <v>-66600</v>
       </c>
       <c r="G100" s="3">
-        <v>-72400</v>
+        <v>-69900</v>
       </c>
       <c r="H100" s="3">
-        <v>-61800</v>
+        <v>-59600</v>
       </c>
       <c r="I100" s="3">
-        <v>103300</v>
+        <v>99700</v>
       </c>
       <c r="J100" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K100" s="3">
         <v>38400</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>-96300</v>
+        <v>-92900</v>
       </c>
       <c r="F102" s="3">
-        <v>65500</v>
+        <v>63200</v>
       </c>
       <c r="G102" s="3">
-        <v>-49000</v>
+        <v>-47300</v>
       </c>
       <c r="H102" s="3">
-        <v>222200</v>
+        <v>214400</v>
       </c>
       <c r="I102" s="3">
-        <v>-25400</v>
+        <v>-24500</v>
       </c>
       <c r="J102" s="3">
-        <v>-42700</v>
+        <v>-41200</v>
       </c>
       <c r="K102" s="3">
         <v>-23900</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1235700</v>
+        <v>1139400</v>
       </c>
       <c r="E8" s="3">
-        <v>1225800</v>
+        <v>1156300</v>
       </c>
       <c r="F8" s="3">
-        <v>1256500</v>
+        <v>1147000</v>
       </c>
       <c r="G8" s="3">
-        <v>1231800</v>
+        <v>1175800</v>
       </c>
       <c r="H8" s="3">
-        <v>1241400</v>
+        <v>1152600</v>
       </c>
       <c r="I8" s="3">
-        <v>1236500</v>
+        <v>1161700</v>
       </c>
       <c r="J8" s="3">
+        <v>1157100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1224100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1273900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1305300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1319500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1229100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1156500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1408000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1150200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1193200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>274400</v>
+        <v>265500</v>
       </c>
       <c r="E9" s="3">
-        <v>246100</v>
+        <v>256700</v>
       </c>
       <c r="F9" s="3">
-        <v>255400</v>
+        <v>230300</v>
       </c>
       <c r="G9" s="3">
-        <v>243100</v>
+        <v>239000</v>
       </c>
       <c r="H9" s="3">
-        <v>263500</v>
+        <v>227400</v>
       </c>
       <c r="I9" s="3">
-        <v>272400</v>
+        <v>246600</v>
       </c>
       <c r="J9" s="3">
+        <v>254900</v>
+      </c>
+      <c r="K9" s="3">
         <v>263300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>419100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>399200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>270200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>285000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>246300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>307000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>252600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>961300</v>
+        <v>873800</v>
       </c>
       <c r="E10" s="3">
-        <v>979700</v>
+        <v>899500</v>
       </c>
       <c r="F10" s="3">
-        <v>1001100</v>
+        <v>916700</v>
       </c>
       <c r="G10" s="3">
-        <v>988700</v>
+        <v>936700</v>
       </c>
       <c r="H10" s="3">
-        <v>977900</v>
+        <v>925200</v>
       </c>
       <c r="I10" s="3">
-        <v>964200</v>
+        <v>915100</v>
       </c>
       <c r="J10" s="3">
+        <v>902200</v>
+      </c>
+      <c r="K10" s="3">
         <v>960800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>854800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>906100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1049300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>944100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>910300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>922300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>940600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,114 +1049,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9900</v>
+        <v>4600</v>
       </c>
       <c r="E14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O14" s="3">
         <v>4300</v>
       </c>
-      <c r="F14" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>20300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>190800</v>
+        <v>186600</v>
       </c>
       <c r="E15" s="3">
-        <v>196500</v>
+        <v>178600</v>
       </c>
       <c r="F15" s="3">
-        <v>191900</v>
+        <v>183900</v>
       </c>
       <c r="G15" s="3">
-        <v>192100</v>
+        <v>179500</v>
       </c>
       <c r="H15" s="3">
-        <v>181400</v>
+        <v>179800</v>
       </c>
       <c r="I15" s="3">
-        <v>192900</v>
+        <v>169700</v>
       </c>
       <c r="J15" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K15" s="3">
         <v>163400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>168000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>187000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>179400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>168200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>153200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>188100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>177100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>201000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1095000</v>
+        <v>1064300</v>
       </c>
       <c r="E17" s="3">
-        <v>1082400</v>
+        <v>1024700</v>
       </c>
       <c r="F17" s="3">
-        <v>1125200</v>
+        <v>1012900</v>
       </c>
       <c r="G17" s="3">
-        <v>1084800</v>
+        <v>1052900</v>
       </c>
       <c r="H17" s="3">
-        <v>1214300</v>
+        <v>1015100</v>
       </c>
       <c r="I17" s="3">
-        <v>1112900</v>
+        <v>1136300</v>
       </c>
       <c r="J17" s="3">
+        <v>1041400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1076000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1137700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1152200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1152400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1071100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1010800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1245200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1088400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1069500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140600</v>
+        <v>75000</v>
       </c>
       <c r="E18" s="3">
-        <v>143300</v>
+        <v>131600</v>
       </c>
       <c r="F18" s="3">
-        <v>131300</v>
+        <v>134100</v>
       </c>
       <c r="G18" s="3">
-        <v>146900</v>
+        <v>122900</v>
       </c>
       <c r="H18" s="3">
-        <v>27100</v>
+        <v>137500</v>
       </c>
       <c r="I18" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>148100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>136300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>153100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>167100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>157900</v>
+      </c>
+      <c r="P18" s="3">
+        <v>145700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>162900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>61800</v>
+      </c>
+      <c r="S18" s="3">
         <v>123700</v>
       </c>
-      <c r="J18" s="3">
-        <v>148100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>136300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>153100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>167100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>157900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>145700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>162900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>61800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>123700</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,114 +1316,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19900</v>
+        <v>-13800</v>
       </c>
       <c r="E20" s="3">
-        <v>-19600</v>
+        <v>-18600</v>
       </c>
       <c r="F20" s="3">
-        <v>-12700</v>
+        <v>-18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-38700</v>
+        <v>-11900</v>
       </c>
       <c r="H20" s="3">
-        <v>-33300</v>
+        <v>-36200</v>
       </c>
       <c r="I20" s="3">
-        <v>-44100</v>
+        <v>-31200</v>
       </c>
       <c r="J20" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>321500</v>
+        <v>252400</v>
       </c>
       <c r="E21" s="3">
-        <v>324600</v>
+        <v>300900</v>
       </c>
       <c r="F21" s="3">
-        <v>320900</v>
+        <v>303700</v>
       </c>
       <c r="G21" s="3">
-        <v>301400</v>
+        <v>300300</v>
       </c>
       <c r="H21" s="3">
-        <v>195500</v>
+        <v>282100</v>
       </c>
       <c r="I21" s="3">
-        <v>276000</v>
+        <v>182900</v>
       </c>
       <c r="J21" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K21" s="3">
         <v>125400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>289200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>134000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>327400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>280600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>224000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>334600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,22 +1438,22 @@
         <v>13000</v>
       </c>
       <c r="E22" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="F22" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="G22" s="3">
-        <v>12800</v>
+        <v>12000</v>
       </c>
       <c r="H22" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="I22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>10000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1424,14 +1464,14 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107800</v>
+        <v>48200</v>
       </c>
       <c r="E23" s="3">
-        <v>110900</v>
+        <v>100800</v>
       </c>
       <c r="F23" s="3">
-        <v>105800</v>
+        <v>103800</v>
       </c>
       <c r="G23" s="3">
-        <v>95400</v>
+        <v>99000</v>
       </c>
       <c r="H23" s="3">
-        <v>-16900</v>
+        <v>89300</v>
       </c>
       <c r="I23" s="3">
-        <v>69000</v>
+        <v>-15800</v>
       </c>
       <c r="J23" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K23" s="3">
         <v>123300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>124300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>147900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>133100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>131400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>149100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>118100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34700</v>
+        <v>13700</v>
       </c>
       <c r="E24" s="3">
-        <v>32500</v>
+        <v>32400</v>
       </c>
       <c r="F24" s="3">
-        <v>28300</v>
+        <v>30400</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>26500</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>31000</v>
       </c>
       <c r="I24" s="3">
-        <v>20600</v>
+        <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-25600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73100</v>
+        <v>34500</v>
       </c>
       <c r="E26" s="3">
-        <v>78400</v>
+        <v>68400</v>
       </c>
       <c r="F26" s="3">
-        <v>77500</v>
+        <v>73300</v>
       </c>
       <c r="G26" s="3">
-        <v>62200</v>
+        <v>72600</v>
       </c>
       <c r="H26" s="3">
-        <v>-17300</v>
+        <v>58200</v>
       </c>
       <c r="I26" s="3">
-        <v>48400</v>
+        <v>-16200</v>
       </c>
       <c r="J26" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K26" s="3">
         <v>83200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>90100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>108400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>124100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>117500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73100</v>
+        <v>34400</v>
       </c>
       <c r="E27" s="3">
-        <v>78300</v>
+        <v>68400</v>
       </c>
       <c r="F27" s="3">
-        <v>77300</v>
+        <v>73300</v>
       </c>
       <c r="G27" s="3">
-        <v>62100</v>
+        <v>72300</v>
       </c>
       <c r="H27" s="3">
-        <v>-17400</v>
+        <v>58100</v>
       </c>
       <c r="I27" s="3">
-        <v>48200</v>
+        <v>-16300</v>
       </c>
       <c r="J27" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K27" s="3">
         <v>83500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>82600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>121100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>112800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>139400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,8 +1850,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1807,14 +1868,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>26000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19900</v>
+        <v>13800</v>
       </c>
       <c r="E32" s="3">
-        <v>19600</v>
+        <v>18600</v>
       </c>
       <c r="F32" s="3">
-        <v>12700</v>
+        <v>18300</v>
       </c>
       <c r="G32" s="3">
-        <v>38700</v>
+        <v>11900</v>
       </c>
       <c r="H32" s="3">
-        <v>33300</v>
+        <v>36200</v>
       </c>
       <c r="I32" s="3">
-        <v>44100</v>
+        <v>31200</v>
       </c>
       <c r="J32" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K32" s="3">
         <v>24900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73100</v>
+        <v>34400</v>
       </c>
       <c r="E33" s="3">
-        <v>78300</v>
+        <v>68400</v>
       </c>
       <c r="F33" s="3">
-        <v>77300</v>
+        <v>73300</v>
       </c>
       <c r="G33" s="3">
-        <v>62100</v>
+        <v>72300</v>
       </c>
       <c r="H33" s="3">
-        <v>-17400</v>
+        <v>58100</v>
       </c>
       <c r="I33" s="3">
-        <v>48200</v>
+        <v>-16300</v>
       </c>
       <c r="J33" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K33" s="3">
         <v>83500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>80600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>82600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>121100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>112800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>165400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73100</v>
+        <v>34400</v>
       </c>
       <c r="E35" s="3">
-        <v>78300</v>
+        <v>68400</v>
       </c>
       <c r="F35" s="3">
-        <v>77300</v>
+        <v>73300</v>
       </c>
       <c r="G35" s="3">
-        <v>62100</v>
+        <v>72300</v>
       </c>
       <c r="H35" s="3">
-        <v>-17400</v>
+        <v>58100</v>
       </c>
       <c r="I35" s="3">
-        <v>48200</v>
+        <v>-16300</v>
       </c>
       <c r="J35" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K35" s="3">
         <v>83500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>80600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>82600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>121100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>112800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>165400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>178700</v>
+        <v>134600</v>
       </c>
       <c r="E41" s="3">
-        <v>171000</v>
+        <v>167200</v>
       </c>
       <c r="F41" s="3">
-        <v>209400</v>
+        <v>160000</v>
       </c>
       <c r="G41" s="3">
-        <v>163200</v>
+        <v>195900</v>
       </c>
       <c r="H41" s="3">
-        <v>127100</v>
+        <v>152700</v>
       </c>
       <c r="I41" s="3">
-        <v>70100</v>
+        <v>118900</v>
       </c>
       <c r="J41" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K41" s="3">
         <v>75300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>96700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>143500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>39400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>174600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>267600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15100</v>
+        <v>19000</v>
       </c>
       <c r="E42" s="3">
-        <v>37000</v>
+        <v>14200</v>
       </c>
       <c r="F42" s="3">
-        <v>87200</v>
+        <v>34600</v>
       </c>
       <c r="G42" s="3">
-        <v>80100</v>
+        <v>81600</v>
       </c>
       <c r="H42" s="3">
-        <v>200700</v>
+        <v>75000</v>
       </c>
       <c r="I42" s="3">
-        <v>117700</v>
+        <v>187800</v>
       </c>
       <c r="J42" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K42" s="3">
         <v>119800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>142000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>179600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>195700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>188100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>75700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>120200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>334800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>543900</v>
+        <v>593200</v>
       </c>
       <c r="E43" s="3">
-        <v>397200</v>
+        <v>509000</v>
       </c>
       <c r="F43" s="3">
-        <v>506300</v>
+        <v>371600</v>
       </c>
       <c r="G43" s="3">
-        <v>423400</v>
+        <v>473800</v>
       </c>
       <c r="H43" s="3">
-        <v>504000</v>
+        <v>396200</v>
       </c>
       <c r="I43" s="3">
-        <v>532300</v>
+        <v>471600</v>
       </c>
       <c r="J43" s="3">
+        <v>498100</v>
+      </c>
+      <c r="K43" s="3">
         <v>583000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>596400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>539900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>579200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>491400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>445900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>520300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>518300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>670700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62400</v>
+        <v>65300</v>
       </c>
       <c r="E44" s="3">
-        <v>68700</v>
+        <v>58400</v>
       </c>
       <c r="F44" s="3">
-        <v>59100</v>
+        <v>64300</v>
       </c>
       <c r="G44" s="3">
-        <v>48900</v>
+        <v>55300</v>
       </c>
       <c r="H44" s="3">
-        <v>56000</v>
+        <v>45700</v>
       </c>
       <c r="I44" s="3">
-        <v>68700</v>
+        <v>52400</v>
       </c>
       <c r="J44" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K44" s="3">
         <v>72900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>88200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>106900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>75200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>72800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>66600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>45200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>128100</v>
+        <v>24800</v>
       </c>
       <c r="E45" s="3">
-        <v>157600</v>
+        <v>119900</v>
       </c>
       <c r="F45" s="3">
-        <v>55100</v>
+        <v>147400</v>
       </c>
       <c r="G45" s="3">
-        <v>177800</v>
+        <v>51600</v>
       </c>
       <c r="H45" s="3">
-        <v>51500</v>
+        <v>166400</v>
       </c>
       <c r="I45" s="3">
-        <v>122900</v>
-      </c>
-      <c r="J45" s="3" t="s">
+        <v>48200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4200</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>160800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>928300</v>
+        <v>836900</v>
       </c>
       <c r="E46" s="3">
-        <v>831400</v>
+        <v>868600</v>
       </c>
       <c r="F46" s="3">
-        <v>917100</v>
+        <v>778000</v>
       </c>
       <c r="G46" s="3">
-        <v>893400</v>
+        <v>858100</v>
       </c>
       <c r="H46" s="3">
-        <v>939300</v>
+        <v>836000</v>
       </c>
       <c r="I46" s="3">
-        <v>911900</v>
+        <v>878900</v>
       </c>
       <c r="J46" s="3">
+        <v>853200</v>
+      </c>
+      <c r="K46" s="3">
         <v>851100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>944600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>906300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>948400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>802600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>638100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>881700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>645200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>788000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29200</v>
+        <v>31100</v>
       </c>
       <c r="E47" s="3">
-        <v>25300</v>
+        <v>27300</v>
       </c>
       <c r="F47" s="3">
-        <v>26800</v>
+        <v>23600</v>
       </c>
       <c r="G47" s="3">
-        <v>22100</v>
+        <v>25100</v>
       </c>
       <c r="H47" s="3">
+        <v>20700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>24200</v>
+      </c>
+      <c r="L47" s="3">
+        <v>27500</v>
+      </c>
+      <c r="M47" s="3">
+        <v>27800</v>
+      </c>
+      <c r="N47" s="3">
         <v>23100</v>
       </c>
-      <c r="I47" s="3">
-        <v>26800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>24200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>27500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>27800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>23100</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>153000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>181900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>177700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>191200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2490700</v>
+        <v>2332000</v>
       </c>
       <c r="E48" s="3">
-        <v>2412300</v>
+        <v>2330600</v>
       </c>
       <c r="F48" s="3">
-        <v>2348300</v>
+        <v>2257300</v>
       </c>
       <c r="G48" s="3">
-        <v>2195400</v>
+        <v>2197400</v>
       </c>
       <c r="H48" s="3">
-        <v>2194000</v>
+        <v>2054300</v>
       </c>
       <c r="I48" s="3">
-        <v>2136900</v>
+        <v>2053000</v>
       </c>
       <c r="J48" s="3">
+        <v>1999500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1844300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1908300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1994700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1943200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1651700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1490700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1737500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1677400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3460700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>244600</v>
+        <v>283300</v>
       </c>
       <c r="E49" s="3">
-        <v>256900</v>
+        <v>228800</v>
       </c>
       <c r="F49" s="3">
-        <v>265100</v>
+        <v>240400</v>
       </c>
       <c r="G49" s="3">
-        <v>265600</v>
+        <v>248100</v>
       </c>
       <c r="H49" s="3">
-        <v>272800</v>
+        <v>248600</v>
       </c>
       <c r="I49" s="3">
-        <v>269300</v>
+        <v>255300</v>
       </c>
       <c r="J49" s="3">
+        <v>252000</v>
+      </c>
+      <c r="K49" s="3">
         <v>260300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>285600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>295500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>314100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>279700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>264000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>301900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>313700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>409000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>107900</v>
+        <v>117300</v>
       </c>
       <c r="E52" s="3">
-        <v>123600</v>
+        <v>101000</v>
       </c>
       <c r="F52" s="3">
-        <v>117400</v>
+        <v>115700</v>
       </c>
       <c r="G52" s="3">
-        <v>129200</v>
+        <v>109900</v>
       </c>
       <c r="H52" s="3">
-        <v>104800</v>
+        <v>120900</v>
       </c>
       <c r="I52" s="3">
-        <v>69400</v>
+        <v>98000</v>
       </c>
       <c r="J52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K52" s="3">
         <v>68200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>64300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>68000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>56100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>116100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3800600</v>
+        <v>3600600</v>
       </c>
       <c r="E54" s="3">
-        <v>3649500</v>
+        <v>3556300</v>
       </c>
       <c r="F54" s="3">
-        <v>3674800</v>
+        <v>3415000</v>
       </c>
       <c r="G54" s="3">
-        <v>3505700</v>
+        <v>3438600</v>
       </c>
       <c r="H54" s="3">
-        <v>3534000</v>
+        <v>3280400</v>
       </c>
       <c r="I54" s="3">
-        <v>3414200</v>
+        <v>3306900</v>
       </c>
       <c r="J54" s="3">
+        <v>3194800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3048000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3224400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3311400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3306400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2838900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2613900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3190700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2870000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2973200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>595200</v>
+        <v>510600</v>
       </c>
       <c r="E57" s="3">
-        <v>602400</v>
+        <v>557000</v>
       </c>
       <c r="F57" s="3">
-        <v>393600</v>
+        <v>563700</v>
       </c>
       <c r="G57" s="3">
-        <v>509800</v>
+        <v>368300</v>
       </c>
       <c r="H57" s="3">
-        <v>292700</v>
+        <v>477000</v>
       </c>
       <c r="I57" s="3">
-        <v>438500</v>
+        <v>273900</v>
       </c>
       <c r="J57" s="3">
+        <v>410300</v>
+      </c>
+      <c r="K57" s="3">
         <v>420400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>448900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>198300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>671900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>171300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>489000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>446100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>399100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>273200</v>
+        <v>330700</v>
       </c>
       <c r="E58" s="3">
-        <v>189100</v>
+        <v>255600</v>
       </c>
       <c r="F58" s="3">
-        <v>109700</v>
+        <v>177000</v>
       </c>
       <c r="G58" s="3">
-        <v>127500</v>
+        <v>102600</v>
       </c>
       <c r="H58" s="3">
-        <v>170900</v>
+        <v>119300</v>
       </c>
       <c r="I58" s="3">
-        <v>299100</v>
+        <v>159900</v>
       </c>
       <c r="J58" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K58" s="3">
         <v>310900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>170300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>149300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>158000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>187900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>106600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>228400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>199600</v>
+        <v>155100</v>
       </c>
       <c r="E59" s="3">
-        <v>182000</v>
+        <v>186800</v>
       </c>
       <c r="F59" s="3">
-        <v>496700</v>
+        <v>170300</v>
       </c>
       <c r="G59" s="3">
-        <v>280400</v>
+        <v>464700</v>
       </c>
       <c r="H59" s="3">
-        <v>523400</v>
+        <v>262300</v>
       </c>
       <c r="I59" s="3">
+        <v>489700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K59" s="3">
         <v>214900</v>
       </c>
-      <c r="J59" s="3">
-        <v>214900</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>496300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>484100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>501300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>451700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>480000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>359200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>263400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>313000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1068000</v>
+        <v>996400</v>
       </c>
       <c r="E60" s="3">
-        <v>973600</v>
+        <v>999300</v>
       </c>
       <c r="F60" s="3">
-        <v>999900</v>
+        <v>911000</v>
       </c>
       <c r="G60" s="3">
-        <v>917700</v>
+        <v>935700</v>
       </c>
       <c r="H60" s="3">
-        <v>987000</v>
+        <v>858700</v>
       </c>
       <c r="I60" s="3">
-        <v>952400</v>
+        <v>923500</v>
       </c>
       <c r="J60" s="3">
+        <v>891200</v>
+      </c>
+      <c r="K60" s="3">
         <v>946200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>856300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>850000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>857600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>774600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>706200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>896800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>816200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>813200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>723100</v>
+        <v>683400</v>
       </c>
       <c r="E61" s="3">
-        <v>734500</v>
+        <v>676700</v>
       </c>
       <c r="F61" s="3">
-        <v>802200</v>
+        <v>687300</v>
       </c>
       <c r="G61" s="3">
-        <v>785300</v>
+        <v>750600</v>
       </c>
       <c r="H61" s="3">
-        <v>795200</v>
+        <v>734800</v>
       </c>
       <c r="I61" s="3">
-        <v>681400</v>
+        <v>744100</v>
       </c>
       <c r="J61" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K61" s="3">
         <v>278600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>459700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>470900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>430500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>280600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>239600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>313000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>211400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>229700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>49600</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>64200</v>
+        <v>46400</v>
       </c>
       <c r="F62" s="3">
-        <v>68300</v>
+        <v>60100</v>
       </c>
       <c r="G62" s="3">
-        <v>119900</v>
+        <v>63900</v>
       </c>
       <c r="H62" s="3">
-        <v>54900</v>
+        <v>112200</v>
       </c>
       <c r="I62" s="3">
-        <v>80000</v>
+        <v>51400</v>
       </c>
       <c r="J62" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K62" s="3">
         <v>109400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>204600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>133900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>147000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>174000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>200100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>152100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1839200</v>
+        <v>1735100</v>
       </c>
       <c r="E66" s="3">
-        <v>1770800</v>
+        <v>1721000</v>
       </c>
       <c r="F66" s="3">
-        <v>1869000</v>
+        <v>1657000</v>
       </c>
       <c r="G66" s="3">
-        <v>1821200</v>
+        <v>1748900</v>
       </c>
       <c r="H66" s="3">
-        <v>1835400</v>
+        <v>1704200</v>
       </c>
       <c r="I66" s="3">
-        <v>1712000</v>
+        <v>1717500</v>
       </c>
       <c r="J66" s="3">
+        <v>1602000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1345500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1429300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1538200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1421100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1119000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1410400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1260900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1212300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1670600</v>
+        <v>1593500</v>
       </c>
       <c r="E72" s="3">
-        <v>1588000</v>
+        <v>1563300</v>
       </c>
       <c r="F72" s="3">
-        <v>1515000</v>
+        <v>1486000</v>
       </c>
       <c r="G72" s="3">
-        <v>1393800</v>
+        <v>1417600</v>
       </c>
       <c r="H72" s="3">
-        <v>1407800</v>
+        <v>1304200</v>
       </c>
       <c r="I72" s="3">
-        <v>1411500</v>
+        <v>1317300</v>
       </c>
       <c r="J72" s="3">
+        <v>1320800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1411800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1481500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1441000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1538500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1329500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1197200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1423400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1252100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1392000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1961400</v>
+        <v>1865500</v>
       </c>
       <c r="E76" s="3">
-        <v>1878700</v>
+        <v>1835300</v>
       </c>
       <c r="F76" s="3">
-        <v>1805700</v>
+        <v>1758000</v>
       </c>
       <c r="G76" s="3">
-        <v>1684500</v>
+        <v>1689700</v>
       </c>
       <c r="H76" s="3">
-        <v>1698500</v>
+        <v>1576200</v>
       </c>
       <c r="I76" s="3">
-        <v>1702200</v>
+        <v>1589400</v>
       </c>
       <c r="J76" s="3">
+        <v>1592800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1702500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1795200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1773200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1885300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1638200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1494900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1780300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1609000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1760900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73100</v>
+        <v>34400</v>
       </c>
       <c r="E81" s="3">
-        <v>78300</v>
+        <v>68400</v>
       </c>
       <c r="F81" s="3">
-        <v>77300</v>
+        <v>73300</v>
       </c>
       <c r="G81" s="3">
-        <v>62100</v>
+        <v>72300</v>
       </c>
       <c r="H81" s="3">
-        <v>-17400</v>
+        <v>58100</v>
       </c>
       <c r="I81" s="3">
-        <v>48200</v>
+        <v>-16300</v>
       </c>
       <c r="J81" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K81" s="3">
         <v>83500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>80600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>82600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>121100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>112800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>165400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,37 +4426,38 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200700</v>
+        <v>191200</v>
       </c>
       <c r="E83" s="3">
-        <v>200800</v>
+        <v>187800</v>
       </c>
       <c r="F83" s="3">
-        <v>202300</v>
+        <v>187900</v>
       </c>
       <c r="G83" s="3">
-        <v>193200</v>
+        <v>189300</v>
       </c>
       <c r="H83" s="3">
-        <v>201700</v>
+        <v>180800</v>
       </c>
       <c r="I83" s="3">
-        <v>196400</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>188700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>183800</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>173300</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
@@ -4269,8 +4468,8 @@
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262200</v>
+        <v>112800</v>
       </c>
       <c r="E89" s="3">
-        <v>207100</v>
+        <v>245300</v>
       </c>
       <c r="F89" s="3">
-        <v>433400</v>
+        <v>193800</v>
       </c>
       <c r="G89" s="3">
-        <v>196400</v>
+        <v>405600</v>
       </c>
       <c r="H89" s="3">
-        <v>388400</v>
+        <v>183800</v>
       </c>
       <c r="I89" s="3">
-        <v>104600</v>
+        <v>363400</v>
       </c>
       <c r="J89" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K89" s="3">
         <v>204000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>134300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>220700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>104000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>414700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-231900</v>
+        <v>-180900</v>
       </c>
       <c r="E91" s="3">
-        <v>-230500</v>
+        <v>-217000</v>
       </c>
       <c r="F91" s="3">
-        <v>-301600</v>
+        <v>-215600</v>
       </c>
       <c r="G91" s="3">
-        <v>-168900</v>
+        <v>-282200</v>
       </c>
       <c r="H91" s="3">
-        <v>-202000</v>
+        <v>-158000</v>
       </c>
       <c r="I91" s="3">
-        <v>-242000</v>
+        <v>-189000</v>
       </c>
       <c r="J91" s="3">
+        <v>-226400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-251800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-199400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-248800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-264600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-292400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-202700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-263400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-140400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-588900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-293900</v>
+        <v>-170200</v>
       </c>
       <c r="E94" s="3">
-        <v>-241400</v>
+        <v>-275000</v>
       </c>
       <c r="F94" s="3">
-        <v>-313400</v>
+        <v>-225900</v>
       </c>
       <c r="G94" s="3">
-        <v>-150400</v>
+        <v>-293300</v>
       </c>
       <c r="H94" s="3">
-        <v>-114400</v>
+        <v>-140700</v>
       </c>
       <c r="I94" s="3">
-        <v>-228800</v>
+        <v>-107000</v>
       </c>
       <c r="J94" s="3">
+        <v>-214100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-251800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-195600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-180200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-258200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-286400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-103200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-350200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-212900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-205000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4906,8 +5140,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23100</v>
+        <v>17500</v>
       </c>
       <c r="E100" s="3">
-        <v>-58700</v>
+        <v>21700</v>
       </c>
       <c r="F100" s="3">
-        <v>-66600</v>
+        <v>-54900</v>
       </c>
       <c r="G100" s="3">
-        <v>-69900</v>
+        <v>-62300</v>
       </c>
       <c r="H100" s="3">
-        <v>-59600</v>
+        <v>-65400</v>
       </c>
       <c r="I100" s="3">
-        <v>99700</v>
+        <v>-55800</v>
       </c>
       <c r="J100" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>38400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-29700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>145300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>47500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>65100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,26 +5393,26 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8600</v>
+        <v>-39900</v>
       </c>
       <c r="E102" s="3">
-        <v>-92900</v>
+        <v>-8000</v>
       </c>
       <c r="F102" s="3">
-        <v>63200</v>
+        <v>-86900</v>
       </c>
       <c r="G102" s="3">
-        <v>-47300</v>
+        <v>59100</v>
       </c>
       <c r="H102" s="3">
-        <v>214400</v>
+        <v>-44200</v>
       </c>
       <c r="I102" s="3">
-        <v>-24500</v>
+        <v>200600</v>
       </c>
       <c r="J102" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-41200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>89100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-41200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>126300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-201600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>146200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1139400</v>
+        <v>1093900</v>
       </c>
       <c r="E8" s="3">
-        <v>1156300</v>
+        <v>1110100</v>
       </c>
       <c r="F8" s="3">
-        <v>1147000</v>
+        <v>1101200</v>
       </c>
       <c r="G8" s="3">
-        <v>1175800</v>
+        <v>1128800</v>
       </c>
       <c r="H8" s="3">
-        <v>1152600</v>
+        <v>1106600</v>
       </c>
       <c r="I8" s="3">
-        <v>1161700</v>
+        <v>1115300</v>
       </c>
       <c r="J8" s="3">
-        <v>1157100</v>
+        <v>1110900</v>
       </c>
       <c r="K8" s="3">
         <v>1224100</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265500</v>
+        <v>254900</v>
       </c>
       <c r="E9" s="3">
-        <v>256700</v>
+        <v>246500</v>
       </c>
       <c r="F9" s="3">
-        <v>230300</v>
+        <v>221100</v>
       </c>
       <c r="G9" s="3">
-        <v>239000</v>
+        <v>229500</v>
       </c>
       <c r="H9" s="3">
-        <v>227400</v>
+        <v>218400</v>
       </c>
       <c r="I9" s="3">
-        <v>246600</v>
+        <v>236700</v>
       </c>
       <c r="J9" s="3">
-        <v>254900</v>
+        <v>244700</v>
       </c>
       <c r="K9" s="3">
         <v>263300</v>
@@ -868,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>873800</v>
+        <v>839000</v>
       </c>
       <c r="E10" s="3">
-        <v>899500</v>
+        <v>863600</v>
       </c>
       <c r="F10" s="3">
-        <v>916700</v>
+        <v>880100</v>
       </c>
       <c r="G10" s="3">
-        <v>936700</v>
+        <v>899400</v>
       </c>
       <c r="H10" s="3">
-        <v>925200</v>
+        <v>888200</v>
       </c>
       <c r="I10" s="3">
-        <v>915100</v>
+        <v>878600</v>
       </c>
       <c r="J10" s="3">
-        <v>902200</v>
+        <v>866200</v>
       </c>
       <c r="K10" s="3">
         <v>960800</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="F14" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G14" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="H14" s="3">
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
+        <v>18200</v>
       </c>
       <c r="J14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K14" s="3">
         <v>10600</v>
@@ -1114,25 +1114,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>186600</v>
+        <v>179200</v>
       </c>
       <c r="E15" s="3">
-        <v>178600</v>
+        <v>171500</v>
       </c>
       <c r="F15" s="3">
-        <v>183900</v>
+        <v>176500</v>
       </c>
       <c r="G15" s="3">
-        <v>179500</v>
+        <v>172400</v>
       </c>
       <c r="H15" s="3">
-        <v>179800</v>
+        <v>172600</v>
       </c>
       <c r="I15" s="3">
-        <v>169700</v>
+        <v>163000</v>
       </c>
       <c r="J15" s="3">
-        <v>180500</v>
+        <v>173300</v>
       </c>
       <c r="K15" s="3">
         <v>163400</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1064300</v>
+        <v>1021800</v>
       </c>
       <c r="E17" s="3">
-        <v>1024700</v>
+        <v>983800</v>
       </c>
       <c r="F17" s="3">
-        <v>1012900</v>
+        <v>972400</v>
       </c>
       <c r="G17" s="3">
-        <v>1052900</v>
+        <v>1010900</v>
       </c>
       <c r="H17" s="3">
-        <v>1015100</v>
+        <v>974600</v>
       </c>
       <c r="I17" s="3">
-        <v>1136300</v>
+        <v>1090900</v>
       </c>
       <c r="J17" s="3">
-        <v>1041400</v>
+        <v>999800</v>
       </c>
       <c r="K17" s="3">
         <v>1076000</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="E18" s="3">
-        <v>131600</v>
+        <v>126400</v>
       </c>
       <c r="F18" s="3">
-        <v>134100</v>
+        <v>128800</v>
       </c>
       <c r="G18" s="3">
-        <v>122900</v>
+        <v>118000</v>
       </c>
       <c r="H18" s="3">
-        <v>137500</v>
+        <v>132000</v>
       </c>
       <c r="I18" s="3">
-        <v>25400</v>
+        <v>24400</v>
       </c>
       <c r="J18" s="3">
-        <v>115700</v>
+        <v>111100</v>
       </c>
       <c r="K18" s="3">
         <v>148100</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13800</v>
+        <v>-13200</v>
       </c>
       <c r="E20" s="3">
-        <v>-18600</v>
+        <v>-17800</v>
       </c>
       <c r="F20" s="3">
-        <v>-18300</v>
+        <v>-17600</v>
       </c>
       <c r="G20" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="H20" s="3">
-        <v>-36200</v>
+        <v>-34800</v>
       </c>
       <c r="I20" s="3">
-        <v>-31200</v>
+        <v>-29900</v>
       </c>
       <c r="J20" s="3">
-        <v>-41300</v>
+        <v>-39600</v>
       </c>
       <c r="K20" s="3">
         <v>-24900</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>252400</v>
+        <v>242400</v>
       </c>
       <c r="E21" s="3">
-        <v>300900</v>
+        <v>288900</v>
       </c>
       <c r="F21" s="3">
-        <v>303700</v>
+        <v>291600</v>
       </c>
       <c r="G21" s="3">
-        <v>300300</v>
+        <v>288300</v>
       </c>
       <c r="H21" s="3">
-        <v>282100</v>
+        <v>270800</v>
       </c>
       <c r="I21" s="3">
-        <v>182900</v>
+        <v>175600</v>
       </c>
       <c r="J21" s="3">
-        <v>258300</v>
+        <v>247900</v>
       </c>
       <c r="K21" s="3">
         <v>125400</v>
@@ -1435,25 +1435,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="E22" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="F22" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="H22" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="I22" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="J22" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>48200</v>
+        <v>46300</v>
       </c>
       <c r="E23" s="3">
-        <v>100800</v>
+        <v>96800</v>
       </c>
       <c r="F23" s="3">
-        <v>103800</v>
+        <v>99600</v>
       </c>
       <c r="G23" s="3">
-        <v>99000</v>
+        <v>95100</v>
       </c>
       <c r="H23" s="3">
-        <v>89300</v>
+        <v>85700</v>
       </c>
       <c r="I23" s="3">
-        <v>-15800</v>
+        <v>-15200</v>
       </c>
       <c r="J23" s="3">
-        <v>64600</v>
+        <v>62000</v>
       </c>
       <c r="K23" s="3">
         <v>123300</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="E24" s="3">
-        <v>32400</v>
+        <v>31100</v>
       </c>
       <c r="F24" s="3">
-        <v>30400</v>
+        <v>29200</v>
       </c>
       <c r="G24" s="3">
-        <v>26500</v>
+        <v>25400</v>
       </c>
       <c r="H24" s="3">
-        <v>31000</v>
+        <v>29800</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
-        <v>19300</v>
+        <v>18500</v>
       </c>
       <c r="K24" s="3">
         <v>40000</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>34500</v>
+        <v>33200</v>
       </c>
       <c r="E26" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="F26" s="3">
-        <v>73300</v>
+        <v>70400</v>
       </c>
       <c r="G26" s="3">
-        <v>72600</v>
+        <v>69700</v>
       </c>
       <c r="H26" s="3">
-        <v>58200</v>
+        <v>55900</v>
       </c>
       <c r="I26" s="3">
-        <v>-16200</v>
+        <v>-15600</v>
       </c>
       <c r="J26" s="3">
-        <v>45300</v>
+        <v>43500</v>
       </c>
       <c r="K26" s="3">
         <v>83200</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34400</v>
+        <v>33000</v>
       </c>
       <c r="E27" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="F27" s="3">
-        <v>73300</v>
+        <v>70300</v>
       </c>
       <c r="G27" s="3">
-        <v>72300</v>
+        <v>69500</v>
       </c>
       <c r="H27" s="3">
-        <v>58100</v>
+        <v>55800</v>
       </c>
       <c r="I27" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="J27" s="3">
-        <v>45100</v>
+        <v>43300</v>
       </c>
       <c r="K27" s="3">
         <v>83500</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="E32" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="F32" s="3">
-        <v>18300</v>
+        <v>17600</v>
       </c>
       <c r="G32" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="H32" s="3">
-        <v>36200</v>
+        <v>34800</v>
       </c>
       <c r="I32" s="3">
-        <v>31200</v>
+        <v>29900</v>
       </c>
       <c r="J32" s="3">
-        <v>41300</v>
+        <v>39600</v>
       </c>
       <c r="K32" s="3">
         <v>24900</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34400</v>
+        <v>33000</v>
       </c>
       <c r="E33" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="F33" s="3">
-        <v>73300</v>
+        <v>70300</v>
       </c>
       <c r="G33" s="3">
-        <v>72300</v>
+        <v>69500</v>
       </c>
       <c r="H33" s="3">
-        <v>58100</v>
+        <v>55800</v>
       </c>
       <c r="I33" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="J33" s="3">
-        <v>45100</v>
+        <v>43300</v>
       </c>
       <c r="K33" s="3">
         <v>83500</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34400</v>
+        <v>33000</v>
       </c>
       <c r="E35" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="F35" s="3">
-        <v>73300</v>
+        <v>70300</v>
       </c>
       <c r="G35" s="3">
-        <v>72300</v>
+        <v>69500</v>
       </c>
       <c r="H35" s="3">
-        <v>58100</v>
+        <v>55800</v>
       </c>
       <c r="I35" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="J35" s="3">
-        <v>45100</v>
+        <v>43300</v>
       </c>
       <c r="K35" s="3">
         <v>83500</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134600</v>
+        <v>129200</v>
       </c>
       <c r="E41" s="3">
-        <v>167200</v>
+        <v>160500</v>
       </c>
       <c r="F41" s="3">
-        <v>160000</v>
+        <v>153600</v>
       </c>
       <c r="G41" s="3">
-        <v>195900</v>
+        <v>188100</v>
       </c>
       <c r="H41" s="3">
-        <v>152700</v>
+        <v>146600</v>
       </c>
       <c r="I41" s="3">
-        <v>118900</v>
+        <v>114200</v>
       </c>
       <c r="J41" s="3">
-        <v>65600</v>
+        <v>63000</v>
       </c>
       <c r="K41" s="3">
         <v>75300</v>
@@ -2380,25 +2380,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19000</v>
+        <v>18200</v>
       </c>
       <c r="E42" s="3">
-        <v>14200</v>
+        <v>13600</v>
       </c>
       <c r="F42" s="3">
-        <v>34600</v>
+        <v>33300</v>
       </c>
       <c r="G42" s="3">
-        <v>81600</v>
+        <v>78400</v>
       </c>
       <c r="H42" s="3">
-        <v>75000</v>
+        <v>72000</v>
       </c>
       <c r="I42" s="3">
-        <v>187800</v>
+        <v>180300</v>
       </c>
       <c r="J42" s="3">
-        <v>110200</v>
+        <v>105800</v>
       </c>
       <c r="K42" s="3">
         <v>119800</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>593200</v>
+        <v>569500</v>
       </c>
       <c r="E43" s="3">
-        <v>509000</v>
+        <v>488700</v>
       </c>
       <c r="F43" s="3">
-        <v>371600</v>
+        <v>356800</v>
       </c>
       <c r="G43" s="3">
-        <v>473800</v>
+        <v>454900</v>
       </c>
       <c r="H43" s="3">
-        <v>396200</v>
+        <v>380300</v>
       </c>
       <c r="I43" s="3">
-        <v>471600</v>
+        <v>452800</v>
       </c>
       <c r="J43" s="3">
-        <v>498100</v>
+        <v>478300</v>
       </c>
       <c r="K43" s="3">
         <v>583000</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65300</v>
+        <v>62700</v>
       </c>
       <c r="E44" s="3">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="F44" s="3">
-        <v>64300</v>
+        <v>61700</v>
       </c>
       <c r="G44" s="3">
-        <v>55300</v>
+        <v>53100</v>
       </c>
       <c r="H44" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="I44" s="3">
-        <v>52400</v>
+        <v>50300</v>
       </c>
       <c r="J44" s="3">
-        <v>64300</v>
+        <v>61800</v>
       </c>
       <c r="K44" s="3">
         <v>72900</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24800</v>
+        <v>23800</v>
       </c>
       <c r="E45" s="3">
-        <v>119900</v>
+        <v>115100</v>
       </c>
       <c r="F45" s="3">
-        <v>147400</v>
+        <v>141600</v>
       </c>
       <c r="G45" s="3">
-        <v>51600</v>
+        <v>49500</v>
       </c>
       <c r="H45" s="3">
-        <v>166400</v>
+        <v>159700</v>
       </c>
       <c r="I45" s="3">
-        <v>48200</v>
+        <v>46200</v>
       </c>
       <c r="J45" s="3">
-        <v>115000</v>
+        <v>110400</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>836900</v>
+        <v>803500</v>
       </c>
       <c r="E46" s="3">
-        <v>868600</v>
+        <v>833900</v>
       </c>
       <c r="F46" s="3">
-        <v>778000</v>
+        <v>746900</v>
       </c>
       <c r="G46" s="3">
-        <v>858100</v>
+        <v>823900</v>
       </c>
       <c r="H46" s="3">
-        <v>836000</v>
+        <v>802600</v>
       </c>
       <c r="I46" s="3">
-        <v>878900</v>
+        <v>843800</v>
       </c>
       <c r="J46" s="3">
-        <v>853200</v>
+        <v>819200</v>
       </c>
       <c r="K46" s="3">
         <v>851100</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>31100</v>
+        <v>29800</v>
       </c>
       <c r="E47" s="3">
-        <v>27300</v>
+        <v>26200</v>
       </c>
       <c r="F47" s="3">
-        <v>23600</v>
+        <v>22700</v>
       </c>
       <c r="G47" s="3">
-        <v>25100</v>
+        <v>24100</v>
       </c>
       <c r="H47" s="3">
-        <v>20700</v>
+        <v>19900</v>
       </c>
       <c r="I47" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="J47" s="3">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="K47" s="3">
         <v>24200</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2332000</v>
+        <v>2239000</v>
       </c>
       <c r="E48" s="3">
-        <v>2330600</v>
+        <v>2237600</v>
       </c>
       <c r="F48" s="3">
-        <v>2257300</v>
+        <v>2167200</v>
       </c>
       <c r="G48" s="3">
-        <v>2197400</v>
+        <v>2109700</v>
       </c>
       <c r="H48" s="3">
-        <v>2054300</v>
+        <v>1972300</v>
       </c>
       <c r="I48" s="3">
-        <v>2053000</v>
+        <v>1971000</v>
       </c>
       <c r="J48" s="3">
-        <v>1999500</v>
+        <v>1919700</v>
       </c>
       <c r="K48" s="3">
         <v>1844300</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>283300</v>
+        <v>272000</v>
       </c>
       <c r="E49" s="3">
-        <v>228800</v>
+        <v>219700</v>
       </c>
       <c r="F49" s="3">
-        <v>240400</v>
+        <v>230800</v>
       </c>
       <c r="G49" s="3">
-        <v>248100</v>
+        <v>238200</v>
       </c>
       <c r="H49" s="3">
-        <v>248600</v>
+        <v>238600</v>
       </c>
       <c r="I49" s="3">
-        <v>255300</v>
+        <v>245100</v>
       </c>
       <c r="J49" s="3">
-        <v>252000</v>
+        <v>241900</v>
       </c>
       <c r="K49" s="3">
         <v>260300</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117300</v>
+        <v>112600</v>
       </c>
       <c r="E52" s="3">
-        <v>101000</v>
+        <v>96900</v>
       </c>
       <c r="F52" s="3">
-        <v>115700</v>
+        <v>111000</v>
       </c>
       <c r="G52" s="3">
-        <v>109900</v>
+        <v>105500</v>
       </c>
       <c r="H52" s="3">
-        <v>120900</v>
+        <v>116100</v>
       </c>
       <c r="I52" s="3">
-        <v>98000</v>
+        <v>94100</v>
       </c>
       <c r="J52" s="3">
-        <v>65000</v>
+        <v>62400</v>
       </c>
       <c r="K52" s="3">
         <v>68200</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600600</v>
+        <v>3456900</v>
       </c>
       <c r="E54" s="3">
-        <v>3556300</v>
+        <v>3414400</v>
       </c>
       <c r="F54" s="3">
-        <v>3415000</v>
+        <v>3278700</v>
       </c>
       <c r="G54" s="3">
-        <v>3438600</v>
+        <v>3301300</v>
       </c>
       <c r="H54" s="3">
-        <v>3280400</v>
+        <v>3149500</v>
       </c>
       <c r="I54" s="3">
-        <v>3306900</v>
+        <v>3174900</v>
       </c>
       <c r="J54" s="3">
-        <v>3194800</v>
+        <v>3067300</v>
       </c>
       <c r="K54" s="3">
         <v>3048000</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>510600</v>
+        <v>490300</v>
       </c>
       <c r="E57" s="3">
-        <v>557000</v>
+        <v>534700</v>
       </c>
       <c r="F57" s="3">
-        <v>563700</v>
+        <v>541200</v>
       </c>
       <c r="G57" s="3">
-        <v>368300</v>
+        <v>353600</v>
       </c>
       <c r="H57" s="3">
-        <v>477000</v>
+        <v>458000</v>
       </c>
       <c r="I57" s="3">
-        <v>273900</v>
+        <v>262900</v>
       </c>
       <c r="J57" s="3">
-        <v>410300</v>
+        <v>393900</v>
       </c>
       <c r="K57" s="3">
         <v>420400</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>330700</v>
+        <v>317500</v>
       </c>
       <c r="E58" s="3">
-        <v>255600</v>
+        <v>245400</v>
       </c>
       <c r="F58" s="3">
-        <v>177000</v>
+        <v>169900</v>
       </c>
       <c r="G58" s="3">
-        <v>102600</v>
+        <v>98500</v>
       </c>
       <c r="H58" s="3">
-        <v>119300</v>
+        <v>114600</v>
       </c>
       <c r="I58" s="3">
-        <v>159900</v>
+        <v>153600</v>
       </c>
       <c r="J58" s="3">
-        <v>279900</v>
+        <v>268700</v>
       </c>
       <c r="K58" s="3">
         <v>310900</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155100</v>
+        <v>149000</v>
       </c>
       <c r="E59" s="3">
-        <v>186800</v>
+        <v>179300</v>
       </c>
       <c r="F59" s="3">
-        <v>170300</v>
+        <v>163500</v>
       </c>
       <c r="G59" s="3">
-        <v>464700</v>
+        <v>446200</v>
       </c>
       <c r="H59" s="3">
-        <v>262300</v>
+        <v>251900</v>
       </c>
       <c r="I59" s="3">
-        <v>489700</v>
+        <v>470200</v>
       </c>
       <c r="J59" s="3">
-        <v>201100</v>
+        <v>193100</v>
       </c>
       <c r="K59" s="3">
         <v>214900</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>996400</v>
+        <v>956700</v>
       </c>
       <c r="E60" s="3">
-        <v>999300</v>
+        <v>959500</v>
       </c>
       <c r="F60" s="3">
-        <v>911000</v>
+        <v>874600</v>
       </c>
       <c r="G60" s="3">
-        <v>935700</v>
+        <v>898300</v>
       </c>
       <c r="H60" s="3">
-        <v>858700</v>
+        <v>824400</v>
       </c>
       <c r="I60" s="3">
-        <v>923500</v>
+        <v>886700</v>
       </c>
       <c r="J60" s="3">
-        <v>891200</v>
+        <v>855700</v>
       </c>
       <c r="K60" s="3">
         <v>946200</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>683400</v>
+        <v>656200</v>
       </c>
       <c r="E61" s="3">
-        <v>676700</v>
+        <v>649700</v>
       </c>
       <c r="F61" s="3">
-        <v>687300</v>
+        <v>659900</v>
       </c>
       <c r="G61" s="3">
-        <v>750600</v>
+        <v>720700</v>
       </c>
       <c r="H61" s="3">
-        <v>734800</v>
+        <v>705500</v>
       </c>
       <c r="I61" s="3">
-        <v>744100</v>
+        <v>714400</v>
       </c>
       <c r="J61" s="3">
-        <v>637600</v>
+        <v>612200</v>
       </c>
       <c r="K61" s="3">
         <v>278600</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>54200</v>
       </c>
       <c r="E62" s="3">
-        <v>46400</v>
+        <v>44500</v>
       </c>
       <c r="F62" s="3">
-        <v>60100</v>
+        <v>57700</v>
       </c>
       <c r="G62" s="3">
-        <v>63900</v>
+        <v>61400</v>
       </c>
       <c r="H62" s="3">
-        <v>112200</v>
+        <v>107700</v>
       </c>
       <c r="I62" s="3">
-        <v>51400</v>
+        <v>49300</v>
       </c>
       <c r="J62" s="3">
-        <v>74800</v>
+        <v>71800</v>
       </c>
       <c r="K62" s="3">
         <v>109400</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1735100</v>
+        <v>1665800</v>
       </c>
       <c r="E66" s="3">
-        <v>1721000</v>
+        <v>1652400</v>
       </c>
       <c r="F66" s="3">
-        <v>1657000</v>
+        <v>1590900</v>
       </c>
       <c r="G66" s="3">
-        <v>1748900</v>
+        <v>1679100</v>
       </c>
       <c r="H66" s="3">
-        <v>1704200</v>
+        <v>1636200</v>
       </c>
       <c r="I66" s="3">
-        <v>1717500</v>
+        <v>1648900</v>
       </c>
       <c r="J66" s="3">
-        <v>1602000</v>
+        <v>1538000</v>
       </c>
       <c r="K66" s="3">
         <v>1345500</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1593500</v>
+        <v>1529900</v>
       </c>
       <c r="E72" s="3">
-        <v>1563300</v>
+        <v>1500900</v>
       </c>
       <c r="F72" s="3">
-        <v>1486000</v>
+        <v>1426600</v>
       </c>
       <c r="G72" s="3">
-        <v>1417600</v>
+        <v>1361100</v>
       </c>
       <c r="H72" s="3">
-        <v>1304200</v>
+        <v>1252100</v>
       </c>
       <c r="I72" s="3">
-        <v>1317300</v>
+        <v>1264800</v>
       </c>
       <c r="J72" s="3">
-        <v>1320800</v>
+        <v>1268100</v>
       </c>
       <c r="K72" s="3">
         <v>1411800</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1865500</v>
+        <v>1791100</v>
       </c>
       <c r="E76" s="3">
-        <v>1835300</v>
+        <v>1762000</v>
       </c>
       <c r="F76" s="3">
-        <v>1758000</v>
+        <v>1687800</v>
       </c>
       <c r="G76" s="3">
-        <v>1689700</v>
+        <v>1622200</v>
       </c>
       <c r="H76" s="3">
-        <v>1576200</v>
+        <v>1513300</v>
       </c>
       <c r="I76" s="3">
-        <v>1589400</v>
+        <v>1525900</v>
       </c>
       <c r="J76" s="3">
-        <v>1592800</v>
+        <v>1529300</v>
       </c>
       <c r="K76" s="3">
         <v>1702500</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34400</v>
+        <v>33000</v>
       </c>
       <c r="E81" s="3">
-        <v>68400</v>
+        <v>65700</v>
       </c>
       <c r="F81" s="3">
-        <v>73300</v>
+        <v>70300</v>
       </c>
       <c r="G81" s="3">
-        <v>72300</v>
+        <v>69500</v>
       </c>
       <c r="H81" s="3">
-        <v>58100</v>
+        <v>55800</v>
       </c>
       <c r="I81" s="3">
-        <v>-16300</v>
+        <v>-15600</v>
       </c>
       <c r="J81" s="3">
-        <v>45100</v>
+        <v>43300</v>
       </c>
       <c r="K81" s="3">
         <v>83500</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>191200</v>
+        <v>183600</v>
       </c>
       <c r="E83" s="3">
-        <v>187800</v>
+        <v>180300</v>
       </c>
       <c r="F83" s="3">
-        <v>187900</v>
+        <v>180400</v>
       </c>
       <c r="G83" s="3">
-        <v>189300</v>
+        <v>181700</v>
       </c>
       <c r="H83" s="3">
-        <v>180800</v>
+        <v>173600</v>
       </c>
       <c r="I83" s="3">
-        <v>188700</v>
+        <v>181200</v>
       </c>
       <c r="J83" s="3">
-        <v>183800</v>
+        <v>176500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>112800</v>
+        <v>108300</v>
       </c>
       <c r="E89" s="3">
-        <v>245300</v>
+        <v>235500</v>
       </c>
       <c r="F89" s="3">
-        <v>193800</v>
+        <v>186100</v>
       </c>
       <c r="G89" s="3">
-        <v>405600</v>
+        <v>389400</v>
       </c>
       <c r="H89" s="3">
-        <v>183800</v>
+        <v>176500</v>
       </c>
       <c r="I89" s="3">
-        <v>363400</v>
+        <v>348900</v>
       </c>
       <c r="J89" s="3">
-        <v>97900</v>
+        <v>94000</v>
       </c>
       <c r="K89" s="3">
         <v>204000</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-180900</v>
+        <v>-3358000</v>
       </c>
       <c r="E91" s="3">
-        <v>-217000</v>
+        <v>-4028000</v>
       </c>
       <c r="F91" s="3">
-        <v>-215600</v>
+        <v>-4003000</v>
       </c>
       <c r="G91" s="3">
-        <v>-282200</v>
+        <v>-5378000</v>
       </c>
       <c r="H91" s="3">
-        <v>-158000</v>
+        <v>-2933000</v>
       </c>
       <c r="I91" s="3">
-        <v>-189000</v>
+        <v>-3509000</v>
       </c>
       <c r="J91" s="3">
-        <v>-226400</v>
+        <v>-4203000</v>
       </c>
       <c r="K91" s="3">
         <v>-251800</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-170200</v>
+        <v>-163400</v>
       </c>
       <c r="E94" s="3">
-        <v>-275000</v>
+        <v>-264000</v>
       </c>
       <c r="F94" s="3">
-        <v>-225900</v>
+        <v>-216900</v>
       </c>
       <c r="G94" s="3">
-        <v>-293300</v>
+        <v>-281600</v>
       </c>
       <c r="H94" s="3">
-        <v>-140700</v>
+        <v>-135100</v>
       </c>
       <c r="I94" s="3">
-        <v>-107000</v>
+        <v>-102800</v>
       </c>
       <c r="J94" s="3">
-        <v>-214100</v>
+        <v>-205500</v>
       </c>
       <c r="K94" s="3">
         <v>-251800</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="E100" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="F100" s="3">
-        <v>-54900</v>
+        <v>-52700</v>
       </c>
       <c r="G100" s="3">
-        <v>-62300</v>
+        <v>-59800</v>
       </c>
       <c r="H100" s="3">
-        <v>-65400</v>
+        <v>-62800</v>
       </c>
       <c r="I100" s="3">
-        <v>-55800</v>
+        <v>-53500</v>
       </c>
       <c r="J100" s="3">
-        <v>93200</v>
+        <v>89500</v>
       </c>
       <c r="K100" s="3">
         <v>5600</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39900</v>
+        <v>-38300</v>
       </c>
       <c r="E102" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="F102" s="3">
-        <v>-86900</v>
+        <v>-83500</v>
       </c>
       <c r="G102" s="3">
-        <v>59100</v>
+        <v>56700</v>
       </c>
       <c r="H102" s="3">
-        <v>-44200</v>
+        <v>-42500</v>
       </c>
       <c r="I102" s="3">
-        <v>200600</v>
+        <v>192600</v>
       </c>
       <c r="J102" s="3">
-        <v>-22900</v>
+        <v>-22000</v>
       </c>
       <c r="K102" s="3">
         <v>-41200</v>

--- a/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TLKGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TLKGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1093900</v>
+        <v>1165100</v>
       </c>
       <c r="E8" s="3">
-        <v>1110100</v>
+        <v>1120700</v>
       </c>
       <c r="F8" s="3">
-        <v>1101200</v>
+        <v>1137400</v>
       </c>
       <c r="G8" s="3">
-        <v>1128800</v>
+        <v>1128300</v>
       </c>
       <c r="H8" s="3">
-        <v>1106600</v>
+        <v>1156600</v>
       </c>
       <c r="I8" s="3">
-        <v>1115300</v>
+        <v>1133800</v>
       </c>
       <c r="J8" s="3">
+        <v>1142700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1110900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1224100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1273900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1305300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1319500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1229100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1156500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1408000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1150200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1193200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1126800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>254900</v>
+        <v>294600</v>
       </c>
       <c r="E9" s="3">
-        <v>246500</v>
+        <v>261200</v>
       </c>
       <c r="F9" s="3">
-        <v>221100</v>
+        <v>252600</v>
       </c>
       <c r="G9" s="3">
-        <v>229500</v>
+        <v>226500</v>
       </c>
       <c r="H9" s="3">
-        <v>218400</v>
+        <v>235100</v>
       </c>
       <c r="I9" s="3">
-        <v>236700</v>
+        <v>223700</v>
       </c>
       <c r="J9" s="3">
+        <v>242500</v>
+      </c>
+      <c r="K9" s="3">
         <v>244700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>263300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>419100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>399200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>270200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>285000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>246300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>307000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>227900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>252600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>839000</v>
+        <v>870600</v>
       </c>
       <c r="E10" s="3">
-        <v>863600</v>
+        <v>859600</v>
       </c>
       <c r="F10" s="3">
-        <v>880100</v>
+        <v>884800</v>
       </c>
       <c r="G10" s="3">
-        <v>899400</v>
+        <v>901700</v>
       </c>
       <c r="H10" s="3">
-        <v>888200</v>
+        <v>921400</v>
       </c>
       <c r="I10" s="3">
-        <v>878600</v>
+        <v>910100</v>
       </c>
       <c r="J10" s="3">
+        <v>900100</v>
+      </c>
+      <c r="K10" s="3">
         <v>866200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>960800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>854800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>906100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1049300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>944100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>910300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1101000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>922300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>940600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>941800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,120 +1069,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>4400</v>
+        <v>711300</v>
       </c>
       <c r="E14" s="3">
-        <v>8900</v>
+        <v>4500</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>9100</v>
       </c>
       <c r="G14" s="3">
-        <v>9400</v>
+        <v>4000</v>
       </c>
       <c r="H14" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
-        <v>18200</v>
-      </c>
       <c r="J14" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>179200</v>
+        <v>195100</v>
       </c>
       <c r="E15" s="3">
-        <v>171500</v>
+        <v>183600</v>
       </c>
       <c r="F15" s="3">
-        <v>176500</v>
+        <v>175700</v>
       </c>
       <c r="G15" s="3">
-        <v>172400</v>
+        <v>180900</v>
       </c>
       <c r="H15" s="3">
-        <v>172600</v>
+        <v>176600</v>
       </c>
       <c r="I15" s="3">
-        <v>163000</v>
+        <v>176800</v>
       </c>
       <c r="J15" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K15" s="3">
         <v>173300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>163400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>168000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>187000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>179400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>168200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>153200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>188100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>177100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>201000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>173300</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1021800</v>
+        <v>1883600</v>
       </c>
       <c r="E17" s="3">
-        <v>983800</v>
+        <v>1046900</v>
       </c>
       <c r="F17" s="3">
-        <v>972400</v>
+        <v>1007900</v>
       </c>
       <c r="G17" s="3">
-        <v>1010900</v>
+        <v>996300</v>
       </c>
       <c r="H17" s="3">
-        <v>974600</v>
+        <v>1035700</v>
       </c>
       <c r="I17" s="3">
-        <v>1090900</v>
+        <v>998500</v>
       </c>
       <c r="J17" s="3">
+        <v>1117700</v>
+      </c>
+      <c r="K17" s="3">
         <v>999800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1076000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1137700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1152200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1152400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1071100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1010800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1245200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1088400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1069500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1014300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>72000</v>
+        <v>-718500</v>
       </c>
       <c r="E18" s="3">
-        <v>126400</v>
+        <v>73800</v>
       </c>
       <c r="F18" s="3">
-        <v>128800</v>
+        <v>129500</v>
       </c>
       <c r="G18" s="3">
-        <v>118000</v>
+        <v>131900</v>
       </c>
       <c r="H18" s="3">
-        <v>132000</v>
+        <v>120900</v>
       </c>
       <c r="I18" s="3">
-        <v>24400</v>
+        <v>135200</v>
       </c>
       <c r="J18" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K18" s="3">
         <v>111100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>148100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>136300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>153100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>167100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>145700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>162900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>123700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>112500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,146 +1350,153 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13200</v>
+        <v>-31400</v>
       </c>
       <c r="E20" s="3">
-        <v>-17800</v>
+        <v>-13600</v>
       </c>
       <c r="F20" s="3">
-        <v>-17600</v>
+        <v>-18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-11400</v>
+        <v>-18000</v>
       </c>
       <c r="H20" s="3">
-        <v>-34800</v>
+        <v>-11700</v>
       </c>
       <c r="I20" s="3">
-        <v>-29900</v>
+        <v>-35600</v>
       </c>
       <c r="J20" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-28800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>242400</v>
+        <v>156500</v>
       </c>
       <c r="E21" s="3">
-        <v>288900</v>
+        <v>248300</v>
       </c>
       <c r="F21" s="3">
-        <v>291600</v>
+        <v>295900</v>
       </c>
       <c r="G21" s="3">
-        <v>288300</v>
+        <v>298800</v>
       </c>
       <c r="H21" s="3">
-        <v>270800</v>
+        <v>295400</v>
       </c>
       <c r="I21" s="3">
-        <v>175600</v>
+        <v>277500</v>
       </c>
       <c r="J21" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K21" s="3">
         <v>247900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>125400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>289200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>134000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>327400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>280600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>160000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>224000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>334600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>278700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
-        <v>11700</v>
+        <v>12800</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="H22" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="I22" s="3">
-        <v>9600</v>
+        <v>11800</v>
       </c>
       <c r="J22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K22" s="3">
         <v>9500</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1467,14 +1507,14 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46300</v>
+        <v>-762900</v>
       </c>
       <c r="E23" s="3">
-        <v>96800</v>
+        <v>47400</v>
       </c>
       <c r="F23" s="3">
-        <v>99600</v>
+        <v>99200</v>
       </c>
       <c r="G23" s="3">
-        <v>95100</v>
+        <v>102100</v>
       </c>
       <c r="H23" s="3">
-        <v>85700</v>
+        <v>97400</v>
       </c>
       <c r="I23" s="3">
-        <v>-15200</v>
+        <v>87800</v>
       </c>
       <c r="J23" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K23" s="3">
         <v>62000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>123300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>115900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>124300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>147900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>133100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>131400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>149100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>118100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13100</v>
+        <v>-200600</v>
       </c>
       <c r="E24" s="3">
-        <v>31100</v>
+        <v>13500</v>
       </c>
       <c r="F24" s="3">
-        <v>29200</v>
+        <v>31900</v>
       </c>
       <c r="G24" s="3">
-        <v>25400</v>
+        <v>29900</v>
       </c>
       <c r="H24" s="3">
-        <v>29800</v>
+        <v>26000</v>
       </c>
       <c r="I24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-25600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>33200</v>
+        <v>-562300</v>
       </c>
       <c r="E26" s="3">
-        <v>65700</v>
+        <v>34000</v>
       </c>
       <c r="F26" s="3">
-        <v>70400</v>
+        <v>67300</v>
       </c>
       <c r="G26" s="3">
-        <v>69700</v>
+        <v>72100</v>
       </c>
       <c r="H26" s="3">
-        <v>55900</v>
+        <v>71400</v>
       </c>
       <c r="I26" s="3">
-        <v>-15600</v>
+        <v>57300</v>
       </c>
       <c r="J26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K26" s="3">
         <v>43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>90100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>108400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>124100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>117500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>81900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>33000</v>
+        <v>-562300</v>
       </c>
       <c r="E27" s="3">
-        <v>65700</v>
+        <v>33900</v>
       </c>
       <c r="F27" s="3">
-        <v>70300</v>
+        <v>67300</v>
       </c>
       <c r="G27" s="3">
-        <v>69500</v>
+        <v>72100</v>
       </c>
       <c r="H27" s="3">
-        <v>55800</v>
+        <v>71200</v>
       </c>
       <c r="I27" s="3">
-        <v>-15600</v>
+        <v>57200</v>
       </c>
       <c r="J27" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K27" s="3">
         <v>43300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>83500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>82600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>121100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>139400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,8 +1914,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1871,14 +1932,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>26000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13200</v>
+        <v>31400</v>
       </c>
       <c r="E32" s="3">
-        <v>17800</v>
+        <v>13600</v>
       </c>
       <c r="F32" s="3">
-        <v>17600</v>
+        <v>18300</v>
       </c>
       <c r="G32" s="3">
-        <v>11400</v>
+        <v>18000</v>
       </c>
       <c r="H32" s="3">
-        <v>34800</v>
+        <v>11700</v>
       </c>
       <c r="I32" s="3">
-        <v>29900</v>
+        <v>35600</v>
       </c>
       <c r="J32" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K32" s="3">
         <v>39600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>28800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>33000</v>
+        <v>-562300</v>
       </c>
       <c r="E33" s="3">
-        <v>65700</v>
+        <v>33900</v>
       </c>
       <c r="F33" s="3">
-        <v>70300</v>
+        <v>67300</v>
       </c>
       <c r="G33" s="3">
-        <v>69500</v>
+        <v>72100</v>
       </c>
       <c r="H33" s="3">
-        <v>55800</v>
+        <v>71200</v>
       </c>
       <c r="I33" s="3">
-        <v>-15600</v>
+        <v>57200</v>
       </c>
       <c r="J33" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K33" s="3">
         <v>43300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>83500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>80600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>82600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>121100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>112800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>165400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>33000</v>
+        <v>-562300</v>
       </c>
       <c r="E35" s="3">
-        <v>65700</v>
+        <v>33900</v>
       </c>
       <c r="F35" s="3">
-        <v>70300</v>
+        <v>67300</v>
       </c>
       <c r="G35" s="3">
-        <v>69500</v>
+        <v>72100</v>
       </c>
       <c r="H35" s="3">
-        <v>55800</v>
+        <v>71200</v>
       </c>
       <c r="I35" s="3">
-        <v>-15600</v>
+        <v>57200</v>
       </c>
       <c r="J35" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K35" s="3">
         <v>43300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>83500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>80600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>82600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>121100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>112800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>165400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>129200</v>
+        <v>183800</v>
       </c>
       <c r="E41" s="3">
-        <v>160500</v>
+        <v>132400</v>
       </c>
       <c r="F41" s="3">
-        <v>153600</v>
+        <v>164500</v>
       </c>
       <c r="G41" s="3">
-        <v>188100</v>
+        <v>157400</v>
       </c>
       <c r="H41" s="3">
-        <v>146600</v>
+        <v>192700</v>
       </c>
       <c r="I41" s="3">
-        <v>114200</v>
+        <v>150200</v>
       </c>
       <c r="J41" s="3">
+        <v>117000</v>
+      </c>
+      <c r="K41" s="3">
         <v>63000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>75300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>96700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>39400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>174600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>267600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18200</v>
+        <v>8200</v>
       </c>
       <c r="E42" s="3">
-        <v>13600</v>
+        <v>18700</v>
       </c>
       <c r="F42" s="3">
-        <v>33300</v>
+        <v>13900</v>
       </c>
       <c r="G42" s="3">
-        <v>78400</v>
+        <v>34100</v>
       </c>
       <c r="H42" s="3">
-        <v>72000</v>
+        <v>80300</v>
       </c>
       <c r="I42" s="3">
-        <v>180300</v>
+        <v>73800</v>
       </c>
       <c r="J42" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K42" s="3">
         <v>105800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>119800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>142000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>179600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>195700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>188100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>120200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>334800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>301100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>569500</v>
+        <v>643100</v>
       </c>
       <c r="E43" s="3">
-        <v>488700</v>
+        <v>583500</v>
       </c>
       <c r="F43" s="3">
-        <v>356800</v>
+        <v>500600</v>
       </c>
       <c r="G43" s="3">
-        <v>454900</v>
+        <v>365600</v>
       </c>
       <c r="H43" s="3">
-        <v>380300</v>
+        <v>466000</v>
       </c>
       <c r="I43" s="3">
-        <v>452800</v>
+        <v>389700</v>
       </c>
       <c r="J43" s="3">
+        <v>463900</v>
+      </c>
+      <c r="K43" s="3">
         <v>478300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>583000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>596400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>539900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>579200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>491400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>445900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>520300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>518300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>670700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>405600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62700</v>
+        <v>57800</v>
       </c>
       <c r="E44" s="3">
-        <v>56100</v>
+        <v>64300</v>
       </c>
       <c r="F44" s="3">
-        <v>61700</v>
+        <v>57400</v>
       </c>
       <c r="G44" s="3">
-        <v>53100</v>
+        <v>63200</v>
       </c>
       <c r="H44" s="3">
-        <v>43900</v>
+        <v>54400</v>
       </c>
       <c r="I44" s="3">
-        <v>50300</v>
+        <v>45000</v>
       </c>
       <c r="J44" s="3">
+        <v>51500</v>
+      </c>
+      <c r="K44" s="3">
         <v>61800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>106900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>75200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>72800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>66600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>62500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>45200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23800</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>115100</v>
+        <v>24400</v>
       </c>
       <c r="F45" s="3">
-        <v>141600</v>
+        <v>117900</v>
       </c>
       <c r="G45" s="3">
-        <v>49500</v>
+        <v>145000</v>
       </c>
       <c r="H45" s="3">
-        <v>159700</v>
+        <v>50700</v>
       </c>
       <c r="I45" s="3">
-        <v>46200</v>
+        <v>163600</v>
       </c>
       <c r="J45" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K45" s="3">
         <v>110400</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>160800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>803500</v>
+        <v>917600</v>
       </c>
       <c r="E46" s="3">
-        <v>833900</v>
+        <v>823300</v>
       </c>
       <c r="F46" s="3">
-        <v>746900</v>
+        <v>854400</v>
       </c>
       <c r="G46" s="3">
-        <v>823900</v>
+        <v>765300</v>
       </c>
       <c r="H46" s="3">
+        <v>844100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>822300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>864500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>819200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>851100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>944600</v>
+      </c>
+      <c r="N46" s="3">
+        <v>906300</v>
+      </c>
+      <c r="O46" s="3">
+        <v>948400</v>
+      </c>
+      <c r="P46" s="3">
         <v>802600</v>
       </c>
-      <c r="I46" s="3">
-        <v>843800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>819200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>851100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>944600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>906300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>948400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>802600</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>638100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>881700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>645200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>788000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>779800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29800</v>
+        <v>37400</v>
       </c>
       <c r="E47" s="3">
-        <v>26200</v>
+        <v>30600</v>
       </c>
       <c r="F47" s="3">
-        <v>22700</v>
+        <v>26900</v>
       </c>
       <c r="G47" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="H47" s="3">
-        <v>19900</v>
+        <v>24700</v>
       </c>
       <c r="I47" s="3">
-        <v>20800</v>
+        <v>20300</v>
       </c>
       <c r="J47" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K47" s="3">
         <v>24000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>153000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>181900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>177700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>191200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>222400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2239000</v>
+        <v>1671200</v>
       </c>
       <c r="E48" s="3">
-        <v>2237600</v>
+        <v>2293900</v>
       </c>
       <c r="F48" s="3">
-        <v>2167200</v>
+        <v>2292600</v>
       </c>
       <c r="G48" s="3">
-        <v>2109700</v>
+        <v>2220400</v>
       </c>
       <c r="H48" s="3">
-        <v>1972300</v>
+        <v>2161500</v>
       </c>
       <c r="I48" s="3">
-        <v>1971000</v>
+        <v>2020700</v>
       </c>
       <c r="J48" s="3">
+        <v>2019400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1919700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1844300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1908300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1994700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1943200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1651700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1490700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1737500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1677400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3460700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1734600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>272000</v>
+        <v>238100</v>
       </c>
       <c r="E49" s="3">
-        <v>219700</v>
+        <v>278700</v>
       </c>
       <c r="F49" s="3">
-        <v>230800</v>
+        <v>225100</v>
       </c>
       <c r="G49" s="3">
-        <v>238200</v>
+        <v>236500</v>
       </c>
       <c r="H49" s="3">
-        <v>238600</v>
+        <v>244000</v>
       </c>
       <c r="I49" s="3">
-        <v>245100</v>
+        <v>244500</v>
       </c>
       <c r="J49" s="3">
+        <v>251100</v>
+      </c>
+      <c r="K49" s="3">
         <v>241900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>260300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>285600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>295500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>314100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>279700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>264000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>301900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>313700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>409000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>196800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112600</v>
+        <v>295200</v>
       </c>
       <c r="E52" s="3">
-        <v>96900</v>
+        <v>115400</v>
       </c>
       <c r="F52" s="3">
-        <v>111000</v>
+        <v>99300</v>
       </c>
       <c r="G52" s="3">
-        <v>105500</v>
+        <v>113800</v>
       </c>
       <c r="H52" s="3">
+        <v>108100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>119000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>62400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>68200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>58400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>87200</v>
+      </c>
+      <c r="O52" s="3">
+        <v>77600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>64300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>68000</v>
+      </c>
+      <c r="R52" s="3">
+        <v>87700</v>
+      </c>
+      <c r="S52" s="3">
+        <v>56100</v>
+      </c>
+      <c r="T52" s="3">
         <v>116100</v>
       </c>
-      <c r="I52" s="3">
-        <v>94100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>62400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>68200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>58400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>87200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>77600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>64300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>68000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>87700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>56100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>116100</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3456900</v>
+        <v>3159500</v>
       </c>
       <c r="E54" s="3">
-        <v>3414400</v>
+        <v>3541800</v>
       </c>
       <c r="F54" s="3">
-        <v>3278700</v>
+        <v>3498200</v>
       </c>
       <c r="G54" s="3">
-        <v>3301300</v>
+        <v>3359200</v>
       </c>
       <c r="H54" s="3">
-        <v>3149500</v>
+        <v>3382400</v>
       </c>
       <c r="I54" s="3">
-        <v>3174900</v>
+        <v>3226800</v>
       </c>
       <c r="J54" s="3">
+        <v>3252800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3067300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3048000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3224400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3311400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3306400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2838900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2613900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3190700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2870000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2973200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2937400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>490300</v>
+        <v>552100</v>
       </c>
       <c r="E57" s="3">
-        <v>534700</v>
+        <v>502300</v>
       </c>
       <c r="F57" s="3">
-        <v>541200</v>
+        <v>547900</v>
       </c>
       <c r="G57" s="3">
-        <v>353600</v>
+        <v>554500</v>
       </c>
       <c r="H57" s="3">
-        <v>458000</v>
+        <v>362300</v>
       </c>
       <c r="I57" s="3">
-        <v>262900</v>
+        <v>469200</v>
       </c>
       <c r="J57" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K57" s="3">
         <v>393900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>420400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>189700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>448900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>198300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>671900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>171300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>489000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>446100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>399100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>362200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>317500</v>
+        <v>192300</v>
       </c>
       <c r="E58" s="3">
-        <v>245400</v>
+        <v>325300</v>
       </c>
       <c r="F58" s="3">
-        <v>169900</v>
+        <v>251400</v>
       </c>
       <c r="G58" s="3">
-        <v>98500</v>
+        <v>174100</v>
       </c>
       <c r="H58" s="3">
+        <v>100900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>117400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K58" s="3">
+        <v>268700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>310900</v>
+      </c>
+      <c r="M58" s="3">
+        <v>170300</v>
+      </c>
+      <c r="N58" s="3">
+        <v>149300</v>
+      </c>
+      <c r="O58" s="3">
+        <v>158000</v>
+      </c>
+      <c r="P58" s="3">
+        <v>187900</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>54900</v>
+      </c>
+      <c r="R58" s="3">
+        <v>48600</v>
+      </c>
+      <c r="S58" s="3">
+        <v>106600</v>
+      </c>
+      <c r="T58" s="3">
+        <v>228400</v>
+      </c>
+      <c r="U58" s="3">
         <v>114600</v>
       </c>
-      <c r="I58" s="3">
-        <v>153600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>268700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>310900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>170300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>149300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>158000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>187900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>54900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>48600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>106600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>228400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>114600</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>149000</v>
+        <v>204800</v>
       </c>
       <c r="E59" s="3">
-        <v>179300</v>
+        <v>152600</v>
       </c>
       <c r="F59" s="3">
-        <v>163500</v>
+        <v>183700</v>
       </c>
       <c r="G59" s="3">
-        <v>446200</v>
+        <v>167600</v>
       </c>
       <c r="H59" s="3">
-        <v>251900</v>
+        <v>457100</v>
       </c>
       <c r="I59" s="3">
-        <v>470200</v>
+        <v>258100</v>
       </c>
       <c r="J59" s="3">
+        <v>481700</v>
+      </c>
+      <c r="K59" s="3">
         <v>193100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>214900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>496300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>484100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>501300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>451700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>480000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>359200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>263400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>313000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>326400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>956700</v>
+        <v>949200</v>
       </c>
       <c r="E60" s="3">
-        <v>959500</v>
+        <v>980200</v>
       </c>
       <c r="F60" s="3">
-        <v>874600</v>
+        <v>983000</v>
       </c>
       <c r="G60" s="3">
-        <v>898300</v>
+        <v>896100</v>
       </c>
       <c r="H60" s="3">
-        <v>824400</v>
+        <v>920400</v>
       </c>
       <c r="I60" s="3">
-        <v>886700</v>
+        <v>844700</v>
       </c>
       <c r="J60" s="3">
+        <v>908500</v>
+      </c>
+      <c r="K60" s="3">
         <v>855700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>946200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>856300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>850000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>857600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>774600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>706200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>896800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>816200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>813200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>803200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>656200</v>
+        <v>880500</v>
       </c>
       <c r="E61" s="3">
-        <v>649700</v>
+        <v>672300</v>
       </c>
       <c r="F61" s="3">
-        <v>659900</v>
+        <v>665600</v>
       </c>
       <c r="G61" s="3">
-        <v>720700</v>
+        <v>676100</v>
       </c>
       <c r="H61" s="3">
-        <v>705500</v>
+        <v>738400</v>
       </c>
       <c r="I61" s="3">
-        <v>714400</v>
+        <v>722800</v>
       </c>
       <c r="J61" s="3">
+        <v>732000</v>
+      </c>
+      <c r="K61" s="3">
         <v>612200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>278600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>459700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>470900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>430500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>280600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>239600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>313000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>211400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>229700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>54200</v>
+        <v>49500</v>
       </c>
       <c r="E62" s="3">
-        <v>44500</v>
+        <v>55500</v>
       </c>
       <c r="F62" s="3">
-        <v>57700</v>
+        <v>45600</v>
       </c>
       <c r="G62" s="3">
-        <v>61400</v>
+        <v>59100</v>
       </c>
       <c r="H62" s="3">
-        <v>107700</v>
+        <v>62900</v>
       </c>
       <c r="I62" s="3">
-        <v>49300</v>
+        <v>110300</v>
       </c>
       <c r="J62" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K62" s="3">
         <v>71800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>109400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>90200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>204600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>111500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>133900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>147000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>174000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>152100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>188700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1665800</v>
+        <v>1878000</v>
       </c>
       <c r="E66" s="3">
-        <v>1652400</v>
+        <v>1706800</v>
       </c>
       <c r="F66" s="3">
-        <v>1590900</v>
+        <v>1692900</v>
       </c>
       <c r="G66" s="3">
-        <v>1679100</v>
+        <v>1629900</v>
       </c>
       <c r="H66" s="3">
-        <v>1636200</v>
+        <v>1720300</v>
       </c>
       <c r="I66" s="3">
-        <v>1648900</v>
+        <v>1676300</v>
       </c>
       <c r="J66" s="3">
+        <v>1689400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1538000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1345500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1429300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1538200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1421100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1119000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1410400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1260900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1212300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1257600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1529900</v>
+        <v>1013900</v>
       </c>
       <c r="E72" s="3">
-        <v>1500900</v>
+        <v>1567400</v>
       </c>
       <c r="F72" s="3">
-        <v>1426600</v>
+        <v>1537700</v>
       </c>
       <c r="G72" s="3">
-        <v>1361100</v>
+        <v>1461700</v>
       </c>
       <c r="H72" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1282900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1295800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>1268100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>1411800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1481500</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="O72" s="3">
+        <v>1538500</v>
+      </c>
+      <c r="P72" s="3">
+        <v>1329500</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1197200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>1423400</v>
+      </c>
+      <c r="S72" s="3">
         <v>1252100</v>
       </c>
-      <c r="I72" s="3">
-        <v>1264800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1268100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1411800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>1481500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1441000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1538500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1329500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1197200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1423400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>1252100</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1392000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1365600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1791100</v>
+        <v>1281500</v>
       </c>
       <c r="E76" s="3">
-        <v>1762000</v>
+        <v>1835000</v>
       </c>
       <c r="F76" s="3">
-        <v>1687800</v>
+        <v>1805300</v>
       </c>
       <c r="G76" s="3">
-        <v>1622200</v>
+        <v>1729300</v>
       </c>
       <c r="H76" s="3">
-        <v>1513300</v>
+        <v>1662100</v>
       </c>
       <c r="I76" s="3">
-        <v>1525900</v>
+        <v>1550500</v>
       </c>
       <c r="J76" s="3">
+        <v>1563400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1529300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1702500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1795200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1773200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1885300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1638200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1494900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1780300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1609000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1760900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1679900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>33000</v>
+        <v>-562300</v>
       </c>
       <c r="E81" s="3">
-        <v>65700</v>
+        <v>33900</v>
       </c>
       <c r="F81" s="3">
-        <v>70300</v>
+        <v>67300</v>
       </c>
       <c r="G81" s="3">
-        <v>69500</v>
+        <v>72100</v>
       </c>
       <c r="H81" s="3">
-        <v>55800</v>
+        <v>71200</v>
       </c>
       <c r="I81" s="3">
-        <v>-15600</v>
+        <v>57200</v>
       </c>
       <c r="J81" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K81" s="3">
         <v>43300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>83500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>80600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>82600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>121100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>112800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>165400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,40 +4625,41 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>183600</v>
+        <v>906300</v>
       </c>
       <c r="E83" s="3">
-        <v>180300</v>
+        <v>188100</v>
       </c>
       <c r="F83" s="3">
-        <v>180400</v>
+        <v>184800</v>
       </c>
       <c r="G83" s="3">
-        <v>181700</v>
+        <v>184800</v>
       </c>
       <c r="H83" s="3">
-        <v>173600</v>
+        <v>186200</v>
       </c>
       <c r="I83" s="3">
-        <v>181200</v>
+        <v>177800</v>
       </c>
       <c r="J83" s="3">
+        <v>185600</v>
+      </c>
+      <c r="K83" s="3">
         <v>176500</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>173300</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
@@ -4471,8 +4670,8 @@
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>108300</v>
+        <v>160700</v>
       </c>
       <c r="E89" s="3">
-        <v>235500</v>
+        <v>111000</v>
       </c>
       <c r="F89" s="3">
-        <v>186100</v>
+        <v>241300</v>
       </c>
       <c r="G89" s="3">
-        <v>389400</v>
+        <v>190700</v>
       </c>
       <c r="H89" s="3">
-        <v>176500</v>
+        <v>399000</v>
       </c>
       <c r="I89" s="3">
-        <v>348900</v>
+        <v>180800</v>
       </c>
       <c r="J89" s="3">
+        <v>357500</v>
+      </c>
+      <c r="K89" s="3">
         <v>94000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>134300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>220700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>104000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>414700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>240600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3262000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3358000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4028000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4003000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5378000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2933000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3509000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4203000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-251800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-199400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-248800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-264600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-292400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-202700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-263400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-140400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-588900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-125400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-163400</v>
+        <v>-141400</v>
       </c>
       <c r="E94" s="3">
-        <v>-264000</v>
+        <v>-167400</v>
       </c>
       <c r="F94" s="3">
-        <v>-216900</v>
+        <v>-270500</v>
       </c>
       <c r="G94" s="3">
-        <v>-281600</v>
+        <v>-222200</v>
       </c>
       <c r="H94" s="3">
-        <v>-135100</v>
+        <v>-288500</v>
       </c>
       <c r="I94" s="3">
-        <v>-102800</v>
+        <v>-138400</v>
       </c>
       <c r="J94" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-205500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-251800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-195600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-180200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-258200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-286400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-103200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-350200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-212900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-205000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-157100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5143,8 +5377,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16800</v>
+        <v>32100</v>
       </c>
       <c r="E100" s="3">
-        <v>20800</v>
+        <v>17200</v>
       </c>
       <c r="F100" s="3">
-        <v>-52700</v>
+        <v>21300</v>
       </c>
       <c r="G100" s="3">
-        <v>-59800</v>
+        <v>-54000</v>
       </c>
       <c r="H100" s="3">
-        <v>-62800</v>
+        <v>-61300</v>
       </c>
       <c r="I100" s="3">
-        <v>-53500</v>
+        <v>-64300</v>
       </c>
       <c r="J100" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="K100" s="3">
         <v>89500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>38400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>145300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>47500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>65100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-36900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>62600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5396,26 +5645,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>100</v>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-38300</v>
+        <v>51400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7700</v>
+        <v>-39200</v>
       </c>
       <c r="F102" s="3">
-        <v>-83500</v>
+        <v>-7900</v>
       </c>
       <c r="G102" s="3">
-        <v>56700</v>
+        <v>-85500</v>
       </c>
       <c r="H102" s="3">
-        <v>-42500</v>
+        <v>58100</v>
       </c>
       <c r="I102" s="3">
-        <v>192600</v>
+        <v>-43500</v>
       </c>
       <c r="J102" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-22000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>126300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-201600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>146200</v>
       </c>
     </row>
